--- a/Project/Docu/HEV_Simu_V1_1_Spec.xlsx
+++ b/Project/Docu/HEV_Simu_V1_1_Spec.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18067"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ring\nas827\個人フォルダ\西頭\MatWork\JmaabVccWs\Jmaab_Veh_WS_HEVmodel\Docu\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="30750" windowHeight="15735"/>
   </bookViews>
   <sheets>
     <sheet name="OvView" sheetId="7" r:id="rId1"/>
@@ -25,7 +20,7 @@
     <definedName name="Simulink_requirement_item_1" localSheetId="0">#REF!</definedName>
     <definedName name="Simulink_requirement_item_2" localSheetId="0">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1015" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="438">
   <si>
     <t>Signal Name</t>
   </si>
@@ -2416,12 +2411,262 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>レーダー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAVI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>NAVI</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>情報系</t>
+    <rPh sb="0" eb="3">
+      <t>ジョウホウケイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>統合制御</t>
+    <rPh sb="0" eb="2">
+      <t>トウゴウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vehicle</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Inforainment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Vehicel Motion Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>車両運動制御</t>
+    <rPh sb="0" eb="2">
+      <t>シャリョウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウンドウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEV</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ブレーキ制御</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステアリング制御</t>
+    <rPh sb="6" eb="8">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エンジン制御</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>トランスミッション制御</t>
+    <rPh sb="9" eb="11">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>モーター制御</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バッテリー制御</t>
+    <rPh sb="5" eb="7">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エアコン制御</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ECU</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Domain</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>領域</t>
+    <rPh sb="0" eb="2">
+      <t>リョウイキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Chassis</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Power train</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body and comfort</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワトレ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボディー電装</t>
+    <rPh sb="4" eb="6">
+      <t>デンソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>○</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cooperative Control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラレルHEV制御</t>
+    <rPh sb="7" eb="9">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アイドリングストップ・エアコン協調制御</t>
+    <rPh sb="15" eb="17">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACC回生協調ブレーキ制御</t>
+    <rPh sb="3" eb="5">
+      <t>カイセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョウチョウ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Idling stop - HVAC control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Parallere HEV control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACC-Regenerative brake control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Radar detection</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HEV control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Brake control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Steering control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Engine control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transmission control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Motor control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Battery control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HVAC control</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>No</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボディー制御(メーター)</t>
+    <rPh sb="4" eb="6">
+      <t>セイギョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Body control(Meter)</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2557,8 +2802,20 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Meiryo UI"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="18">
+  <fills count="20">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2658,6 +2915,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2862,7 +3131,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="225">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3307,11 +3576,77 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="8" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3458,7 +3793,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBD6872-11B2-4535-98F0-59361D2DC43F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EBD6872-11B2-4535-98F0-59361D2DC43F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3530,7 +3865,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B951B036-D50E-490E-BC50-0930850EED5C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B951B036-D50E-490E-BC50-0930850EED5C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3602,7 +3937,7 @@
         <xdr:cNvPr id="4" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BDE715-A0F0-4A0B-A4B3-4D23999487FC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87BDE715-A0F0-4A0B-A4B3-4D23999487FC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3674,7 +4009,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E8095-8B53-4CA1-9A5F-A89FF67B719E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B3E8095-8B53-4CA1-9A5F-A89FF67B719E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3746,7 +4081,7 @@
         <xdr:cNvPr id="6" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72296828-33D6-4FD9-89B2-47F0DE4C2B96}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72296828-33D6-4FD9-89B2-47F0DE4C2B96}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3818,7 +4153,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FED7FFB-8979-4F86-9909-563FC496184B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FED7FFB-8979-4F86-9909-563FC496184B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3890,7 +4225,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CE5F38-3F06-4C8C-B2AC-7083A8E11D7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7CE5F38-3F06-4C8C-B2AC-7083A8E11D7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3962,7 +4297,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE5C4BE-AC89-4E81-AC9D-CA08BAF54707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE5C4BE-AC89-4E81-AC9D-CA08BAF54707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4066,7 +4401,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBCC5DA-C1A4-48A6-8A04-4960D0A96D4F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0DBCC5DA-C1A4-48A6-8A04-4960D0A96D4F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4138,7 +4473,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519FC5EE-2B3F-4E68-B85B-7AB047BE6CB1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{519FC5EE-2B3F-4E68-B85B-7AB047BE6CB1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4242,7 +4577,7 @@
         <xdr:cNvPr id="12" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529BC8D7-A1D0-4C7C-A9F8-0A1C66329346}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{529BC8D7-A1D0-4C7C-A9F8-0A1C66329346}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4314,7 +4649,7 @@
         <xdr:cNvPr id="13" name="角丸四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9053D143-5A23-47AA-93B9-9229262D66B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9053D143-5A23-47AA-93B9-9229262D66B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4388,7 +4723,7 @@
         <xdr:cNvPr id="14" name="角丸四角形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0C2C02-60B7-4BA7-85BD-4A47ECDB916A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B0C2C02-60B7-4BA7-85BD-4A47ECDB916A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4460,7 +4795,7 @@
         <xdr:cNvPr id="15" name="角丸四角形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5C98DE-D65A-4F9A-9027-A86BED682BDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA5C98DE-D65A-4F9A-9027-A86BED682BDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4532,7 +4867,7 @@
         <xdr:cNvPr id="16" name="角丸四角形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E19591F-05C9-4809-A0CB-984EB91A5A12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E19591F-05C9-4809-A0CB-984EB91A5A12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4604,7 +4939,7 @@
         <xdr:cNvPr id="17" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AA6F74-97E9-4AFB-A251-040D78AE2B88}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F6AA6F74-97E9-4AFB-A251-040D78AE2B88}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4665,7 +5000,7 @@
         <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAEC50E-78FD-454B-8157-1FC494FFA5D8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BAEC50E-78FD-454B-8157-1FC494FFA5D8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4728,7 +5063,7 @@
         <xdr:cNvPr id="19" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE79EE65-E9C0-4B2A-95C9-F6DAF66B6D54}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE79EE65-E9C0-4B2A-95C9-F6DAF66B6D54}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4789,7 +5124,7 @@
         <xdr:cNvPr id="20" name="角丸四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4E03DB-D346-4E14-879D-7F367D579C50}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B4E03DB-D346-4E14-879D-7F367D579C50}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4861,7 +5196,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E52BAD5-D57A-4F37-A068-8D0CFE033CBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E52BAD5-D57A-4F37-A068-8D0CFE033CBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4923,7 +5258,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E534AD9F-C950-4CE2-B5CA-75050C04BD6A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E534AD9F-C950-4CE2-B5CA-75050C04BD6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -4994,7 +5329,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E81C3E8-C7E4-47E7-B400-B7BF5323A2EB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5E81C3E8-C7E4-47E7-B400-B7BF5323A2EB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5166,7 +5501,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D44B184-DF94-4345-A4DF-A72B741CBC24}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D44B184-DF94-4345-A4DF-A72B741CBC24}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5338,7 +5673,7 @@
         <xdr:cNvPr id="25" name="角丸四角形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FC6070-0F57-4F47-95B5-9A4659342661}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61FC6070-0F57-4F47-95B5-9A4659342661}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5410,7 +5745,7 @@
         <xdr:cNvPr id="26" name="角丸四角形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB007C2B-AB3C-44FF-BC5C-F0E8D6022FB3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CB007C2B-AB3C-44FF-BC5C-F0E8D6022FB3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5482,7 +5817,7 @@
         <xdr:cNvPr id="27" name="角丸四角形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBA1396-BBD0-4E7B-A74F-9A78CFE9616C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DBA1396-BBD0-4E7B-A74F-9A78CFE9616C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5554,7 +5889,7 @@
         <xdr:cNvPr id="28" name="角丸四角形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E0981F-9B55-4129-8C42-0430A4493152}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65E0981F-9B55-4129-8C42-0430A4493152}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5626,7 +5961,7 @@
         <xdr:cNvPr id="29" name="角丸四角形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA83057-A9AC-47CA-8BA8-D0FC14BE3903}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FA83057-A9AC-47CA-8BA8-D0FC14BE3903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5720,7 +6055,7 @@
         <xdr:cNvPr id="30" name="テキスト ボックス 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76128187-DEBB-4D9F-94A7-F493E4BE7724}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76128187-DEBB-4D9F-94A7-F493E4BE7724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5791,7 +6126,7 @@
         <xdr:cNvPr id="31" name="角丸四角形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0484396F-39EA-444D-AEEB-1C59BE8B3BBF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0484396F-39EA-444D-AEEB-1C59BE8B3BBF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5863,7 +6198,7 @@
         <xdr:cNvPr id="32" name="角丸四角形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8F8FF8-FAC4-406D-B929-6C5C1BDABEC5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F8F8FF8-FAC4-406D-B929-6C5C1BDABEC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5935,7 +6270,7 @@
         <xdr:cNvPr id="33" name="角丸四角形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFE529B-528D-4110-A98E-CF73E28C0D1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3FFE529B-528D-4110-A98E-CF73E28C0D1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6007,7 +6342,7 @@
         <xdr:cNvPr id="34" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0983445-2517-4826-B875-11FB11EF2BC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0983445-2517-4826-B875-11FB11EF2BC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6065,7 +6400,7 @@
         <xdr:cNvPr id="35" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B81CB92-C9C4-4C65-87E6-865F728F4184}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B81CB92-C9C4-4C65-87E6-865F728F4184}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6127,7 +6462,7 @@
         <xdr:cNvPr id="36" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2650EC-8873-4AE2-BA6B-D3B5C10BAA30}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B2650EC-8873-4AE2-BA6B-D3B5C10BAA30}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6190,7 +6525,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280F5963-C1CF-4261-A8E9-94EE959846D3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{280F5963-C1CF-4261-A8E9-94EE959846D3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6251,7 +6586,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82382453-856D-433C-919D-0DF3AAE07CBC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82382453-856D-433C-919D-0DF3AAE07CBC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6312,7 +6647,7 @@
         <xdr:cNvPr id="39" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A590E5B-2328-4CCD-95ED-7F7E8C12B8FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A590E5B-2328-4CCD-95ED-7F7E8C12B8FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6374,7 +6709,7 @@
         <xdr:cNvPr id="40" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450441B2-B950-4EEE-86A8-E5A6EBDD21A0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{450441B2-B950-4EEE-86A8-E5A6EBDD21A0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6432,7 +6767,7 @@
         <xdr:cNvPr id="41" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63874BDB-0CB0-4381-AAE9-833D1726D8E1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63874BDB-0CB0-4381-AAE9-833D1726D8E1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6493,7 +6828,7 @@
         <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABB57CC-6E47-415E-AE62-044D6821076F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABB57CC-6E47-415E-AE62-044D6821076F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6564,7 +6899,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA3B4B0-8983-432C-9F05-479994371DCD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EA3B4B0-8983-432C-9F05-479994371DCD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6635,7 +6970,7 @@
         <xdr:cNvPr id="44" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4C7872-FC80-4306-BCB5-A331FE228DD9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC4C7872-FC80-4306-BCB5-A331FE228DD9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6698,7 +7033,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D9372C-1629-403A-96DC-60FE76EC0120}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D9372C-1629-403A-96DC-60FE76EC0120}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6769,7 +7104,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6AFD9-DDDB-41AC-A3FE-3110B6EFF489}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0D6AFD9-DDDB-41AC-A3FE-3110B6EFF489}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6832,7 +7167,7 @@
         <xdr:cNvPr id="47" name="角丸四角形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5554F27-CFC0-4428-AE3A-E36278D1FFB4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5554F27-CFC0-4428-AE3A-E36278D1FFB4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6904,7 +7239,7 @@
         <xdr:cNvPr id="48" name="角丸四角形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6311FE40-AF6B-4173-A7FB-B22122103676}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6311FE40-AF6B-4173-A7FB-B22122103676}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6976,7 +7311,7 @@
         <xdr:cNvPr id="49" name="角丸四角形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0E32F3-1113-4BAD-B103-1E86AF6A1858}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E0E32F3-1113-4BAD-B103-1E86AF6A1858}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7048,7 +7383,7 @@
         <xdr:cNvPr id="50" name="角丸四角形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A94CAD-C56C-4FA0-B5EB-1106E3F60637}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03A94CAD-C56C-4FA0-B5EB-1106E3F60637}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7120,7 +7455,7 @@
         <xdr:cNvPr id="51" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8EF6A7-B5E9-49C2-AA1B-6D1865D99C15}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F8EF6A7-B5E9-49C2-AA1B-6D1865D99C15}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7181,7 +7516,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0C47DA-A225-4495-9894-A6FD9FC1A2B5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9B0C47DA-A225-4495-9894-A6FD9FC1A2B5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7252,7 +7587,7 @@
         <xdr:cNvPr id="53" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBE4EE6-BD2C-4F80-9F09-A53BC39886AA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBBE4EE6-BD2C-4F80-9F09-A53BC39886AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7310,7 +7645,7 @@
         <xdr:cNvPr id="54" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EA73D1-C961-42B7-B141-992B36E2481E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{49EA73D1-C961-42B7-B141-992B36E2481E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7373,7 +7708,7 @@
         <xdr:cNvPr id="55" name="角丸四角形 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FB8DA8-703C-493E-8EBB-50B913664A6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48FB8DA8-703C-493E-8EBB-50B913664A6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7462,7 +7797,7 @@
         <xdr:cNvPr id="56" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24328227-4CF9-4941-9A56-E896200BB787}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24328227-4CF9-4941-9A56-E896200BB787}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7524,7 +7859,7 @@
         <xdr:cNvPr id="57" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52C8343-56EA-40EB-AFBB-857E9A59120F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F52C8343-56EA-40EB-AFBB-857E9A59120F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7586,7 +7921,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF704DC0-B4C1-441D-A145-AB200A2CB871}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EF704DC0-B4C1-441D-A145-AB200A2CB871}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7690,7 +8025,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687D1C0B-1666-4174-BACA-343219E5AC51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{687D1C0B-1666-4174-BACA-343219E5AC51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7751,7 +8086,7 @@
         <xdr:cNvPr id="60" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA8A75F-898C-4B49-841F-1F2D77A42937}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CA8A75F-898C-4B49-841F-1F2D77A42937}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7812,7 +8147,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F177B6B1-3668-43A0-903C-BB7485D0F901}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F177B6B1-3668-43A0-903C-BB7485D0F901}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7883,7 +8218,7 @@
         <xdr:cNvPr id="62" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8783CDA-3822-4A85-98E8-E722E54F7E60}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8783CDA-3822-4A85-98E8-E722E54F7E60}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -7941,7 +8276,7 @@
         <xdr:cNvPr id="63" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5DC214-6BFA-47EC-BF32-8FBCEB4484C9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8F5DC214-6BFA-47EC-BF32-8FBCEB4484C9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8004,7 +8339,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93A561-78BF-4A21-A4A2-333EEE177F14}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD93A561-78BF-4A21-A4A2-333EEE177F14}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8075,7 +8410,7 @@
         <xdr:cNvPr id="65" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF93806-3DAF-4FB2-A3F7-5BE8993DE87D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBF93806-3DAF-4FB2-A3F7-5BE8993DE87D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8136,7 +8471,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF112DF9-BB38-4872-8841-F141F26A1980}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF112DF9-BB38-4872-8841-F141F26A1980}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8207,7 +8542,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98FA6F9-08C7-4BD2-A292-5023F5A4FC28}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A98FA6F9-08C7-4BD2-A292-5023F5A4FC28}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8266,7 +8601,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7A9127-F8E6-4A89-93E4-3F449634EB03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8C7A9127-F8E6-4A89-93E4-3F449634EB03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8327,7 +8662,7 @@
         <xdr:cNvPr id="69" name="テキスト ボックス 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDDD021-D3E1-4CCB-8762-67F499979BC5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BDDD021-D3E1-4CCB-8762-67F499979BC5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8398,7 +8733,7 @@
         <xdr:cNvPr id="70" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B27BF79-359B-4498-849A-ACB662D61301}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B27BF79-359B-4498-849A-ACB662D61301}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8459,7 +8794,7 @@
         <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8891C8A1-4CA9-49DE-934C-8ED24A729EAE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8891C8A1-4CA9-49DE-934C-8ED24A729EAE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8530,7 +8865,7 @@
         <xdr:cNvPr id="72" name="角丸四角形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4C2AC6-7659-4CA4-A885-B03D66924CFC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B4C2AC6-7659-4CA4-A885-B03D66924CFC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8602,7 +8937,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEBF1E4-C61A-47DC-A5D0-D1588F04E68E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DEBF1E4-C61A-47DC-A5D0-D1588F04E68E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8673,7 +9008,7 @@
         <xdr:cNvPr id="74" name="角丸四角形 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEF6376-4EA0-4045-8419-52F46EA77CC9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4FEF6376-4EA0-4045-8419-52F46EA77CC9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8764,7 +9099,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E15B8E-FB97-46D8-A306-E8DD751EA95F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1E15B8E-FB97-46D8-A306-E8DD751EA95F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8824,7 +9159,7 @@
         <xdr:cNvPr id="76" name="角丸四角形 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD9232D-329D-4237-8627-AB4F71206656}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADD9232D-329D-4237-8627-AB4F71206656}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8915,7 +9250,7 @@
         <xdr:cNvPr id="77" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252F6E17-07F2-43E1-A0A1-B5527A69E903}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{252F6E17-07F2-43E1-A0A1-B5527A69E903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8975,7 +9310,7 @@
         <xdr:cNvPr id="78" name="角丸四角形 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C955A575-3477-41E6-969C-33A68FF36436}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C955A575-3477-41E6-969C-33A68FF36436}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9047,7 +9382,7 @@
         <xdr:cNvPr id="79" name="角丸四角形 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1A26E0-8600-431F-A3F3-96BA231F84DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B1A26E0-8600-431F-A3F3-96BA231F84DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9119,7 +9454,7 @@
         <xdr:cNvPr id="80" name="角丸四角形 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EE3C2-7FB4-451A-9DE7-48726137469F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{557EE3C2-7FB4-451A-9DE7-48726137469F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9191,7 +9526,7 @@
         <xdr:cNvPr id="81" name="角丸四角形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DACE34-1065-4215-A8F2-66A031347740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20DACE34-1065-4215-A8F2-66A031347740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9263,7 +9598,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76653EB-331C-4018-A917-36BC3E52290D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B76653EB-331C-4018-A917-36BC3E52290D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9323,7 +9658,7 @@
         <xdr:cNvPr id="83" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8FC734-FCA9-4BBE-B04B-FEFD9CD25044}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C8FC734-FCA9-4BBE-B04B-FEFD9CD25044}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9381,7 +9716,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319A46A7-F318-4382-BEAE-A7F489572629}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{319A46A7-F318-4382-BEAE-A7F489572629}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9457,7 +9792,7 @@
         <xdr:cNvPr id="2" name="角丸四角形 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AA4B52-D096-492C-8456-B77E041947F8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37AA4B52-D096-492C-8456-B77E041947F8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9529,7 +9864,7 @@
         <xdr:cNvPr id="3" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D35353-4A80-4C2A-A157-D0394A0F9F93}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D35353-4A80-4C2A-A157-D0394A0F9F93}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9601,7 +9936,7 @@
         <xdr:cNvPr id="4" name="角丸四角形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70590B32-4AF9-4DB8-87F3-6F97683FAE84}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{70590B32-4AF9-4DB8-87F3-6F97683FAE84}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9673,7 +10008,7 @@
         <xdr:cNvPr id="5" name="角丸四角形 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4466FCC2-D6F2-4050-A7B0-B5651A3F491A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4466FCC2-D6F2-4050-A7B0-B5651A3F491A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9745,7 +10080,7 @@
         <xdr:cNvPr id="6" name="角丸四角形 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCA5745-94C2-40B5-880B-C2F36307C017}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CCA5745-94C2-40B5-880B-C2F36307C017}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9817,7 +10152,7 @@
         <xdr:cNvPr id="7" name="角丸四角形 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D279532-5C72-4012-98D4-13DF5CAAC441}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D279532-5C72-4012-98D4-13DF5CAAC441}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9889,7 +10224,7 @@
         <xdr:cNvPr id="8" name="角丸四角形 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724327ED-22EE-4AB1-BF56-CAB1CF73AD6C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{724327ED-22EE-4AB1-BF56-CAB1CF73AD6C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9961,7 +10296,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363BA16-7DF5-4266-8C94-41EA6894D6C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B363BA16-7DF5-4266-8C94-41EA6894D6C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10065,7 +10400,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A3B8F8-1E8B-4013-B019-E5A6921F1A3C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7A3B8F8-1E8B-4013-B019-E5A6921F1A3C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10137,7 +10472,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B9483A-D095-4B62-855F-1A167DA1A340}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93B9483A-D095-4B62-855F-1A167DA1A340}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10241,7 +10576,7 @@
         <xdr:cNvPr id="12" name="角丸四角形 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6212C3B0-FB9F-4B19-B816-0B32011B9B08}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6212C3B0-FB9F-4B19-B816-0B32011B9B08}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10313,7 +10648,7 @@
         <xdr:cNvPr id="13" name="角丸四角形 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91854A4A-1FCD-456A-872D-E795EA29FF91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91854A4A-1FCD-456A-872D-E795EA29FF91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10387,7 +10722,7 @@
         <xdr:cNvPr id="14" name="角丸四角形 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EDB94C-2601-4AC6-B6E7-536FEB0C5F5B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48EDB94C-2601-4AC6-B6E7-536FEB0C5F5B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10459,7 +10794,7 @@
         <xdr:cNvPr id="15" name="角丸四角形 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8ED318-7578-4C22-AF1A-19CB2C4F5E9D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF8ED318-7578-4C22-AF1A-19CB2C4F5E9D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10531,7 +10866,7 @@
         <xdr:cNvPr id="16" name="角丸四角形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240E6B3F-D031-4E3E-9E9D-48611B287B85}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{240E6B3F-D031-4E3E-9E9D-48611B287B85}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10603,7 +10938,7 @@
         <xdr:cNvPr id="17" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645450A2-B9E9-4BFE-98AF-E42F565486F0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{645450A2-B9E9-4BFE-98AF-E42F565486F0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10664,7 +10999,7 @@
         <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A625DF-4A62-4E85-99B7-92128264E14D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A625DF-4A62-4E85-99B7-92128264E14D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10727,7 +11062,7 @@
         <xdr:cNvPr id="19" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16E6A90-961B-4E55-915A-C9FAB7976299}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B16E6A90-961B-4E55-915A-C9FAB7976299}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10788,7 +11123,7 @@
         <xdr:cNvPr id="20" name="角丸四角形 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD4D282-5268-4693-B0BD-BCDCADF05224}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFD4D282-5268-4693-B0BD-BCDCADF05224}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10860,7 +11195,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F7426-9DBF-4411-AC59-5BF3CB00E475}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A5F7426-9DBF-4411-AC59-5BF3CB00E475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10922,7 +11257,7 @@
         <xdr:cNvPr id="22" name="テキスト ボックス 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFE315D-32D6-4212-A6BA-01000C51A10F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0FFE315D-32D6-4212-A6BA-01000C51A10F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10993,7 +11328,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA0B58C-863D-4D0D-A29D-3DE849FE6EE3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9EA0B58C-863D-4D0D-A29D-3DE849FE6EE3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11165,7 +11500,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9305559E-6A6D-4BFA-B186-911C548F6A10}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9305559E-6A6D-4BFA-B186-911C548F6A10}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11337,7 +11672,7 @@
         <xdr:cNvPr id="25" name="角丸四角形 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0562793-D7BE-41AE-ADCA-51F14E7A347E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0562793-D7BE-41AE-ADCA-51F14E7A347E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11409,7 +11744,7 @@
         <xdr:cNvPr id="26" name="角丸四角形 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB456EF7-891B-4B52-82F6-37105E2B7F2F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB456EF7-891B-4B52-82F6-37105E2B7F2F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11481,7 +11816,7 @@
         <xdr:cNvPr id="27" name="角丸四角形 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD78D3F-BAB1-4962-9BB9-37BBD54E86A4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BD78D3F-BAB1-4962-9BB9-37BBD54E86A4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11553,7 +11888,7 @@
         <xdr:cNvPr id="28" name="角丸四角形 27">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94DA945-1982-4286-95AC-25AB5B036207}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B94DA945-1982-4286-95AC-25AB5B036207}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11625,7 +11960,7 @@
         <xdr:cNvPr id="29" name="角丸四角形 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BEA41C-06C2-472C-A6D4-E1F8EA5ACBC0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83BEA41C-06C2-472C-A6D4-E1F8EA5ACBC0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11719,7 +12054,7 @@
         <xdr:cNvPr id="30" name="テキスト ボックス 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC3A291-3335-4154-8038-776E0002ABE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DC3A291-3335-4154-8038-776E0002ABE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11790,7 +12125,7 @@
         <xdr:cNvPr id="31" name="角丸四角形 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAD5018-3F58-4FF0-9D02-C4DB2B30D4CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8AAD5018-3F58-4FF0-9D02-C4DB2B30D4CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11862,7 +12197,7 @@
         <xdr:cNvPr id="32" name="角丸四角形 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17557831-75AC-40E2-B2C8-9F6CE4A334A1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17557831-75AC-40E2-B2C8-9F6CE4A334A1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -11934,7 +12269,7 @@
         <xdr:cNvPr id="33" name="角丸四角形 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3107DB-0A90-47C8-A85B-4D2C6174AC77}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E3107DB-0A90-47C8-A85B-4D2C6174AC77}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12006,7 +12341,7 @@
         <xdr:cNvPr id="34" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A3C6D7-9002-4A77-B9B0-790900B9A2DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4A3C6D7-9002-4A77-B9B0-790900B9A2DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12064,7 +12399,7 @@
         <xdr:cNvPr id="35" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D8914A-8E40-4122-9810-9F5BEA0AEC20}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0D8914A-8E40-4122-9810-9F5BEA0AEC20}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12126,7 +12461,7 @@
         <xdr:cNvPr id="36" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5BA5BE-C98A-4C2E-85A7-BAB7E3C3C9FE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB5BA5BE-C98A-4C2E-85A7-BAB7E3C3C9FE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12189,7 +12524,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52F9DA0-7C91-4ABF-9908-81A7EFA4BF1D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E52F9DA0-7C91-4ABF-9908-81A7EFA4BF1D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12250,7 +12585,7 @@
         <xdr:cNvPr id="38" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C164259A-799B-482F-9891-D468D0FF1F9C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C164259A-799B-482F-9891-D468D0FF1F9C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12311,7 +12646,7 @@
         <xdr:cNvPr id="39" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0AC32C-9CD6-40B8-BC9F-1B7F35B1EB13}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC0AC32C-9CD6-40B8-BC9F-1B7F35B1EB13}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12373,7 +12708,7 @@
         <xdr:cNvPr id="40" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB20F787-D195-49B4-8BE5-50522DB7101E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EB20F787-D195-49B4-8BE5-50522DB7101E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12431,7 +12766,7 @@
         <xdr:cNvPr id="41" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A41525-AE75-48EB-A82A-A97EDF0F3ECF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19A41525-AE75-48EB-A82A-A97EDF0F3ECF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12492,7 +12827,7 @@
         <xdr:cNvPr id="42" name="テキスト ボックス 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D81682-7FEB-42EF-8F1D-E79ED0D8A158}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A8D81682-7FEB-42EF-8F1D-E79ED0D8A158}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12563,7 +12898,7 @@
         <xdr:cNvPr id="43" name="テキスト ボックス 42">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A7A5EC-1A2D-493E-990F-842E516FBDD8}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14A7A5EC-1A2D-493E-990F-842E516FBDD8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12634,7 +12969,7 @@
         <xdr:cNvPr id="44" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD490292-C355-493D-949F-30C7C2B09F2D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD490292-C355-493D-949F-30C7C2B09F2D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12697,7 +13032,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B8903C-04E0-4AFE-A83F-264C91751BDD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E0B8903C-04E0-4AFE-A83F-264C91751BDD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12768,7 +13103,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2569F28-2703-4A8D-A8BC-6FB4BEEBC475}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2569F28-2703-4A8D-A8BC-6FB4BEEBC475}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12831,7 +13166,7 @@
         <xdr:cNvPr id="47" name="角丸四角形 46">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C473A38-7E0C-4B3E-9276-68552A53DF76}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C473A38-7E0C-4B3E-9276-68552A53DF76}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12903,7 +13238,7 @@
         <xdr:cNvPr id="48" name="角丸四角形 47">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA46E711-7CBF-4F8B-BE1A-DCCF6CDE3F94}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA46E711-7CBF-4F8B-BE1A-DCCF6CDE3F94}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -12975,7 +13310,7 @@
         <xdr:cNvPr id="49" name="角丸四角形 48">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5171669D-DE18-4BD1-974C-9F68BDB35E82}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5171669D-DE18-4BD1-974C-9F68BDB35E82}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13047,7 +13382,7 @@
         <xdr:cNvPr id="50" name="角丸四角形 49">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB8BC04-D6C3-4C86-A5BF-9392325AFF81}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB8BC04-D6C3-4C86-A5BF-9392325AFF81}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13119,7 +13454,7 @@
         <xdr:cNvPr id="51" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CF5385-17AE-4EE9-A121-D5E117B3BE43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6CF5385-17AE-4EE9-A121-D5E117B3BE43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13180,7 +13515,7 @@
         <xdr:cNvPr id="52" name="テキスト ボックス 51">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42F0F37-4804-499A-875F-3A2765418E91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A42F0F37-4804-499A-875F-3A2765418E91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13251,7 +13586,7 @@
         <xdr:cNvPr id="53" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E89AF8-0FEC-4FA3-8027-8BC2EE0CA9DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A3E89AF8-0FEC-4FA3-8027-8BC2EE0CA9DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13309,7 +13644,7 @@
         <xdr:cNvPr id="54" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17838D1-5A9D-4815-A759-546E470C1E8D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B17838D1-5A9D-4815-A759-546E470C1E8D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13372,7 +13707,7 @@
         <xdr:cNvPr id="55" name="角丸四角形 54">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E38F1E-D387-4855-A289-7BEF5E3033E2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D8E38F1E-D387-4855-A289-7BEF5E3033E2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13461,7 +13796,7 @@
         <xdr:cNvPr id="56" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F737FA-079A-4766-8CF2-870210FDC7EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8F737FA-079A-4766-8CF2-870210FDC7EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13523,7 +13858,7 @@
         <xdr:cNvPr id="57" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49ADBFF-4DF5-4A49-8159-301B1789640D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A49ADBFF-4DF5-4A49-8159-301B1789640D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13585,7 +13920,7 @@
         <xdr:cNvPr id="58" name="テキスト ボックス 57">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59A7B4B-3205-454E-BE2A-09A4E48C4215}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F59A7B4B-3205-454E-BE2A-09A4E48C4215}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13689,7 +14024,7 @@
         <xdr:cNvPr id="59" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C03BE42-7911-4A9D-B6ED-9263E7E656BA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C03BE42-7911-4A9D-B6ED-9263E7E656BA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13750,7 +14085,7 @@
         <xdr:cNvPr id="60" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B6A753-20F5-4648-B191-1B099DEAD675}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{53B6A753-20F5-4648-B191-1B099DEAD675}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13811,7 +14146,7 @@
         <xdr:cNvPr id="61" name="テキスト ボックス 60">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576C0956-BB5E-4FEF-BFDA-8499AA50C31C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{576C0956-BB5E-4FEF-BFDA-8499AA50C31C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13882,7 +14217,7 @@
         <xdr:cNvPr id="62" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D8B4E1-8C42-45BA-86AF-D71C9121B121}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6D8B4E1-8C42-45BA-86AF-D71C9121B121}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -13940,7 +14275,7 @@
         <xdr:cNvPr id="63" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19ED160-6BC3-4FB9-BE23-B916F2288D12}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E19ED160-6BC3-4FB9-BE23-B916F2288D12}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14003,7 +14338,7 @@
         <xdr:cNvPr id="64" name="テキスト ボックス 63">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84204DDE-48C5-4361-8F0E-179D8C6C67F1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84204DDE-48C5-4361-8F0E-179D8C6C67F1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14074,7 +14409,7 @@
         <xdr:cNvPr id="65" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1594B8-463B-4C27-9CA2-D8D3DBC3BF6D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD1594B8-463B-4C27-9CA2-D8D3DBC3BF6D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14135,7 +14470,7 @@
         <xdr:cNvPr id="66" name="テキスト ボックス 65">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025583F0-B5EB-4F6D-969E-4FD2B0D974DE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{025583F0-B5EB-4F6D-969E-4FD2B0D974DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14206,7 +14541,7 @@
         <xdr:cNvPr id="67" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF721F3-B976-4EFA-B35D-3267953DFA7F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CFF721F3-B976-4EFA-B35D-3267953DFA7F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14265,7 +14600,7 @@
         <xdr:cNvPr id="68" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9866C6-3449-4E78-81BF-4CFFCB4B1775}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC9866C6-3449-4E78-81BF-4CFFCB4B1775}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14323,7 +14658,7 @@
         <xdr:cNvPr id="69" name="テキスト ボックス 68">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9783E22-79CB-4E83-814C-231B1C6172A6}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9783E22-79CB-4E83-814C-231B1C6172A6}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14394,7 +14729,7 @@
         <xdr:cNvPr id="70" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D47C58-9D37-4A0E-9F34-4302C63F1903}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{84D47C58-9D37-4A0E-9F34-4302C63F1903}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14455,7 +14790,7 @@
         <xdr:cNvPr id="71" name="テキスト ボックス 70">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B2F6C1-24D5-4B5A-B01F-5A5C8AB8456A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D5B2F6C1-24D5-4B5A-B01F-5A5C8AB8456A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14526,7 +14861,7 @@
         <xdr:cNvPr id="72" name="角丸四角形 71">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAE598C-0CDF-4B61-9906-F83C311D2DEE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACAE598C-0CDF-4B61-9906-F83C311D2DEE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14598,7 +14933,7 @@
         <xdr:cNvPr id="73" name="テキスト ボックス 72">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486C8151-310D-4818-88C5-FA902670EAF5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{486C8151-310D-4818-88C5-FA902670EAF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14669,7 +15004,7 @@
         <xdr:cNvPr id="74" name="角丸四角形 73">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C59CCD-48E2-49AE-A05E-EFF29E8E855B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{41C59CCD-48E2-49AE-A05E-EFF29E8E855B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14760,7 +15095,7 @@
         <xdr:cNvPr id="75" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AEB062-B57C-468F-B631-A2FA9C64F474}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19AEB062-B57C-468F-B631-A2FA9C64F474}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14820,7 +15155,7 @@
         <xdr:cNvPr id="76" name="角丸四角形 75">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE348575-AD28-44F9-B913-B70C85BE8F4E}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE348575-AD28-44F9-B913-B70C85BE8F4E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14911,7 +15246,7 @@
         <xdr:cNvPr id="77" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1664B7AD-12FA-4DCC-B25B-943A5774EFAB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1664B7AD-12FA-4DCC-B25B-943A5774EFAB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -14971,7 +15306,7 @@
         <xdr:cNvPr id="78" name="角丸四角形 77">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E346C48-231C-44EE-A268-A243DFF5AE61}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E346C48-231C-44EE-A268-A243DFF5AE61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15043,7 +15378,7 @@
         <xdr:cNvPr id="79" name="角丸四角形 78">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CE4F42-4021-4804-8252-64DA98801DC3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4CE4F42-4021-4804-8252-64DA98801DC3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15115,7 +15450,7 @@
         <xdr:cNvPr id="80" name="角丸四角形 79">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B101E84C-18DC-41D4-8D14-E22C60E597CF}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B101E84C-18DC-41D4-8D14-E22C60E597CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15187,7 +15522,7 @@
         <xdr:cNvPr id="81" name="角丸四角形 80">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D46F11-2E24-4168-8738-9A5F34677355}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F5D46F11-2E24-4168-8738-9A5F34677355}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15259,7 +15594,7 @@
         <xdr:cNvPr id="82" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1C0100-DEBA-4F31-A842-9022426BD470}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2F1C0100-DEBA-4F31-A842-9022426BD470}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15319,7 +15654,7 @@
         <xdr:cNvPr id="83" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912EED2E-A8A0-4EE9-BA03-46C648810C02}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{912EED2E-A8A0-4EE9-BA03-46C648810C02}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15377,7 +15712,7 @@
         <xdr:cNvPr id="84" name="テキスト ボックス 83">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DE1404-87DB-4DC3-A9BC-F01835D92D1A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38DE1404-87DB-4DC3-A9BC-F01835D92D1A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15448,7 +15783,7 @@
         <xdr:cNvPr id="85" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FD99FC-01AB-4037-B1F4-3B38B6D83294}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43FD99FC-01AB-4037-B1F4-3B38B6D83294}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15515,7 +15850,7 @@
         <xdr:cNvPr id="86" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD755A06-62B0-4744-8433-3EF8599AEC53}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CD755A06-62B0-4744-8433-3EF8599AEC53}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15582,7 +15917,7 @@
         <xdr:cNvPr id="87" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B79830-1C1E-4E4E-BF72-B63C976EA40A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39B79830-1C1E-4E4E-BF72-B63C976EA40A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15644,7 +15979,7 @@
         <xdr:cNvPr id="90" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1F6A32-DDF6-48E2-8FB2-BE1F436D5C23}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A1F6A32-DDF6-48E2-8FB2-BE1F436D5C23}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15705,7 +16040,7 @@
         <xdr:cNvPr id="92" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0208FF8F-C692-46E2-889F-768B0BB0C424}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0208FF8F-C692-46E2-889F-768B0BB0C424}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15766,7 +16101,7 @@
         <xdr:cNvPr id="100" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D92E6B-B850-46FF-87CF-3A2BFB901E43}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87D92E6B-B850-46FF-87CF-3A2BFB901E43}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15833,7 +16168,7 @@
         <xdr:cNvPr id="101" name="テキスト ボックス 100">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B81AB8A-9D5C-422D-839D-2274A264FFD0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B81AB8A-9D5C-422D-839D-2274A264FFD0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15925,7 +16260,7 @@
         <xdr:cNvPr id="103" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137FCE11-164F-4484-991C-C99ABB4E87E4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{137FCE11-164F-4484-991C-C99ABB4E87E4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -15985,7 +16320,7 @@
         <xdr:cNvPr id="105" name="テキスト ボックス 104">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69833366-719B-4214-ABA0-DB2DEDCA79B2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{69833366-719B-4214-ABA0-DB2DEDCA79B2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16086,7 +16421,7 @@
         <xdr:cNvPr id="7" name="テキスト ボックス 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A646A968-0148-419A-AD7F-9536A4D4D513}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A646A968-0148-419A-AD7F-9536A4D4D513}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16157,7 +16492,7 @@
         <xdr:cNvPr id="9" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CA5EAD-8703-4464-B892-0E8DB963D195}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{33CA5EAD-8703-4464-B892-0E8DB963D195}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16229,7 +16564,7 @@
         <xdr:cNvPr id="10" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA57670A-5B59-4A2D-B8A3-4ECDFEB4F94D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA57670A-5B59-4A2D-B8A3-4ECDFEB4F94D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16301,7 +16636,7 @@
         <xdr:cNvPr id="11" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BF5A78-7A14-4356-A78D-E1794D35B107}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64BF5A78-7A14-4356-A78D-E1794D35B107}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16373,7 +16708,7 @@
         <xdr:cNvPr id="12" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688A9CF0-9C3C-48AA-AD34-C417862B1C61}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{688A9CF0-9C3C-48AA-AD34-C417862B1C61}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16445,7 +16780,7 @@
         <xdr:cNvPr id="13" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2490C45A-ADD0-4943-89E8-F6965E2BB03D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2490C45A-ADD0-4943-89E8-F6965E2BB03D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16549,7 +16884,7 @@
         <xdr:cNvPr id="14" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB50B7DF-AB0B-4A96-9AD1-E46131B8EAFD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB50B7DF-AB0B-4A96-9AD1-E46131B8EAFD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16611,7 +16946,7 @@
         <xdr:cNvPr id="15" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7140F4-44B6-4CDC-BF2B-F6115ED9D167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0D7140F4-44B6-4CDC-BF2B-F6115ED9D167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16705,7 +17040,7 @@
         <xdr:cNvPr id="16" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C146ADC7-BF31-427A-99A1-08FCE7C41BBD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C146ADC7-BF31-427A-99A1-08FCE7C41BBD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16785,7 +17120,7 @@
         <xdr:cNvPr id="17" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAB9008-E31D-4948-AA7D-D82BE4B0771D}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCAB9008-E31D-4948-AA7D-D82BE4B0771D}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16857,7 +17192,7 @@
         <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2047676F-8B5C-4D26-80D8-4176E7551302}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2047676F-8B5C-4D26-80D8-4176E7551302}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16918,7 +17253,7 @@
         <xdr:cNvPr id="19" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8AC013-4DE6-487C-AD8A-77BC54F36031}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8AC013-4DE6-487C-AD8A-77BC54F36031}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16979,7 +17314,7 @@
         <xdr:cNvPr id="20" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AAF4DC-3B7C-41CF-BBB3-974D8BA9A98B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00AAF4DC-3B7C-41CF-BBB3-974D8BA9A98B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17039,7 +17374,7 @@
         <xdr:cNvPr id="21" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62D7350-781D-43A2-B942-62629C204B6F}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F62D7350-781D-43A2-B942-62629C204B6F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17102,7 +17437,7 @@
         <xdr:cNvPr id="22" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15372B07-3243-48B6-AE40-08DFBF74F949}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15372B07-3243-48B6-AE40-08DFBF74F949}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17163,7 +17498,7 @@
         <xdr:cNvPr id="23" name="テキスト ボックス 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FA12F0-3AC4-48A0-BAD4-360EF4C3141B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{72FA12F0-3AC4-48A0-BAD4-360EF4C3141B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17234,7 +17569,7 @@
         <xdr:cNvPr id="24" name="テキスト ボックス 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCF7FDB-B57D-4453-9710-0A8D0FC62264}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BCF7FDB-B57D-4453-9710-0A8D0FC62264}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17305,7 +17640,7 @@
         <xdr:cNvPr id="25" name="テキスト ボックス 24">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543E7FF7-042D-4F10-A82F-80BCE1225922}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543E7FF7-042D-4F10-A82F-80BCE1225922}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17376,7 +17711,7 @@
         <xdr:cNvPr id="26" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518FABC2-C917-4D00-BB01-DC66112BA856}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{518FABC2-C917-4D00-BB01-DC66112BA856}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17470,7 +17805,7 @@
         <xdr:cNvPr id="27" name="テキスト ボックス 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DE0080-5562-4B58-B6B1-75441F3F0DE1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3DE0080-5562-4B58-B6B1-75441F3F0DE1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17541,7 +17876,7 @@
         <xdr:cNvPr id="28" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A46788-E1F2-4174-B177-C61AE6C885BC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F4A46788-E1F2-4174-B177-C61AE6C885BC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17613,7 +17948,7 @@
         <xdr:cNvPr id="29" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45FD0F1-DF70-4A94-8C7B-2735FE01602C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D45FD0F1-DF70-4A94-8C7B-2735FE01602C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17685,7 +18020,7 @@
         <xdr:cNvPr id="30" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B67C32-856D-4EE1-BE33-A591396B1429}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32B67C32-856D-4EE1-BE33-A591396B1429}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17747,7 +18082,7 @@
         <xdr:cNvPr id="31" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7405EE-B24A-4173-B457-0347087A53D9}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A7405EE-B24A-4173-B457-0347087A53D9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17806,7 +18141,7 @@
         <xdr:cNvPr id="32" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C84677A-D4BB-4C2A-B6DF-138FD8C373DC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C84677A-D4BB-4C2A-B6DF-138FD8C373DC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17864,7 +18199,7 @@
         <xdr:cNvPr id="33" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2E8774-F8DE-40D3-B880-F870CDD81C3B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A2E8774-F8DE-40D3-B880-F870CDD81C3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17923,7 +18258,7 @@
         <xdr:cNvPr id="34" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F44125-3D18-491B-9F05-B5910EC4B6DB}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F44125-3D18-491B-9F05-B5910EC4B6DB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -17977,7 +18312,7 @@
         <xdr:cNvPr id="35" name="フローチャート: 判断 34">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9675AF6-9F83-4961-825B-6EE95E6B52EE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D9675AF6-9F83-4961-825B-6EE95E6B52EE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18081,7 +18416,7 @@
         <xdr:cNvPr id="36" name="テキスト ボックス 35">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB3AFAC-8561-46C1-BAE5-979F511650F3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DB3AFAC-8561-46C1-BAE5-979F511650F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18160,7 +18495,7 @@
         <xdr:cNvPr id="37" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3ECAA21-ECFE-4C9E-8859-A058F8A5E26A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B3ECAA21-ECFE-4C9E-8859-A058F8A5E26A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18221,7 +18556,7 @@
         <xdr:cNvPr id="38" name="テキスト ボックス 37">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD644E56-90E8-477C-9102-5B89A9DF0663}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD644E56-90E8-477C-9102-5B89A9DF0663}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18300,7 +18635,7 @@
         <xdr:cNvPr id="39" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D9E4B4-E836-4FF2-BE93-298344845AC4}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2D9E4B4-E836-4FF2-BE93-298344845AC4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18372,7 +18707,7 @@
         <xdr:cNvPr id="40" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6C5E03-1001-4146-BB88-AADA90F348BD}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F6C5E03-1001-4146-BB88-AADA90F348BD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18433,7 +18768,7 @@
         <xdr:cNvPr id="41" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1BF3CC-E7E6-4086-AFB7-F2091DDBD1AC}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F1BF3CC-E7E6-4086-AFB7-F2091DDBD1AC}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18484,7 +18819,7 @@
         <xdr:cNvPr id="42" name="フローチャート: 判断 41">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF45611F-6203-4972-B283-71C8656413C0}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF45611F-6203-4972-B283-71C8656413C0}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18633,7 +18968,7 @@
         <xdr:cNvPr id="43" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2480BE61-9DE8-4519-B1CF-DEB55EE444D1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2480BE61-9DE8-4519-B1CF-DEB55EE444D1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18695,7 +19030,7 @@
         <xdr:cNvPr id="44" name="テキスト ボックス 43">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3964B178-1F15-46B2-B99E-FE291169068C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3964B178-1F15-46B2-B99E-FE291169068C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18766,7 +19101,7 @@
         <xdr:cNvPr id="45" name="テキスト ボックス 44">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BA41AE-24DC-4EE4-B84C-C87AD696B0DA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40BA41AE-24DC-4EE4-B84C-C87AD696B0DA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18837,7 +19172,7 @@
         <xdr:cNvPr id="46" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC788B22-F324-4088-8551-BCBA8EB9AAC2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC788B22-F324-4088-8551-BCBA8EB9AAC2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18900,7 +19235,7 @@
         <xdr:cNvPr id="51" name="角丸四角形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4133C8F7-0477-45D8-9ED6-DD38B309CCD7}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4133C8F7-0477-45D8-9ED6-DD38B309CCD7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18983,7 +19318,7 @@
         <xdr:cNvPr id="53" name="直線矢印コネクタ 17">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39828DFF-AE61-4773-8AB2-B3F8AECE885C}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{39828DFF-AE61-4773-8AB2-B3F8AECE885C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19047,7 +19382,7 @@
         <xdr:cNvPr id="57" name="グループ化 56">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A548A20D-9675-42EF-9225-4ED61A96A382}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A548A20D-9675-42EF-9225-4ED61A96A382}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19066,7 +19401,7 @@
           <xdr:cNvPr id="7" name="図 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A864E0-1216-42A6-8530-EB0B3DEF07A5}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30A864E0-1216-42A6-8530-EB0B3DEF07A5}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19112,7 +19447,7 @@
           <xdr:cNvPr id="11" name="図 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B0AC8D-1A19-4345-AFCB-ED146687BE91}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9B0AC8D-1A19-4345-AFCB-ED146687BE91}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19158,7 +19493,7 @@
           <xdr:cNvPr id="16" name="図 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C15D13-A895-47E7-8E1F-F08DF849184E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79C15D13-A895-47E7-8E1F-F08DF849184E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19209,7 +19544,7 @@
           <xdr:cNvPr id="17" name="図 16">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5886BB99-5713-44AF-BA41-0B069D4BC98E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5886BB99-5713-44AF-BA41-0B069D4BC98E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19260,7 +19595,7 @@
           <xdr:cNvPr id="5" name="図 4">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327B7F98-CFAD-4D52-B90E-5FE5053D709E}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{327B7F98-CFAD-4D52-B90E-5FE5053D709E}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19305,7 +19640,7 @@
         <xdr:cNvPr id="56" name="グループ化 55">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36468CF8-BAC1-468C-8B49-A186BDC67407}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36468CF8-BAC1-468C-8B49-A186BDC67407}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19324,7 +19659,7 @@
           <xdr:cNvPr id="8" name="図 7">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED02D6B5-0115-4D91-9A37-BCF83BD6ADBB}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED02D6B5-0115-4D91-9A37-BCF83BD6ADBB}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19370,7 +19705,7 @@
           <xdr:cNvPr id="13" name="図 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5846B9E6-7B88-4262-B712-B274DD1E21AD}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5846B9E6-7B88-4262-B712-B274DD1E21AD}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19421,7 +19756,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8627070D-7AF7-4B3E-88F3-ECCB8494B9A6}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8627070D-7AF7-4B3E-88F3-ECCB8494B9A6}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19472,7 +19807,7 @@
           <xdr:cNvPr id="15" name="図 14">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088919EE-2805-41B4-8505-1C5803418C7B}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{088919EE-2805-41B4-8505-1C5803418C7B}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19523,7 +19858,7 @@
           <xdr:cNvPr id="23" name="直線矢印コネクタ 22">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83911B14-F983-4B67-9EFB-F9122A9550AE}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83911B14-F983-4B67-9EFB-F9122A9550AE}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19572,7 +19907,7 @@
           <xdr:cNvPr id="50" name="直線矢印コネクタ 49">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C636DEF5-1F65-4B2F-990C-54478B3BD8F9}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C636DEF5-1F65-4B2F-990C-54478B3BD8F9}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -19637,7 +19972,7 @@
         <xdr:cNvPr id="8" name="図 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977A21BB-758B-48AD-A896-9FA9E23BF076}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{977A21BB-758B-48AD-A896-9FA9E23BF076}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19703,7 +20038,7 @@
         <xdr:cNvPr id="9" name="図 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCA5BAD-2708-453B-948F-0237766792F3}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DFCA5BAD-2708-453B-948F-0237766792F3}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -19769,7 +20104,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABC6566-1183-4D49-8583-F3257C7ABF90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9ABC6566-1183-4D49-8583-F3257C7ABF90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21331,7 +21666,7 @@
         <xdr:cNvPr id="29" name="グループ化 28">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398C333E-172B-4A87-AC08-B85B3776ED63}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{398C333E-172B-4A87-AC08-B85B3776ED63}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -21350,7 +21685,7 @@
           <xdr:cNvPr id="13" name="図 12">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C5B6EA-102F-414B-88FE-81C96BEE5C34}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{60C5B6EA-102F-414B-88FE-81C96BEE5C34}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21401,7 +21736,7 @@
           <xdr:cNvPr id="7" name="図 6">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C3BDE0-3386-49CC-81DE-73F55F210710}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51C3BDE0-3386-49CC-81DE-73F55F210710}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21452,7 +21787,7 @@
           <xdr:cNvPr id="2" name="図 1">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD443B58-4BF4-4B1D-BEAD-E37E1E907F3A}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD443B58-4BF4-4B1D-BEAD-E37E1E907F3A}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21503,7 +21838,7 @@
           <xdr:cNvPr id="10" name="図 9">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD34B84-D973-43FF-A656-BCF4ABCDD138}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDD34B84-D973-43FF-A656-BCF4ABCDD138}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21554,7 +21889,7 @@
           <xdr:cNvPr id="11" name="図 10">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8900B6BF-11D7-44EF-85BF-FDC9F544207C}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8900B6BF-11D7-44EF-85BF-FDC9F544207C}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21605,7 +21940,7 @@
           <xdr:cNvPr id="14" name="図 13">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72A5361-4675-4E2D-A9E4-268B93976CD8}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D72A5361-4675-4E2D-A9E4-268B93976CD8}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21634,7 +21969,7 @@
           <xdr:cNvPr id="24" name="図 23">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1327FC-D445-4D33-967A-80E1A0C9D85F}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C1327FC-D445-4D33-967A-80E1A0C9D85F}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21685,7 +22020,7 @@
           <xdr:cNvPr id="16" name="直線矢印コネクタ 15">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032D6029-8DB4-4F23-B63F-0742AE787519}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{032D6029-8DB4-4F23-B63F-0742AE787519}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -21728,7 +22063,7 @@
           <xdr:cNvPr id="19" name="直線矢印コネクタ 18">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A55F932-314B-4643-947C-0F0105C99BB4}"/>
+                <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A55F932-314B-4643-947C-0F0105C99BB4}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -22061,7 +22396,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -22069,401 +22404,406 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E30"/>
+  <dimension ref="A1:L63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4" style="4" customWidth="1"/>
     <col min="2" max="2" width="4.875" style="4" customWidth="1"/>
     <col min="3" max="3" width="8.25" style="4" customWidth="1"/>
     <col min="4" max="4" width="33.5" style="4" customWidth="1"/>
     <col min="5" max="5" width="68.375" style="4" customWidth="1"/>
-    <col min="6" max="256" width="9" style="4"/>
-    <col min="257" max="257" width="4" style="4" customWidth="1"/>
-    <col min="258" max="258" width="4.875" style="4" customWidth="1"/>
-    <col min="259" max="259" width="8.25" style="4" customWidth="1"/>
-    <col min="260" max="260" width="33.5" style="4" customWidth="1"/>
-    <col min="261" max="261" width="68.375" style="4" customWidth="1"/>
-    <col min="262" max="512" width="9" style="4"/>
-    <col min="513" max="513" width="4" style="4" customWidth="1"/>
-    <col min="514" max="514" width="4.875" style="4" customWidth="1"/>
-    <col min="515" max="515" width="8.25" style="4" customWidth="1"/>
-    <col min="516" max="516" width="33.5" style="4" customWidth="1"/>
-    <col min="517" max="517" width="68.375" style="4" customWidth="1"/>
-    <col min="518" max="768" width="9" style="4"/>
-    <col min="769" max="769" width="4" style="4" customWidth="1"/>
-    <col min="770" max="770" width="4.875" style="4" customWidth="1"/>
-    <col min="771" max="771" width="8.25" style="4" customWidth="1"/>
-    <col min="772" max="772" width="33.5" style="4" customWidth="1"/>
-    <col min="773" max="773" width="68.375" style="4" customWidth="1"/>
-    <col min="774" max="1024" width="9" style="4"/>
-    <col min="1025" max="1025" width="4" style="4" customWidth="1"/>
-    <col min="1026" max="1026" width="4.875" style="4" customWidth="1"/>
-    <col min="1027" max="1027" width="8.25" style="4" customWidth="1"/>
-    <col min="1028" max="1028" width="33.5" style="4" customWidth="1"/>
-    <col min="1029" max="1029" width="68.375" style="4" customWidth="1"/>
-    <col min="1030" max="1280" width="9" style="4"/>
-    <col min="1281" max="1281" width="4" style="4" customWidth="1"/>
-    <col min="1282" max="1282" width="4.875" style="4" customWidth="1"/>
-    <col min="1283" max="1283" width="8.25" style="4" customWidth="1"/>
-    <col min="1284" max="1284" width="33.5" style="4" customWidth="1"/>
-    <col min="1285" max="1285" width="68.375" style="4" customWidth="1"/>
-    <col min="1286" max="1536" width="9" style="4"/>
-    <col min="1537" max="1537" width="4" style="4" customWidth="1"/>
-    <col min="1538" max="1538" width="4.875" style="4" customWidth="1"/>
-    <col min="1539" max="1539" width="8.25" style="4" customWidth="1"/>
-    <col min="1540" max="1540" width="33.5" style="4" customWidth="1"/>
-    <col min="1541" max="1541" width="68.375" style="4" customWidth="1"/>
-    <col min="1542" max="1792" width="9" style="4"/>
-    <col min="1793" max="1793" width="4" style="4" customWidth="1"/>
-    <col min="1794" max="1794" width="4.875" style="4" customWidth="1"/>
-    <col min="1795" max="1795" width="8.25" style="4" customWidth="1"/>
-    <col min="1796" max="1796" width="33.5" style="4" customWidth="1"/>
-    <col min="1797" max="1797" width="68.375" style="4" customWidth="1"/>
-    <col min="1798" max="2048" width="9" style="4"/>
-    <col min="2049" max="2049" width="4" style="4" customWidth="1"/>
-    <col min="2050" max="2050" width="4.875" style="4" customWidth="1"/>
-    <col min="2051" max="2051" width="8.25" style="4" customWidth="1"/>
-    <col min="2052" max="2052" width="33.5" style="4" customWidth="1"/>
-    <col min="2053" max="2053" width="68.375" style="4" customWidth="1"/>
-    <col min="2054" max="2304" width="9" style="4"/>
-    <col min="2305" max="2305" width="4" style="4" customWidth="1"/>
-    <col min="2306" max="2306" width="4.875" style="4" customWidth="1"/>
-    <col min="2307" max="2307" width="8.25" style="4" customWidth="1"/>
-    <col min="2308" max="2308" width="33.5" style="4" customWidth="1"/>
-    <col min="2309" max="2309" width="68.375" style="4" customWidth="1"/>
-    <col min="2310" max="2560" width="9" style="4"/>
-    <col min="2561" max="2561" width="4" style="4" customWidth="1"/>
-    <col min="2562" max="2562" width="4.875" style="4" customWidth="1"/>
-    <col min="2563" max="2563" width="8.25" style="4" customWidth="1"/>
-    <col min="2564" max="2564" width="33.5" style="4" customWidth="1"/>
-    <col min="2565" max="2565" width="68.375" style="4" customWidth="1"/>
-    <col min="2566" max="2816" width="9" style="4"/>
-    <col min="2817" max="2817" width="4" style="4" customWidth="1"/>
-    <col min="2818" max="2818" width="4.875" style="4" customWidth="1"/>
-    <col min="2819" max="2819" width="8.25" style="4" customWidth="1"/>
-    <col min="2820" max="2820" width="33.5" style="4" customWidth="1"/>
-    <col min="2821" max="2821" width="68.375" style="4" customWidth="1"/>
-    <col min="2822" max="3072" width="9" style="4"/>
-    <col min="3073" max="3073" width="4" style="4" customWidth="1"/>
-    <col min="3074" max="3074" width="4.875" style="4" customWidth="1"/>
-    <col min="3075" max="3075" width="8.25" style="4" customWidth="1"/>
-    <col min="3076" max="3076" width="33.5" style="4" customWidth="1"/>
-    <col min="3077" max="3077" width="68.375" style="4" customWidth="1"/>
-    <col min="3078" max="3328" width="9" style="4"/>
-    <col min="3329" max="3329" width="4" style="4" customWidth="1"/>
-    <col min="3330" max="3330" width="4.875" style="4" customWidth="1"/>
-    <col min="3331" max="3331" width="8.25" style="4" customWidth="1"/>
-    <col min="3332" max="3332" width="33.5" style="4" customWidth="1"/>
-    <col min="3333" max="3333" width="68.375" style="4" customWidth="1"/>
-    <col min="3334" max="3584" width="9" style="4"/>
-    <col min="3585" max="3585" width="4" style="4" customWidth="1"/>
-    <col min="3586" max="3586" width="4.875" style="4" customWidth="1"/>
-    <col min="3587" max="3587" width="8.25" style="4" customWidth="1"/>
-    <col min="3588" max="3588" width="33.5" style="4" customWidth="1"/>
-    <col min="3589" max="3589" width="68.375" style="4" customWidth="1"/>
-    <col min="3590" max="3840" width="9" style="4"/>
-    <col min="3841" max="3841" width="4" style="4" customWidth="1"/>
-    <col min="3842" max="3842" width="4.875" style="4" customWidth="1"/>
-    <col min="3843" max="3843" width="8.25" style="4" customWidth="1"/>
-    <col min="3844" max="3844" width="33.5" style="4" customWidth="1"/>
-    <col min="3845" max="3845" width="68.375" style="4" customWidth="1"/>
-    <col min="3846" max="4096" width="9" style="4"/>
-    <col min="4097" max="4097" width="4" style="4" customWidth="1"/>
-    <col min="4098" max="4098" width="4.875" style="4" customWidth="1"/>
-    <col min="4099" max="4099" width="8.25" style="4" customWidth="1"/>
-    <col min="4100" max="4100" width="33.5" style="4" customWidth="1"/>
-    <col min="4101" max="4101" width="68.375" style="4" customWidth="1"/>
-    <col min="4102" max="4352" width="9" style="4"/>
-    <col min="4353" max="4353" width="4" style="4" customWidth="1"/>
-    <col min="4354" max="4354" width="4.875" style="4" customWidth="1"/>
-    <col min="4355" max="4355" width="8.25" style="4" customWidth="1"/>
-    <col min="4356" max="4356" width="33.5" style="4" customWidth="1"/>
-    <col min="4357" max="4357" width="68.375" style="4" customWidth="1"/>
-    <col min="4358" max="4608" width="9" style="4"/>
-    <col min="4609" max="4609" width="4" style="4" customWidth="1"/>
-    <col min="4610" max="4610" width="4.875" style="4" customWidth="1"/>
-    <col min="4611" max="4611" width="8.25" style="4" customWidth="1"/>
-    <col min="4612" max="4612" width="33.5" style="4" customWidth="1"/>
-    <col min="4613" max="4613" width="68.375" style="4" customWidth="1"/>
-    <col min="4614" max="4864" width="9" style="4"/>
-    <col min="4865" max="4865" width="4" style="4" customWidth="1"/>
-    <col min="4866" max="4866" width="4.875" style="4" customWidth="1"/>
-    <col min="4867" max="4867" width="8.25" style="4" customWidth="1"/>
-    <col min="4868" max="4868" width="33.5" style="4" customWidth="1"/>
-    <col min="4869" max="4869" width="68.375" style="4" customWidth="1"/>
-    <col min="4870" max="5120" width="9" style="4"/>
-    <col min="5121" max="5121" width="4" style="4" customWidth="1"/>
-    <col min="5122" max="5122" width="4.875" style="4" customWidth="1"/>
-    <col min="5123" max="5123" width="8.25" style="4" customWidth="1"/>
-    <col min="5124" max="5124" width="33.5" style="4" customWidth="1"/>
-    <col min="5125" max="5125" width="68.375" style="4" customWidth="1"/>
-    <col min="5126" max="5376" width="9" style="4"/>
-    <col min="5377" max="5377" width="4" style="4" customWidth="1"/>
-    <col min="5378" max="5378" width="4.875" style="4" customWidth="1"/>
-    <col min="5379" max="5379" width="8.25" style="4" customWidth="1"/>
-    <col min="5380" max="5380" width="33.5" style="4" customWidth="1"/>
-    <col min="5381" max="5381" width="68.375" style="4" customWidth="1"/>
-    <col min="5382" max="5632" width="9" style="4"/>
-    <col min="5633" max="5633" width="4" style="4" customWidth="1"/>
-    <col min="5634" max="5634" width="4.875" style="4" customWidth="1"/>
-    <col min="5635" max="5635" width="8.25" style="4" customWidth="1"/>
-    <col min="5636" max="5636" width="33.5" style="4" customWidth="1"/>
-    <col min="5637" max="5637" width="68.375" style="4" customWidth="1"/>
-    <col min="5638" max="5888" width="9" style="4"/>
-    <col min="5889" max="5889" width="4" style="4" customWidth="1"/>
-    <col min="5890" max="5890" width="4.875" style="4" customWidth="1"/>
-    <col min="5891" max="5891" width="8.25" style="4" customWidth="1"/>
-    <col min="5892" max="5892" width="33.5" style="4" customWidth="1"/>
-    <col min="5893" max="5893" width="68.375" style="4" customWidth="1"/>
-    <col min="5894" max="6144" width="9" style="4"/>
-    <col min="6145" max="6145" width="4" style="4" customWidth="1"/>
-    <col min="6146" max="6146" width="4.875" style="4" customWidth="1"/>
-    <col min="6147" max="6147" width="8.25" style="4" customWidth="1"/>
-    <col min="6148" max="6148" width="33.5" style="4" customWidth="1"/>
-    <col min="6149" max="6149" width="68.375" style="4" customWidth="1"/>
-    <col min="6150" max="6400" width="9" style="4"/>
-    <col min="6401" max="6401" width="4" style="4" customWidth="1"/>
-    <col min="6402" max="6402" width="4.875" style="4" customWidth="1"/>
-    <col min="6403" max="6403" width="8.25" style="4" customWidth="1"/>
-    <col min="6404" max="6404" width="33.5" style="4" customWidth="1"/>
-    <col min="6405" max="6405" width="68.375" style="4" customWidth="1"/>
-    <col min="6406" max="6656" width="9" style="4"/>
-    <col min="6657" max="6657" width="4" style="4" customWidth="1"/>
-    <col min="6658" max="6658" width="4.875" style="4" customWidth="1"/>
-    <col min="6659" max="6659" width="8.25" style="4" customWidth="1"/>
-    <col min="6660" max="6660" width="33.5" style="4" customWidth="1"/>
-    <col min="6661" max="6661" width="68.375" style="4" customWidth="1"/>
-    <col min="6662" max="6912" width="9" style="4"/>
-    <col min="6913" max="6913" width="4" style="4" customWidth="1"/>
-    <col min="6914" max="6914" width="4.875" style="4" customWidth="1"/>
-    <col min="6915" max="6915" width="8.25" style="4" customWidth="1"/>
-    <col min="6916" max="6916" width="33.5" style="4" customWidth="1"/>
-    <col min="6917" max="6917" width="68.375" style="4" customWidth="1"/>
-    <col min="6918" max="7168" width="9" style="4"/>
-    <col min="7169" max="7169" width="4" style="4" customWidth="1"/>
-    <col min="7170" max="7170" width="4.875" style="4" customWidth="1"/>
-    <col min="7171" max="7171" width="8.25" style="4" customWidth="1"/>
-    <col min="7172" max="7172" width="33.5" style="4" customWidth="1"/>
-    <col min="7173" max="7173" width="68.375" style="4" customWidth="1"/>
-    <col min="7174" max="7424" width="9" style="4"/>
-    <col min="7425" max="7425" width="4" style="4" customWidth="1"/>
-    <col min="7426" max="7426" width="4.875" style="4" customWidth="1"/>
-    <col min="7427" max="7427" width="8.25" style="4" customWidth="1"/>
-    <col min="7428" max="7428" width="33.5" style="4" customWidth="1"/>
-    <col min="7429" max="7429" width="68.375" style="4" customWidth="1"/>
-    <col min="7430" max="7680" width="9" style="4"/>
-    <col min="7681" max="7681" width="4" style="4" customWidth="1"/>
-    <col min="7682" max="7682" width="4.875" style="4" customWidth="1"/>
-    <col min="7683" max="7683" width="8.25" style="4" customWidth="1"/>
-    <col min="7684" max="7684" width="33.5" style="4" customWidth="1"/>
-    <col min="7685" max="7685" width="68.375" style="4" customWidth="1"/>
-    <col min="7686" max="7936" width="9" style="4"/>
-    <col min="7937" max="7937" width="4" style="4" customWidth="1"/>
-    <col min="7938" max="7938" width="4.875" style="4" customWidth="1"/>
-    <col min="7939" max="7939" width="8.25" style="4" customWidth="1"/>
-    <col min="7940" max="7940" width="33.5" style="4" customWidth="1"/>
-    <col min="7941" max="7941" width="68.375" style="4" customWidth="1"/>
-    <col min="7942" max="8192" width="9" style="4"/>
-    <col min="8193" max="8193" width="4" style="4" customWidth="1"/>
-    <col min="8194" max="8194" width="4.875" style="4" customWidth="1"/>
-    <col min="8195" max="8195" width="8.25" style="4" customWidth="1"/>
-    <col min="8196" max="8196" width="33.5" style="4" customWidth="1"/>
-    <col min="8197" max="8197" width="68.375" style="4" customWidth="1"/>
-    <col min="8198" max="8448" width="9" style="4"/>
-    <col min="8449" max="8449" width="4" style="4" customWidth="1"/>
-    <col min="8450" max="8450" width="4.875" style="4" customWidth="1"/>
-    <col min="8451" max="8451" width="8.25" style="4" customWidth="1"/>
-    <col min="8452" max="8452" width="33.5" style="4" customWidth="1"/>
-    <col min="8453" max="8453" width="68.375" style="4" customWidth="1"/>
-    <col min="8454" max="8704" width="9" style="4"/>
-    <col min="8705" max="8705" width="4" style="4" customWidth="1"/>
-    <col min="8706" max="8706" width="4.875" style="4" customWidth="1"/>
-    <col min="8707" max="8707" width="8.25" style="4" customWidth="1"/>
-    <col min="8708" max="8708" width="33.5" style="4" customWidth="1"/>
-    <col min="8709" max="8709" width="68.375" style="4" customWidth="1"/>
-    <col min="8710" max="8960" width="9" style="4"/>
-    <col min="8961" max="8961" width="4" style="4" customWidth="1"/>
-    <col min="8962" max="8962" width="4.875" style="4" customWidth="1"/>
-    <col min="8963" max="8963" width="8.25" style="4" customWidth="1"/>
-    <col min="8964" max="8964" width="33.5" style="4" customWidth="1"/>
-    <col min="8965" max="8965" width="68.375" style="4" customWidth="1"/>
-    <col min="8966" max="9216" width="9" style="4"/>
-    <col min="9217" max="9217" width="4" style="4" customWidth="1"/>
-    <col min="9218" max="9218" width="4.875" style="4" customWidth="1"/>
-    <col min="9219" max="9219" width="8.25" style="4" customWidth="1"/>
-    <col min="9220" max="9220" width="33.5" style="4" customWidth="1"/>
-    <col min="9221" max="9221" width="68.375" style="4" customWidth="1"/>
-    <col min="9222" max="9472" width="9" style="4"/>
-    <col min="9473" max="9473" width="4" style="4" customWidth="1"/>
-    <col min="9474" max="9474" width="4.875" style="4" customWidth="1"/>
-    <col min="9475" max="9475" width="8.25" style="4" customWidth="1"/>
-    <col min="9476" max="9476" width="33.5" style="4" customWidth="1"/>
-    <col min="9477" max="9477" width="68.375" style="4" customWidth="1"/>
-    <col min="9478" max="9728" width="9" style="4"/>
-    <col min="9729" max="9729" width="4" style="4" customWidth="1"/>
-    <col min="9730" max="9730" width="4.875" style="4" customWidth="1"/>
-    <col min="9731" max="9731" width="8.25" style="4" customWidth="1"/>
-    <col min="9732" max="9732" width="33.5" style="4" customWidth="1"/>
-    <col min="9733" max="9733" width="68.375" style="4" customWidth="1"/>
-    <col min="9734" max="9984" width="9" style="4"/>
-    <col min="9985" max="9985" width="4" style="4" customWidth="1"/>
-    <col min="9986" max="9986" width="4.875" style="4" customWidth="1"/>
-    <col min="9987" max="9987" width="8.25" style="4" customWidth="1"/>
-    <col min="9988" max="9988" width="33.5" style="4" customWidth="1"/>
-    <col min="9989" max="9989" width="68.375" style="4" customWidth="1"/>
-    <col min="9990" max="10240" width="9" style="4"/>
-    <col min="10241" max="10241" width="4" style="4" customWidth="1"/>
-    <col min="10242" max="10242" width="4.875" style="4" customWidth="1"/>
-    <col min="10243" max="10243" width="8.25" style="4" customWidth="1"/>
-    <col min="10244" max="10244" width="33.5" style="4" customWidth="1"/>
-    <col min="10245" max="10245" width="68.375" style="4" customWidth="1"/>
-    <col min="10246" max="10496" width="9" style="4"/>
-    <col min="10497" max="10497" width="4" style="4" customWidth="1"/>
-    <col min="10498" max="10498" width="4.875" style="4" customWidth="1"/>
-    <col min="10499" max="10499" width="8.25" style="4" customWidth="1"/>
-    <col min="10500" max="10500" width="33.5" style="4" customWidth="1"/>
-    <col min="10501" max="10501" width="68.375" style="4" customWidth="1"/>
-    <col min="10502" max="10752" width="9" style="4"/>
-    <col min="10753" max="10753" width="4" style="4" customWidth="1"/>
-    <col min="10754" max="10754" width="4.875" style="4" customWidth="1"/>
-    <col min="10755" max="10755" width="8.25" style="4" customWidth="1"/>
-    <col min="10756" max="10756" width="33.5" style="4" customWidth="1"/>
-    <col min="10757" max="10757" width="68.375" style="4" customWidth="1"/>
-    <col min="10758" max="11008" width="9" style="4"/>
-    <col min="11009" max="11009" width="4" style="4" customWidth="1"/>
-    <col min="11010" max="11010" width="4.875" style="4" customWidth="1"/>
-    <col min="11011" max="11011" width="8.25" style="4" customWidth="1"/>
-    <col min="11012" max="11012" width="33.5" style="4" customWidth="1"/>
-    <col min="11013" max="11013" width="68.375" style="4" customWidth="1"/>
-    <col min="11014" max="11264" width="9" style="4"/>
-    <col min="11265" max="11265" width="4" style="4" customWidth="1"/>
-    <col min="11266" max="11266" width="4.875" style="4" customWidth="1"/>
-    <col min="11267" max="11267" width="8.25" style="4" customWidth="1"/>
-    <col min="11268" max="11268" width="33.5" style="4" customWidth="1"/>
-    <col min="11269" max="11269" width="68.375" style="4" customWidth="1"/>
-    <col min="11270" max="11520" width="9" style="4"/>
-    <col min="11521" max="11521" width="4" style="4" customWidth="1"/>
-    <col min="11522" max="11522" width="4.875" style="4" customWidth="1"/>
-    <col min="11523" max="11523" width="8.25" style="4" customWidth="1"/>
-    <col min="11524" max="11524" width="33.5" style="4" customWidth="1"/>
-    <col min="11525" max="11525" width="68.375" style="4" customWidth="1"/>
-    <col min="11526" max="11776" width="9" style="4"/>
-    <col min="11777" max="11777" width="4" style="4" customWidth="1"/>
-    <col min="11778" max="11778" width="4.875" style="4" customWidth="1"/>
-    <col min="11779" max="11779" width="8.25" style="4" customWidth="1"/>
-    <col min="11780" max="11780" width="33.5" style="4" customWidth="1"/>
-    <col min="11781" max="11781" width="68.375" style="4" customWidth="1"/>
-    <col min="11782" max="12032" width="9" style="4"/>
-    <col min="12033" max="12033" width="4" style="4" customWidth="1"/>
-    <col min="12034" max="12034" width="4.875" style="4" customWidth="1"/>
-    <col min="12035" max="12035" width="8.25" style="4" customWidth="1"/>
-    <col min="12036" max="12036" width="33.5" style="4" customWidth="1"/>
-    <col min="12037" max="12037" width="68.375" style="4" customWidth="1"/>
-    <col min="12038" max="12288" width="9" style="4"/>
-    <col min="12289" max="12289" width="4" style="4" customWidth="1"/>
-    <col min="12290" max="12290" width="4.875" style="4" customWidth="1"/>
-    <col min="12291" max="12291" width="8.25" style="4" customWidth="1"/>
-    <col min="12292" max="12292" width="33.5" style="4" customWidth="1"/>
-    <col min="12293" max="12293" width="68.375" style="4" customWidth="1"/>
-    <col min="12294" max="12544" width="9" style="4"/>
-    <col min="12545" max="12545" width="4" style="4" customWidth="1"/>
-    <col min="12546" max="12546" width="4.875" style="4" customWidth="1"/>
-    <col min="12547" max="12547" width="8.25" style="4" customWidth="1"/>
-    <col min="12548" max="12548" width="33.5" style="4" customWidth="1"/>
-    <col min="12549" max="12549" width="68.375" style="4" customWidth="1"/>
-    <col min="12550" max="12800" width="9" style="4"/>
-    <col min="12801" max="12801" width="4" style="4" customWidth="1"/>
-    <col min="12802" max="12802" width="4.875" style="4" customWidth="1"/>
-    <col min="12803" max="12803" width="8.25" style="4" customWidth="1"/>
-    <col min="12804" max="12804" width="33.5" style="4" customWidth="1"/>
-    <col min="12805" max="12805" width="68.375" style="4" customWidth="1"/>
-    <col min="12806" max="13056" width="9" style="4"/>
-    <col min="13057" max="13057" width="4" style="4" customWidth="1"/>
-    <col min="13058" max="13058" width="4.875" style="4" customWidth="1"/>
-    <col min="13059" max="13059" width="8.25" style="4" customWidth="1"/>
-    <col min="13060" max="13060" width="33.5" style="4" customWidth="1"/>
-    <col min="13061" max="13061" width="68.375" style="4" customWidth="1"/>
-    <col min="13062" max="13312" width="9" style="4"/>
-    <col min="13313" max="13313" width="4" style="4" customWidth="1"/>
-    <col min="13314" max="13314" width="4.875" style="4" customWidth="1"/>
-    <col min="13315" max="13315" width="8.25" style="4" customWidth="1"/>
-    <col min="13316" max="13316" width="33.5" style="4" customWidth="1"/>
-    <col min="13317" max="13317" width="68.375" style="4" customWidth="1"/>
-    <col min="13318" max="13568" width="9" style="4"/>
-    <col min="13569" max="13569" width="4" style="4" customWidth="1"/>
-    <col min="13570" max="13570" width="4.875" style="4" customWidth="1"/>
-    <col min="13571" max="13571" width="8.25" style="4" customWidth="1"/>
-    <col min="13572" max="13572" width="33.5" style="4" customWidth="1"/>
-    <col min="13573" max="13573" width="68.375" style="4" customWidth="1"/>
-    <col min="13574" max="13824" width="9" style="4"/>
-    <col min="13825" max="13825" width="4" style="4" customWidth="1"/>
-    <col min="13826" max="13826" width="4.875" style="4" customWidth="1"/>
-    <col min="13827" max="13827" width="8.25" style="4" customWidth="1"/>
-    <col min="13828" max="13828" width="33.5" style="4" customWidth="1"/>
-    <col min="13829" max="13829" width="68.375" style="4" customWidth="1"/>
-    <col min="13830" max="14080" width="9" style="4"/>
-    <col min="14081" max="14081" width="4" style="4" customWidth="1"/>
-    <col min="14082" max="14082" width="4.875" style="4" customWidth="1"/>
-    <col min="14083" max="14083" width="8.25" style="4" customWidth="1"/>
-    <col min="14084" max="14084" width="33.5" style="4" customWidth="1"/>
-    <col min="14085" max="14085" width="68.375" style="4" customWidth="1"/>
-    <col min="14086" max="14336" width="9" style="4"/>
-    <col min="14337" max="14337" width="4" style="4" customWidth="1"/>
-    <col min="14338" max="14338" width="4.875" style="4" customWidth="1"/>
-    <col min="14339" max="14339" width="8.25" style="4" customWidth="1"/>
-    <col min="14340" max="14340" width="33.5" style="4" customWidth="1"/>
-    <col min="14341" max="14341" width="68.375" style="4" customWidth="1"/>
-    <col min="14342" max="14592" width="9" style="4"/>
-    <col min="14593" max="14593" width="4" style="4" customWidth="1"/>
-    <col min="14594" max="14594" width="4.875" style="4" customWidth="1"/>
-    <col min="14595" max="14595" width="8.25" style="4" customWidth="1"/>
-    <col min="14596" max="14596" width="33.5" style="4" customWidth="1"/>
-    <col min="14597" max="14597" width="68.375" style="4" customWidth="1"/>
-    <col min="14598" max="14848" width="9" style="4"/>
-    <col min="14849" max="14849" width="4" style="4" customWidth="1"/>
-    <col min="14850" max="14850" width="4.875" style="4" customWidth="1"/>
-    <col min="14851" max="14851" width="8.25" style="4" customWidth="1"/>
-    <col min="14852" max="14852" width="33.5" style="4" customWidth="1"/>
-    <col min="14853" max="14853" width="68.375" style="4" customWidth="1"/>
-    <col min="14854" max="15104" width="9" style="4"/>
-    <col min="15105" max="15105" width="4" style="4" customWidth="1"/>
-    <col min="15106" max="15106" width="4.875" style="4" customWidth="1"/>
-    <col min="15107" max="15107" width="8.25" style="4" customWidth="1"/>
-    <col min="15108" max="15108" width="33.5" style="4" customWidth="1"/>
-    <col min="15109" max="15109" width="68.375" style="4" customWidth="1"/>
-    <col min="15110" max="15360" width="9" style="4"/>
-    <col min="15361" max="15361" width="4" style="4" customWidth="1"/>
-    <col min="15362" max="15362" width="4.875" style="4" customWidth="1"/>
-    <col min="15363" max="15363" width="8.25" style="4" customWidth="1"/>
-    <col min="15364" max="15364" width="33.5" style="4" customWidth="1"/>
-    <col min="15365" max="15365" width="68.375" style="4" customWidth="1"/>
-    <col min="15366" max="15616" width="9" style="4"/>
-    <col min="15617" max="15617" width="4" style="4" customWidth="1"/>
-    <col min="15618" max="15618" width="4.875" style="4" customWidth="1"/>
-    <col min="15619" max="15619" width="8.25" style="4" customWidth="1"/>
-    <col min="15620" max="15620" width="33.5" style="4" customWidth="1"/>
-    <col min="15621" max="15621" width="68.375" style="4" customWidth="1"/>
-    <col min="15622" max="15872" width="9" style="4"/>
-    <col min="15873" max="15873" width="4" style="4" customWidth="1"/>
-    <col min="15874" max="15874" width="4.875" style="4" customWidth="1"/>
-    <col min="15875" max="15875" width="8.25" style="4" customWidth="1"/>
-    <col min="15876" max="15876" width="33.5" style="4" customWidth="1"/>
-    <col min="15877" max="15877" width="68.375" style="4" customWidth="1"/>
-    <col min="15878" max="16128" width="9" style="4"/>
-    <col min="16129" max="16129" width="4" style="4" customWidth="1"/>
-    <col min="16130" max="16130" width="4.875" style="4" customWidth="1"/>
-    <col min="16131" max="16131" width="8.25" style="4" customWidth="1"/>
-    <col min="16132" max="16132" width="33.5" style="4" customWidth="1"/>
-    <col min="16133" max="16133" width="68.375" style="4" customWidth="1"/>
-    <col min="16134" max="16384" width="9" style="4"/>
+    <col min="6" max="6" width="9.625" style="4" customWidth="1"/>
+    <col min="7" max="7" width="11.875" style="4" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="4.875" style="4" customWidth="1"/>
+    <col min="10" max="12" width="13.125" style="4" customWidth="1"/>
+    <col min="13" max="258" width="9" style="4"/>
+    <col min="259" max="259" width="4" style="4" customWidth="1"/>
+    <col min="260" max="260" width="4.875" style="4" customWidth="1"/>
+    <col min="261" max="261" width="8.25" style="4" customWidth="1"/>
+    <col min="262" max="262" width="33.5" style="4" customWidth="1"/>
+    <col min="263" max="263" width="68.375" style="4" customWidth="1"/>
+    <col min="264" max="514" width="9" style="4"/>
+    <col min="515" max="515" width="4" style="4" customWidth="1"/>
+    <col min="516" max="516" width="4.875" style="4" customWidth="1"/>
+    <col min="517" max="517" width="8.25" style="4" customWidth="1"/>
+    <col min="518" max="518" width="33.5" style="4" customWidth="1"/>
+    <col min="519" max="519" width="68.375" style="4" customWidth="1"/>
+    <col min="520" max="770" width="9" style="4"/>
+    <col min="771" max="771" width="4" style="4" customWidth="1"/>
+    <col min="772" max="772" width="4.875" style="4" customWidth="1"/>
+    <col min="773" max="773" width="8.25" style="4" customWidth="1"/>
+    <col min="774" max="774" width="33.5" style="4" customWidth="1"/>
+    <col min="775" max="775" width="68.375" style="4" customWidth="1"/>
+    <col min="776" max="1026" width="9" style="4"/>
+    <col min="1027" max="1027" width="4" style="4" customWidth="1"/>
+    <col min="1028" max="1028" width="4.875" style="4" customWidth="1"/>
+    <col min="1029" max="1029" width="8.25" style="4" customWidth="1"/>
+    <col min="1030" max="1030" width="33.5" style="4" customWidth="1"/>
+    <col min="1031" max="1031" width="68.375" style="4" customWidth="1"/>
+    <col min="1032" max="1282" width="9" style="4"/>
+    <col min="1283" max="1283" width="4" style="4" customWidth="1"/>
+    <col min="1284" max="1284" width="4.875" style="4" customWidth="1"/>
+    <col min="1285" max="1285" width="8.25" style="4" customWidth="1"/>
+    <col min="1286" max="1286" width="33.5" style="4" customWidth="1"/>
+    <col min="1287" max="1287" width="68.375" style="4" customWidth="1"/>
+    <col min="1288" max="1538" width="9" style="4"/>
+    <col min="1539" max="1539" width="4" style="4" customWidth="1"/>
+    <col min="1540" max="1540" width="4.875" style="4" customWidth="1"/>
+    <col min="1541" max="1541" width="8.25" style="4" customWidth="1"/>
+    <col min="1542" max="1542" width="33.5" style="4" customWidth="1"/>
+    <col min="1543" max="1543" width="68.375" style="4" customWidth="1"/>
+    <col min="1544" max="1794" width="9" style="4"/>
+    <col min="1795" max="1795" width="4" style="4" customWidth="1"/>
+    <col min="1796" max="1796" width="4.875" style="4" customWidth="1"/>
+    <col min="1797" max="1797" width="8.25" style="4" customWidth="1"/>
+    <col min="1798" max="1798" width="33.5" style="4" customWidth="1"/>
+    <col min="1799" max="1799" width="68.375" style="4" customWidth="1"/>
+    <col min="1800" max="2050" width="9" style="4"/>
+    <col min="2051" max="2051" width="4" style="4" customWidth="1"/>
+    <col min="2052" max="2052" width="4.875" style="4" customWidth="1"/>
+    <col min="2053" max="2053" width="8.25" style="4" customWidth="1"/>
+    <col min="2054" max="2054" width="33.5" style="4" customWidth="1"/>
+    <col min="2055" max="2055" width="68.375" style="4" customWidth="1"/>
+    <col min="2056" max="2306" width="9" style="4"/>
+    <col min="2307" max="2307" width="4" style="4" customWidth="1"/>
+    <col min="2308" max="2308" width="4.875" style="4" customWidth="1"/>
+    <col min="2309" max="2309" width="8.25" style="4" customWidth="1"/>
+    <col min="2310" max="2310" width="33.5" style="4" customWidth="1"/>
+    <col min="2311" max="2311" width="68.375" style="4" customWidth="1"/>
+    <col min="2312" max="2562" width="9" style="4"/>
+    <col min="2563" max="2563" width="4" style="4" customWidth="1"/>
+    <col min="2564" max="2564" width="4.875" style="4" customWidth="1"/>
+    <col min="2565" max="2565" width="8.25" style="4" customWidth="1"/>
+    <col min="2566" max="2566" width="33.5" style="4" customWidth="1"/>
+    <col min="2567" max="2567" width="68.375" style="4" customWidth="1"/>
+    <col min="2568" max="2818" width="9" style="4"/>
+    <col min="2819" max="2819" width="4" style="4" customWidth="1"/>
+    <col min="2820" max="2820" width="4.875" style="4" customWidth="1"/>
+    <col min="2821" max="2821" width="8.25" style="4" customWidth="1"/>
+    <col min="2822" max="2822" width="33.5" style="4" customWidth="1"/>
+    <col min="2823" max="2823" width="68.375" style="4" customWidth="1"/>
+    <col min="2824" max="3074" width="9" style="4"/>
+    <col min="3075" max="3075" width="4" style="4" customWidth="1"/>
+    <col min="3076" max="3076" width="4.875" style="4" customWidth="1"/>
+    <col min="3077" max="3077" width="8.25" style="4" customWidth="1"/>
+    <col min="3078" max="3078" width="33.5" style="4" customWidth="1"/>
+    <col min="3079" max="3079" width="68.375" style="4" customWidth="1"/>
+    <col min="3080" max="3330" width="9" style="4"/>
+    <col min="3331" max="3331" width="4" style="4" customWidth="1"/>
+    <col min="3332" max="3332" width="4.875" style="4" customWidth="1"/>
+    <col min="3333" max="3333" width="8.25" style="4" customWidth="1"/>
+    <col min="3334" max="3334" width="33.5" style="4" customWidth="1"/>
+    <col min="3335" max="3335" width="68.375" style="4" customWidth="1"/>
+    <col min="3336" max="3586" width="9" style="4"/>
+    <col min="3587" max="3587" width="4" style="4" customWidth="1"/>
+    <col min="3588" max="3588" width="4.875" style="4" customWidth="1"/>
+    <col min="3589" max="3589" width="8.25" style="4" customWidth="1"/>
+    <col min="3590" max="3590" width="33.5" style="4" customWidth="1"/>
+    <col min="3591" max="3591" width="68.375" style="4" customWidth="1"/>
+    <col min="3592" max="3842" width="9" style="4"/>
+    <col min="3843" max="3843" width="4" style="4" customWidth="1"/>
+    <col min="3844" max="3844" width="4.875" style="4" customWidth="1"/>
+    <col min="3845" max="3845" width="8.25" style="4" customWidth="1"/>
+    <col min="3846" max="3846" width="33.5" style="4" customWidth="1"/>
+    <col min="3847" max="3847" width="68.375" style="4" customWidth="1"/>
+    <col min="3848" max="4098" width="9" style="4"/>
+    <col min="4099" max="4099" width="4" style="4" customWidth="1"/>
+    <col min="4100" max="4100" width="4.875" style="4" customWidth="1"/>
+    <col min="4101" max="4101" width="8.25" style="4" customWidth="1"/>
+    <col min="4102" max="4102" width="33.5" style="4" customWidth="1"/>
+    <col min="4103" max="4103" width="68.375" style="4" customWidth="1"/>
+    <col min="4104" max="4354" width="9" style="4"/>
+    <col min="4355" max="4355" width="4" style="4" customWidth="1"/>
+    <col min="4356" max="4356" width="4.875" style="4" customWidth="1"/>
+    <col min="4357" max="4357" width="8.25" style="4" customWidth="1"/>
+    <col min="4358" max="4358" width="33.5" style="4" customWidth="1"/>
+    <col min="4359" max="4359" width="68.375" style="4" customWidth="1"/>
+    <col min="4360" max="4610" width="9" style="4"/>
+    <col min="4611" max="4611" width="4" style="4" customWidth="1"/>
+    <col min="4612" max="4612" width="4.875" style="4" customWidth="1"/>
+    <col min="4613" max="4613" width="8.25" style="4" customWidth="1"/>
+    <col min="4614" max="4614" width="33.5" style="4" customWidth="1"/>
+    <col min="4615" max="4615" width="68.375" style="4" customWidth="1"/>
+    <col min="4616" max="4866" width="9" style="4"/>
+    <col min="4867" max="4867" width="4" style="4" customWidth="1"/>
+    <col min="4868" max="4868" width="4.875" style="4" customWidth="1"/>
+    <col min="4869" max="4869" width="8.25" style="4" customWidth="1"/>
+    <col min="4870" max="4870" width="33.5" style="4" customWidth="1"/>
+    <col min="4871" max="4871" width="68.375" style="4" customWidth="1"/>
+    <col min="4872" max="5122" width="9" style="4"/>
+    <col min="5123" max="5123" width="4" style="4" customWidth="1"/>
+    <col min="5124" max="5124" width="4.875" style="4" customWidth="1"/>
+    <col min="5125" max="5125" width="8.25" style="4" customWidth="1"/>
+    <col min="5126" max="5126" width="33.5" style="4" customWidth="1"/>
+    <col min="5127" max="5127" width="68.375" style="4" customWidth="1"/>
+    <col min="5128" max="5378" width="9" style="4"/>
+    <col min="5379" max="5379" width="4" style="4" customWidth="1"/>
+    <col min="5380" max="5380" width="4.875" style="4" customWidth="1"/>
+    <col min="5381" max="5381" width="8.25" style="4" customWidth="1"/>
+    <col min="5382" max="5382" width="33.5" style="4" customWidth="1"/>
+    <col min="5383" max="5383" width="68.375" style="4" customWidth="1"/>
+    <col min="5384" max="5634" width="9" style="4"/>
+    <col min="5635" max="5635" width="4" style="4" customWidth="1"/>
+    <col min="5636" max="5636" width="4.875" style="4" customWidth="1"/>
+    <col min="5637" max="5637" width="8.25" style="4" customWidth="1"/>
+    <col min="5638" max="5638" width="33.5" style="4" customWidth="1"/>
+    <col min="5639" max="5639" width="68.375" style="4" customWidth="1"/>
+    <col min="5640" max="5890" width="9" style="4"/>
+    <col min="5891" max="5891" width="4" style="4" customWidth="1"/>
+    <col min="5892" max="5892" width="4.875" style="4" customWidth="1"/>
+    <col min="5893" max="5893" width="8.25" style="4" customWidth="1"/>
+    <col min="5894" max="5894" width="33.5" style="4" customWidth="1"/>
+    <col min="5895" max="5895" width="68.375" style="4" customWidth="1"/>
+    <col min="5896" max="6146" width="9" style="4"/>
+    <col min="6147" max="6147" width="4" style="4" customWidth="1"/>
+    <col min="6148" max="6148" width="4.875" style="4" customWidth="1"/>
+    <col min="6149" max="6149" width="8.25" style="4" customWidth="1"/>
+    <col min="6150" max="6150" width="33.5" style="4" customWidth="1"/>
+    <col min="6151" max="6151" width="68.375" style="4" customWidth="1"/>
+    <col min="6152" max="6402" width="9" style="4"/>
+    <col min="6403" max="6403" width="4" style="4" customWidth="1"/>
+    <col min="6404" max="6404" width="4.875" style="4" customWidth="1"/>
+    <col min="6405" max="6405" width="8.25" style="4" customWidth="1"/>
+    <col min="6406" max="6406" width="33.5" style="4" customWidth="1"/>
+    <col min="6407" max="6407" width="68.375" style="4" customWidth="1"/>
+    <col min="6408" max="6658" width="9" style="4"/>
+    <col min="6659" max="6659" width="4" style="4" customWidth="1"/>
+    <col min="6660" max="6660" width="4.875" style="4" customWidth="1"/>
+    <col min="6661" max="6661" width="8.25" style="4" customWidth="1"/>
+    <col min="6662" max="6662" width="33.5" style="4" customWidth="1"/>
+    <col min="6663" max="6663" width="68.375" style="4" customWidth="1"/>
+    <col min="6664" max="6914" width="9" style="4"/>
+    <col min="6915" max="6915" width="4" style="4" customWidth="1"/>
+    <col min="6916" max="6916" width="4.875" style="4" customWidth="1"/>
+    <col min="6917" max="6917" width="8.25" style="4" customWidth="1"/>
+    <col min="6918" max="6918" width="33.5" style="4" customWidth="1"/>
+    <col min="6919" max="6919" width="68.375" style="4" customWidth="1"/>
+    <col min="6920" max="7170" width="9" style="4"/>
+    <col min="7171" max="7171" width="4" style="4" customWidth="1"/>
+    <col min="7172" max="7172" width="4.875" style="4" customWidth="1"/>
+    <col min="7173" max="7173" width="8.25" style="4" customWidth="1"/>
+    <col min="7174" max="7174" width="33.5" style="4" customWidth="1"/>
+    <col min="7175" max="7175" width="68.375" style="4" customWidth="1"/>
+    <col min="7176" max="7426" width="9" style="4"/>
+    <col min="7427" max="7427" width="4" style="4" customWidth="1"/>
+    <col min="7428" max="7428" width="4.875" style="4" customWidth="1"/>
+    <col min="7429" max="7429" width="8.25" style="4" customWidth="1"/>
+    <col min="7430" max="7430" width="33.5" style="4" customWidth="1"/>
+    <col min="7431" max="7431" width="68.375" style="4" customWidth="1"/>
+    <col min="7432" max="7682" width="9" style="4"/>
+    <col min="7683" max="7683" width="4" style="4" customWidth="1"/>
+    <col min="7684" max="7684" width="4.875" style="4" customWidth="1"/>
+    <col min="7685" max="7685" width="8.25" style="4" customWidth="1"/>
+    <col min="7686" max="7686" width="33.5" style="4" customWidth="1"/>
+    <col min="7687" max="7687" width="68.375" style="4" customWidth="1"/>
+    <col min="7688" max="7938" width="9" style="4"/>
+    <col min="7939" max="7939" width="4" style="4" customWidth="1"/>
+    <col min="7940" max="7940" width="4.875" style="4" customWidth="1"/>
+    <col min="7941" max="7941" width="8.25" style="4" customWidth="1"/>
+    <col min="7942" max="7942" width="33.5" style="4" customWidth="1"/>
+    <col min="7943" max="7943" width="68.375" style="4" customWidth="1"/>
+    <col min="7944" max="8194" width="9" style="4"/>
+    <col min="8195" max="8195" width="4" style="4" customWidth="1"/>
+    <col min="8196" max="8196" width="4.875" style="4" customWidth="1"/>
+    <col min="8197" max="8197" width="8.25" style="4" customWidth="1"/>
+    <col min="8198" max="8198" width="33.5" style="4" customWidth="1"/>
+    <col min="8199" max="8199" width="68.375" style="4" customWidth="1"/>
+    <col min="8200" max="8450" width="9" style="4"/>
+    <col min="8451" max="8451" width="4" style="4" customWidth="1"/>
+    <col min="8452" max="8452" width="4.875" style="4" customWidth="1"/>
+    <col min="8453" max="8453" width="8.25" style="4" customWidth="1"/>
+    <col min="8454" max="8454" width="33.5" style="4" customWidth="1"/>
+    <col min="8455" max="8455" width="68.375" style="4" customWidth="1"/>
+    <col min="8456" max="8706" width="9" style="4"/>
+    <col min="8707" max="8707" width="4" style="4" customWidth="1"/>
+    <col min="8708" max="8708" width="4.875" style="4" customWidth="1"/>
+    <col min="8709" max="8709" width="8.25" style="4" customWidth="1"/>
+    <col min="8710" max="8710" width="33.5" style="4" customWidth="1"/>
+    <col min="8711" max="8711" width="68.375" style="4" customWidth="1"/>
+    <col min="8712" max="8962" width="9" style="4"/>
+    <col min="8963" max="8963" width="4" style="4" customWidth="1"/>
+    <col min="8964" max="8964" width="4.875" style="4" customWidth="1"/>
+    <col min="8965" max="8965" width="8.25" style="4" customWidth="1"/>
+    <col min="8966" max="8966" width="33.5" style="4" customWidth="1"/>
+    <col min="8967" max="8967" width="68.375" style="4" customWidth="1"/>
+    <col min="8968" max="9218" width="9" style="4"/>
+    <col min="9219" max="9219" width="4" style="4" customWidth="1"/>
+    <col min="9220" max="9220" width="4.875" style="4" customWidth="1"/>
+    <col min="9221" max="9221" width="8.25" style="4" customWidth="1"/>
+    <col min="9222" max="9222" width="33.5" style="4" customWidth="1"/>
+    <col min="9223" max="9223" width="68.375" style="4" customWidth="1"/>
+    <col min="9224" max="9474" width="9" style="4"/>
+    <col min="9475" max="9475" width="4" style="4" customWidth="1"/>
+    <col min="9476" max="9476" width="4.875" style="4" customWidth="1"/>
+    <col min="9477" max="9477" width="8.25" style="4" customWidth="1"/>
+    <col min="9478" max="9478" width="33.5" style="4" customWidth="1"/>
+    <col min="9479" max="9479" width="68.375" style="4" customWidth="1"/>
+    <col min="9480" max="9730" width="9" style="4"/>
+    <col min="9731" max="9731" width="4" style="4" customWidth="1"/>
+    <col min="9732" max="9732" width="4.875" style="4" customWidth="1"/>
+    <col min="9733" max="9733" width="8.25" style="4" customWidth="1"/>
+    <col min="9734" max="9734" width="33.5" style="4" customWidth="1"/>
+    <col min="9735" max="9735" width="68.375" style="4" customWidth="1"/>
+    <col min="9736" max="9986" width="9" style="4"/>
+    <col min="9987" max="9987" width="4" style="4" customWidth="1"/>
+    <col min="9988" max="9988" width="4.875" style="4" customWidth="1"/>
+    <col min="9989" max="9989" width="8.25" style="4" customWidth="1"/>
+    <col min="9990" max="9990" width="33.5" style="4" customWidth="1"/>
+    <col min="9991" max="9991" width="68.375" style="4" customWidth="1"/>
+    <col min="9992" max="10242" width="9" style="4"/>
+    <col min="10243" max="10243" width="4" style="4" customWidth="1"/>
+    <col min="10244" max="10244" width="4.875" style="4" customWidth="1"/>
+    <col min="10245" max="10245" width="8.25" style="4" customWidth="1"/>
+    <col min="10246" max="10246" width="33.5" style="4" customWidth="1"/>
+    <col min="10247" max="10247" width="68.375" style="4" customWidth="1"/>
+    <col min="10248" max="10498" width="9" style="4"/>
+    <col min="10499" max="10499" width="4" style="4" customWidth="1"/>
+    <col min="10500" max="10500" width="4.875" style="4" customWidth="1"/>
+    <col min="10501" max="10501" width="8.25" style="4" customWidth="1"/>
+    <col min="10502" max="10502" width="33.5" style="4" customWidth="1"/>
+    <col min="10503" max="10503" width="68.375" style="4" customWidth="1"/>
+    <col min="10504" max="10754" width="9" style="4"/>
+    <col min="10755" max="10755" width="4" style="4" customWidth="1"/>
+    <col min="10756" max="10756" width="4.875" style="4" customWidth="1"/>
+    <col min="10757" max="10757" width="8.25" style="4" customWidth="1"/>
+    <col min="10758" max="10758" width="33.5" style="4" customWidth="1"/>
+    <col min="10759" max="10759" width="68.375" style="4" customWidth="1"/>
+    <col min="10760" max="11010" width="9" style="4"/>
+    <col min="11011" max="11011" width="4" style="4" customWidth="1"/>
+    <col min="11012" max="11012" width="4.875" style="4" customWidth="1"/>
+    <col min="11013" max="11013" width="8.25" style="4" customWidth="1"/>
+    <col min="11014" max="11014" width="33.5" style="4" customWidth="1"/>
+    <col min="11015" max="11015" width="68.375" style="4" customWidth="1"/>
+    <col min="11016" max="11266" width="9" style="4"/>
+    <col min="11267" max="11267" width="4" style="4" customWidth="1"/>
+    <col min="11268" max="11268" width="4.875" style="4" customWidth="1"/>
+    <col min="11269" max="11269" width="8.25" style="4" customWidth="1"/>
+    <col min="11270" max="11270" width="33.5" style="4" customWidth="1"/>
+    <col min="11271" max="11271" width="68.375" style="4" customWidth="1"/>
+    <col min="11272" max="11522" width="9" style="4"/>
+    <col min="11523" max="11523" width="4" style="4" customWidth="1"/>
+    <col min="11524" max="11524" width="4.875" style="4" customWidth="1"/>
+    <col min="11525" max="11525" width="8.25" style="4" customWidth="1"/>
+    <col min="11526" max="11526" width="33.5" style="4" customWidth="1"/>
+    <col min="11527" max="11527" width="68.375" style="4" customWidth="1"/>
+    <col min="11528" max="11778" width="9" style="4"/>
+    <col min="11779" max="11779" width="4" style="4" customWidth="1"/>
+    <col min="11780" max="11780" width="4.875" style="4" customWidth="1"/>
+    <col min="11781" max="11781" width="8.25" style="4" customWidth="1"/>
+    <col min="11782" max="11782" width="33.5" style="4" customWidth="1"/>
+    <col min="11783" max="11783" width="68.375" style="4" customWidth="1"/>
+    <col min="11784" max="12034" width="9" style="4"/>
+    <col min="12035" max="12035" width="4" style="4" customWidth="1"/>
+    <col min="12036" max="12036" width="4.875" style="4" customWidth="1"/>
+    <col min="12037" max="12037" width="8.25" style="4" customWidth="1"/>
+    <col min="12038" max="12038" width="33.5" style="4" customWidth="1"/>
+    <col min="12039" max="12039" width="68.375" style="4" customWidth="1"/>
+    <col min="12040" max="12290" width="9" style="4"/>
+    <col min="12291" max="12291" width="4" style="4" customWidth="1"/>
+    <col min="12292" max="12292" width="4.875" style="4" customWidth="1"/>
+    <col min="12293" max="12293" width="8.25" style="4" customWidth="1"/>
+    <col min="12294" max="12294" width="33.5" style="4" customWidth="1"/>
+    <col min="12295" max="12295" width="68.375" style="4" customWidth="1"/>
+    <col min="12296" max="12546" width="9" style="4"/>
+    <col min="12547" max="12547" width="4" style="4" customWidth="1"/>
+    <col min="12548" max="12548" width="4.875" style="4" customWidth="1"/>
+    <col min="12549" max="12549" width="8.25" style="4" customWidth="1"/>
+    <col min="12550" max="12550" width="33.5" style="4" customWidth="1"/>
+    <col min="12551" max="12551" width="68.375" style="4" customWidth="1"/>
+    <col min="12552" max="12802" width="9" style="4"/>
+    <col min="12803" max="12803" width="4" style="4" customWidth="1"/>
+    <col min="12804" max="12804" width="4.875" style="4" customWidth="1"/>
+    <col min="12805" max="12805" width="8.25" style="4" customWidth="1"/>
+    <col min="12806" max="12806" width="33.5" style="4" customWidth="1"/>
+    <col min="12807" max="12807" width="68.375" style="4" customWidth="1"/>
+    <col min="12808" max="13058" width="9" style="4"/>
+    <col min="13059" max="13059" width="4" style="4" customWidth="1"/>
+    <col min="13060" max="13060" width="4.875" style="4" customWidth="1"/>
+    <col min="13061" max="13061" width="8.25" style="4" customWidth="1"/>
+    <col min="13062" max="13062" width="33.5" style="4" customWidth="1"/>
+    <col min="13063" max="13063" width="68.375" style="4" customWidth="1"/>
+    <col min="13064" max="13314" width="9" style="4"/>
+    <col min="13315" max="13315" width="4" style="4" customWidth="1"/>
+    <col min="13316" max="13316" width="4.875" style="4" customWidth="1"/>
+    <col min="13317" max="13317" width="8.25" style="4" customWidth="1"/>
+    <col min="13318" max="13318" width="33.5" style="4" customWidth="1"/>
+    <col min="13319" max="13319" width="68.375" style="4" customWidth="1"/>
+    <col min="13320" max="13570" width="9" style="4"/>
+    <col min="13571" max="13571" width="4" style="4" customWidth="1"/>
+    <col min="13572" max="13572" width="4.875" style="4" customWidth="1"/>
+    <col min="13573" max="13573" width="8.25" style="4" customWidth="1"/>
+    <col min="13574" max="13574" width="33.5" style="4" customWidth="1"/>
+    <col min="13575" max="13575" width="68.375" style="4" customWidth="1"/>
+    <col min="13576" max="13826" width="9" style="4"/>
+    <col min="13827" max="13827" width="4" style="4" customWidth="1"/>
+    <col min="13828" max="13828" width="4.875" style="4" customWidth="1"/>
+    <col min="13829" max="13829" width="8.25" style="4" customWidth="1"/>
+    <col min="13830" max="13830" width="33.5" style="4" customWidth="1"/>
+    <col min="13831" max="13831" width="68.375" style="4" customWidth="1"/>
+    <col min="13832" max="14082" width="9" style="4"/>
+    <col min="14083" max="14083" width="4" style="4" customWidth="1"/>
+    <col min="14084" max="14084" width="4.875" style="4" customWidth="1"/>
+    <col min="14085" max="14085" width="8.25" style="4" customWidth="1"/>
+    <col min="14086" max="14086" width="33.5" style="4" customWidth="1"/>
+    <col min="14087" max="14087" width="68.375" style="4" customWidth="1"/>
+    <col min="14088" max="14338" width="9" style="4"/>
+    <col min="14339" max="14339" width="4" style="4" customWidth="1"/>
+    <col min="14340" max="14340" width="4.875" style="4" customWidth="1"/>
+    <col min="14341" max="14341" width="8.25" style="4" customWidth="1"/>
+    <col min="14342" max="14342" width="33.5" style="4" customWidth="1"/>
+    <col min="14343" max="14343" width="68.375" style="4" customWidth="1"/>
+    <col min="14344" max="14594" width="9" style="4"/>
+    <col min="14595" max="14595" width="4" style="4" customWidth="1"/>
+    <col min="14596" max="14596" width="4.875" style="4" customWidth="1"/>
+    <col min="14597" max="14597" width="8.25" style="4" customWidth="1"/>
+    <col min="14598" max="14598" width="33.5" style="4" customWidth="1"/>
+    <col min="14599" max="14599" width="68.375" style="4" customWidth="1"/>
+    <col min="14600" max="14850" width="9" style="4"/>
+    <col min="14851" max="14851" width="4" style="4" customWidth="1"/>
+    <col min="14852" max="14852" width="4.875" style="4" customWidth="1"/>
+    <col min="14853" max="14853" width="8.25" style="4" customWidth="1"/>
+    <col min="14854" max="14854" width="33.5" style="4" customWidth="1"/>
+    <col min="14855" max="14855" width="68.375" style="4" customWidth="1"/>
+    <col min="14856" max="15106" width="9" style="4"/>
+    <col min="15107" max="15107" width="4" style="4" customWidth="1"/>
+    <col min="15108" max="15108" width="4.875" style="4" customWidth="1"/>
+    <col min="15109" max="15109" width="8.25" style="4" customWidth="1"/>
+    <col min="15110" max="15110" width="33.5" style="4" customWidth="1"/>
+    <col min="15111" max="15111" width="68.375" style="4" customWidth="1"/>
+    <col min="15112" max="15362" width="9" style="4"/>
+    <col min="15363" max="15363" width="4" style="4" customWidth="1"/>
+    <col min="15364" max="15364" width="4.875" style="4" customWidth="1"/>
+    <col min="15365" max="15365" width="8.25" style="4" customWidth="1"/>
+    <col min="15366" max="15366" width="33.5" style="4" customWidth="1"/>
+    <col min="15367" max="15367" width="68.375" style="4" customWidth="1"/>
+    <col min="15368" max="15618" width="9" style="4"/>
+    <col min="15619" max="15619" width="4" style="4" customWidth="1"/>
+    <col min="15620" max="15620" width="4.875" style="4" customWidth="1"/>
+    <col min="15621" max="15621" width="8.25" style="4" customWidth="1"/>
+    <col min="15622" max="15622" width="33.5" style="4" customWidth="1"/>
+    <col min="15623" max="15623" width="68.375" style="4" customWidth="1"/>
+    <col min="15624" max="15874" width="9" style="4"/>
+    <col min="15875" max="15875" width="4" style="4" customWidth="1"/>
+    <col min="15876" max="15876" width="4.875" style="4" customWidth="1"/>
+    <col min="15877" max="15877" width="8.25" style="4" customWidth="1"/>
+    <col min="15878" max="15878" width="33.5" style="4" customWidth="1"/>
+    <col min="15879" max="15879" width="68.375" style="4" customWidth="1"/>
+    <col min="15880" max="16130" width="9" style="4"/>
+    <col min="16131" max="16131" width="4" style="4" customWidth="1"/>
+    <col min="16132" max="16132" width="4.875" style="4" customWidth="1"/>
+    <col min="16133" max="16133" width="8.25" style="4" customWidth="1"/>
+    <col min="16134" max="16134" width="33.5" style="4" customWidth="1"/>
+    <col min="16135" max="16135" width="68.375" style="4" customWidth="1"/>
+    <col min="16136" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>7</v>
@@ -22471,31 +22811,34 @@
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
     </row>
-    <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="B2" s="3"/>
       <c r="C2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F2" s="172"/>
+    </row>
+    <row r="3" spans="1:6" ht="14.25">
       <c r="B3" s="3"/>
       <c r="C3" s="5" t="s">
         <v>9</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
-    </row>
-    <row r="4" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F3" s="172"/>
+    </row>
+    <row r="4" spans="1:6" ht="14.25">
       <c r="B4" s="3"/>
       <c r="C4" s="5" t="s">
         <v>10</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
-    </row>
-    <row r="5" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F4" s="172"/>
+    </row>
+    <row r="5" spans="1:6" ht="14.25">
       <c r="B5" s="3"/>
       <c r="C5" s="5" t="s">
         <v>11</v>
@@ -22504,16 +22847,18 @@
       <c r="E5" s="6" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F5" s="173"/>
+    </row>
+    <row r="6" spans="1:6" ht="14.25">
       <c r="B6" s="3"/>
       <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-    </row>
-    <row r="7" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F6" s="172"/>
+    </row>
+    <row r="7" spans="1:6" ht="14.25">
       <c r="B7" s="3"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5" t="s">
@@ -22522,8 +22867,9 @@
       <c r="E7" s="5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F7" s="172"/>
+    </row>
+    <row r="8" spans="1:6" ht="14.25">
       <c r="B8" s="3"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5" t="s">
@@ -22532,8 +22878,9 @@
       <c r="E8" s="5" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F8" s="172"/>
+    </row>
+    <row r="9" spans="1:6" ht="14.25">
       <c r="B9" s="3"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5" t="s">
@@ -22542,8 +22889,9 @@
       <c r="E9" s="5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F9" s="172"/>
+    </row>
+    <row r="10" spans="1:6" ht="14.25">
       <c r="B10" s="3"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5" t="s">
@@ -22552,8 +22900,9 @@
       <c r="E10" s="5" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F10" s="172"/>
+    </row>
+    <row r="11" spans="1:6" ht="14.25">
       <c r="B11" s="3"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5" t="s">
@@ -22562,27 +22911,28 @@
       <c r="E11" s="5" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F11" s="172"/>
+    </row>
+    <row r="12" spans="1:6" ht="14.25">
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
-    <row r="13" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="B13" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
-    <row r="14" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="B14" s="3"/>
       <c r="C14" s="5" t="s">
         <v>24</v>
       </c>
       <c r="D14" s="5"/>
     </row>
-    <row r="15" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="B15" s="3"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5" t="s">
@@ -22591,8 +22941,9 @@
       <c r="E15" s="5" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F15" s="172"/>
+    </row>
+    <row r="16" spans="1:6" ht="14.25">
       <c r="B16" s="3"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5" t="s">
@@ -22601,8 +22952,9 @@
       <c r="E16" s="5" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F16" s="172"/>
+    </row>
+    <row r="17" spans="2:6" ht="14.25">
       <c r="B17" s="3"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5" t="s">
@@ -22611,38 +22963,41 @@
       <c r="E17" s="5" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="18" spans="2:5" ht="28.5" x14ac:dyDescent="0.15">
+      <c r="F17" s="172"/>
+    </row>
+    <row r="18" spans="2:6" ht="28.5">
       <c r="B18" s="3"/>
       <c r="C18" s="5"/>
       <c r="D18" s="6" t="s">
         <v>31</v>
       </c>
       <c r="E18" s="5"/>
-    </row>
-    <row r="19" spans="2:5" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="F18" s="172"/>
+    </row>
+    <row r="19" spans="2:6" ht="24.75" customHeight="1">
       <c r="B19" s="3"/>
-      <c r="C19" s="170" t="s">
+      <c r="C19" s="191" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="171"/>
+      <c r="D19" s="192"/>
       <c r="E19" s="5" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="20" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="F19" s="172"/>
+    </row>
+    <row r="20" spans="2:6" ht="14.25">
       <c r="B20" s="3"/>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:6" ht="14.25">
       <c r="B21" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:6" ht="14.25">
       <c r="B22" s="3"/>
       <c r="C22" s="5" t="s">
         <v>35</v>
@@ -22652,26 +23007,26 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:6" ht="14.25">
       <c r="B23" s="3"/>
       <c r="C23" s="5" t="s">
         <v>37</v>
       </c>
       <c r="D23" s="5"/>
     </row>
-    <row r="24" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:6" ht="14.25">
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
-    <row r="25" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:6" ht="14.25">
       <c r="B25" s="3" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
-    <row r="26" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:6" ht="14.25">
       <c r="B26" s="3"/>
       <c r="C26" s="5" t="s">
         <v>39</v>
@@ -22681,37 +23036,523 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:6" ht="14.25">
       <c r="B27" s="3"/>
       <c r="C27" s="5" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="5"/>
     </row>
-    <row r="28" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:6" ht="14.25">
       <c r="B28" s="3"/>
       <c r="C28" s="5" t="s">
         <v>42</v>
       </c>
       <c r="D28" s="5"/>
     </row>
-    <row r="29" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:6" ht="14.25">
       <c r="B29" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="2:5" ht="14.25" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:6" ht="14.25">
       <c r="B30" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
+    <row r="33" spans="7:12" ht="49.5">
+      <c r="G33" s="178" t="s">
+        <v>411</v>
+      </c>
+      <c r="H33" s="179" t="s">
+        <v>409</v>
+      </c>
+      <c r="I33" s="180" t="s">
+        <v>435</v>
+      </c>
+      <c r="J33" s="181" t="s">
+        <v>422</v>
+      </c>
+      <c r="K33" s="181" t="s">
+        <v>420</v>
+      </c>
+      <c r="L33" s="181" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="34" spans="7:12" ht="16.5">
+      <c r="G34" s="193" t="s">
+        <v>395</v>
+      </c>
+      <c r="H34" s="174" t="s">
+        <v>392</v>
+      </c>
+      <c r="I34" s="175">
+        <v>1</v>
+      </c>
+      <c r="J34" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K34" s="175"/>
+      <c r="L34" s="175"/>
+    </row>
+    <row r="35" spans="7:12" ht="16.5">
+      <c r="G35" s="194"/>
+      <c r="H35" s="174" t="s">
+        <v>393</v>
+      </c>
+      <c r="I35" s="175">
+        <v>2</v>
+      </c>
+      <c r="J35" s="176"/>
+      <c r="K35" s="175"/>
+      <c r="L35" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="36" spans="7:12" ht="16.5">
+      <c r="G36" s="193" t="s">
+        <v>396</v>
+      </c>
+      <c r="H36" s="174" t="s">
+        <v>400</v>
+      </c>
+      <c r="I36" s="175">
+        <v>3</v>
+      </c>
+      <c r="J36" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K36" s="175"/>
+      <c r="L36" s="175"/>
+    </row>
+    <row r="37" spans="7:12" ht="16.5">
+      <c r="G37" s="194"/>
+      <c r="H37" s="174" t="s">
+        <v>401</v>
+      </c>
+      <c r="I37" s="175">
+        <v>4</v>
+      </c>
+      <c r="J37" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K37" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L37" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="38" spans="7:12" ht="16.5">
+      <c r="G38" s="193" t="s">
+        <v>415</v>
+      </c>
+      <c r="H38" s="174" t="s">
+        <v>402</v>
+      </c>
+      <c r="I38" s="175">
+        <v>5</v>
+      </c>
+      <c r="J38" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K38" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L38" s="175"/>
+    </row>
+    <row r="39" spans="7:12" ht="16.5">
+      <c r="G39" s="194"/>
+      <c r="H39" s="174" t="s">
+        <v>403</v>
+      </c>
+      <c r="I39" s="175">
+        <v>6</v>
+      </c>
+      <c r="J39" s="175"/>
+      <c r="K39" s="175"/>
+      <c r="L39" s="175"/>
+    </row>
+    <row r="40" spans="7:12" ht="16.5">
+      <c r="G40" s="193" t="s">
+        <v>416</v>
+      </c>
+      <c r="H40" s="174" t="s">
+        <v>404</v>
+      </c>
+      <c r="I40" s="175">
+        <v>7</v>
+      </c>
+      <c r="J40" s="175"/>
+      <c r="K40" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L40" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="41" spans="7:12" ht="16.5">
+      <c r="G41" s="195"/>
+      <c r="H41" s="174" t="s">
+        <v>405</v>
+      </c>
+      <c r="I41" s="175">
+        <v>8</v>
+      </c>
+      <c r="J41" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K41" s="175"/>
+      <c r="L41" s="175"/>
+    </row>
+    <row r="42" spans="7:12" ht="16.5">
+      <c r="G42" s="195"/>
+      <c r="H42" s="174" t="s">
+        <v>406</v>
+      </c>
+      <c r="I42" s="175">
+        <v>9</v>
+      </c>
+      <c r="J42" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K42" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L42" s="175"/>
+    </row>
+    <row r="43" spans="7:12" ht="16.5">
+      <c r="G43" s="194"/>
+      <c r="H43" s="174" t="s">
+        <v>407</v>
+      </c>
+      <c r="I43" s="175">
+        <v>10</v>
+      </c>
+      <c r="J43" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K43" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L43" s="175"/>
+    </row>
+    <row r="44" spans="7:12" ht="16.5">
+      <c r="G44" s="189" t="s">
+        <v>417</v>
+      </c>
+      <c r="H44" s="174" t="s">
+        <v>408</v>
+      </c>
+      <c r="I44" s="175">
+        <v>11</v>
+      </c>
+      <c r="J44" s="175"/>
+      <c r="K44" s="175"/>
+      <c r="L44" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="45" spans="7:12" ht="16.5">
+      <c r="G45" s="190"/>
+      <c r="H45" s="174" t="s">
+        <v>436</v>
+      </c>
+      <c r="I45" s="175">
+        <v>12</v>
+      </c>
+      <c r="J45" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K45" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L45" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="46" spans="7:12" ht="16.5">
+      <c r="I46" s="170"/>
+      <c r="J46" s="175">
+        <f>COUNTIF(J34:J45,"○")</f>
+        <v>8</v>
+      </c>
+      <c r="K46" s="175">
+        <f t="shared" ref="K46:L46" si="0">COUNTIF(K34:K45,"○")</f>
+        <v>6</v>
+      </c>
+      <c r="L46" s="175">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47" spans="7:12" ht="6" customHeight="1">
+      <c r="I47" s="170"/>
+    </row>
+    <row r="48" spans="7:12" ht="6" customHeight="1">
+      <c r="I48" s="170"/>
+    </row>
+    <row r="49" spans="7:12" ht="47.25">
+      <c r="G49" s="185" t="s">
+        <v>419</v>
+      </c>
+      <c r="H49" s="186"/>
+      <c r="I49" s="182" t="s">
+        <v>435</v>
+      </c>
+      <c r="J49" s="183" t="s">
+        <v>425</v>
+      </c>
+      <c r="K49" s="184" t="s">
+        <v>424</v>
+      </c>
+      <c r="L49" s="184" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="50" spans="7:12" ht="16.5">
+      <c r="G50" s="171" t="s">
+        <v>410</v>
+      </c>
+      <c r="H50" s="171" t="s">
+        <v>409</v>
+      </c>
+      <c r="I50" s="175"/>
+      <c r="J50" s="175">
+        <f>COUNTIF(J51:J62,"○")</f>
+        <v>8</v>
+      </c>
+      <c r="K50" s="175">
+        <f t="shared" ref="K50" si="1">COUNTIF(K51:K62,"○")</f>
+        <v>6</v>
+      </c>
+      <c r="L50" s="175">
+        <f t="shared" ref="L50" si="2">COUNTIF(L51:L62,"○")</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="7:12" ht="16.5">
+      <c r="G51" s="187" t="s">
+        <v>398</v>
+      </c>
+      <c r="H51" s="171" t="s">
+        <v>426</v>
+      </c>
+      <c r="I51" s="175">
+        <v>1</v>
+      </c>
+      <c r="J51" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K51" s="175"/>
+      <c r="L51" s="175"/>
+    </row>
+    <row r="52" spans="7:12" ht="16.5">
+      <c r="G52" s="188"/>
+      <c r="H52" s="171" t="s">
+        <v>394</v>
+      </c>
+      <c r="I52" s="175">
+        <v>2</v>
+      </c>
+      <c r="J52" s="176"/>
+      <c r="K52" s="175"/>
+      <c r="L52" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="53" spans="7:12" ht="16.5">
+      <c r="G53" s="171" t="s">
+        <v>397</v>
+      </c>
+      <c r="H53" s="171" t="s">
+        <v>399</v>
+      </c>
+      <c r="I53" s="175">
+        <v>3</v>
+      </c>
+      <c r="J53" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K53" s="175"/>
+      <c r="L53" s="175"/>
+    </row>
+    <row r="54" spans="7:12" ht="16.5">
+      <c r="G54" s="171"/>
+      <c r="H54" s="171" t="s">
+        <v>427</v>
+      </c>
+      <c r="I54" s="175">
+        <v>4</v>
+      </c>
+      <c r="J54" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K54" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L54" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="55" spans="7:12" ht="16.5">
+      <c r="G55" s="171" t="s">
+        <v>412</v>
+      </c>
+      <c r="H55" s="171" t="s">
+        <v>428</v>
+      </c>
+      <c r="I55" s="175">
+        <v>5</v>
+      </c>
+      <c r="J55" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K55" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L55" s="175"/>
+    </row>
+    <row r="56" spans="7:12" ht="16.5">
+      <c r="G56" s="171"/>
+      <c r="H56" s="171" t="s">
+        <v>429</v>
+      </c>
+      <c r="I56" s="175">
+        <v>6</v>
+      </c>
+      <c r="J56" s="175"/>
+      <c r="K56" s="175"/>
+      <c r="L56" s="175"/>
+    </row>
+    <row r="57" spans="7:12" ht="16.5">
+      <c r="G57" s="171" t="s">
+        <v>413</v>
+      </c>
+      <c r="H57" s="171" t="s">
+        <v>430</v>
+      </c>
+      <c r="I57" s="175">
+        <v>7</v>
+      </c>
+      <c r="J57" s="175"/>
+      <c r="K57" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="58" spans="7:12" ht="16.5">
+      <c r="G58" s="171"/>
+      <c r="H58" s="171" t="s">
+        <v>431</v>
+      </c>
+      <c r="I58" s="175">
+        <v>8</v>
+      </c>
+      <c r="J58" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K58" s="175"/>
+      <c r="L58" s="175"/>
+    </row>
+    <row r="59" spans="7:12" ht="16.5">
+      <c r="G59" s="171"/>
+      <c r="H59" s="171" t="s">
+        <v>432</v>
+      </c>
+      <c r="I59" s="175">
+        <v>9</v>
+      </c>
+      <c r="J59" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K59" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L59" s="175"/>
+    </row>
+    <row r="60" spans="7:12" ht="16.5">
+      <c r="G60" s="171"/>
+      <c r="H60" s="171" t="s">
+        <v>433</v>
+      </c>
+      <c r="I60" s="175">
+        <v>10</v>
+      </c>
+      <c r="J60" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K60" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" s="175"/>
+    </row>
+    <row r="61" spans="7:12" ht="16.5">
+      <c r="G61" s="171" t="s">
+        <v>414</v>
+      </c>
+      <c r="H61" s="171" t="s">
+        <v>434</v>
+      </c>
+      <c r="I61" s="175">
+        <v>11</v>
+      </c>
+      <c r="J61" s="175"/>
+      <c r="K61" s="175"/>
+      <c r="L61" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="62" spans="7:12" ht="16.5">
+      <c r="G62" s="171"/>
+      <c r="H62" s="171" t="s">
+        <v>437</v>
+      </c>
+      <c r="I62" s="175">
+        <v>12</v>
+      </c>
+      <c r="J62" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="K62" s="175" t="s">
+        <v>418</v>
+      </c>
+      <c r="L62" s="175" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="63" spans="7:12" ht="16.5">
+      <c r="I63" s="177"/>
+      <c r="J63" s="175">
+        <f>COUNTIF(J51:J62,"○")</f>
+        <v>8</v>
+      </c>
+      <c r="K63" s="175">
+        <f t="shared" ref="K63" si="3">COUNTIF(K51:K62,"○")</f>
+        <v>6</v>
+      </c>
+      <c r="L63" s="175">
+        <f t="shared" ref="L63" si="4">COUNTIF(L51:L62,"○")</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="8">
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G44:G45"/>
     <mergeCell ref="C19:D19"/>
+    <mergeCell ref="G34:G35"/>
+    <mergeCell ref="G36:G37"/>
+    <mergeCell ref="G38:G39"/>
+    <mergeCell ref="G40:G43"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
@@ -22728,7 +23569,7 @@
       <selection activeCell="B10" sqref="B10:B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="1" max="1" width="4.5" style="53" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="53" customWidth="1"/>
@@ -23372,7 +24213,7 @@
     <col min="16140" max="16384" width="9" style="53"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:17">
       <c r="D2" s="54"/>
       <c r="E2" s="54"/>
       <c r="F2" s="54"/>
@@ -23388,7 +24229,7 @@
       <c r="P2" s="54"/>
       <c r="Q2" s="54"/>
     </row>
-    <row r="3" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:17">
       <c r="D3" s="54"/>
       <c r="E3" s="54"/>
       <c r="F3" s="54"/>
@@ -23404,7 +24245,7 @@
       <c r="P3" s="54"/>
       <c r="Q3" s="54"/>
     </row>
-    <row r="4" spans="2:17" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:17" ht="19.5">
       <c r="B4" s="54" t="s">
         <v>65</v>
       </c>
@@ -23417,13 +24258,13 @@
       <c r="E4" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="196" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="173"/>
-      <c r="H4" s="173"/>
-      <c r="I4" s="173"/>
-      <c r="J4" s="174"/>
+      <c r="G4" s="197"/>
+      <c r="H4" s="197"/>
+      <c r="I4" s="197"/>
+      <c r="J4" s="198"/>
       <c r="K4" s="54"/>
       <c r="M4" s="54"/>
       <c r="N4" s="54"/>
@@ -23431,7 +24272,7 @@
       <c r="P4" s="54"/>
       <c r="Q4" s="54"/>
     </row>
-    <row r="5" spans="2:17" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:17" ht="19.5">
       <c r="B5" s="54"/>
       <c r="D5" s="54"/>
       <c r="E5" s="57"/>
@@ -23448,7 +24289,7 @@
       <c r="P5" s="54"/>
       <c r="Q5" s="54"/>
     </row>
-    <row r="6" spans="2:17" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:17" ht="19.5">
       <c r="B6" s="54"/>
       <c r="C6" s="58"/>
       <c r="D6" s="59" t="s">
@@ -23463,10 +24304,10 @@
       <c r="G6" s="62" t="s">
         <v>73</v>
       </c>
-      <c r="H6" s="175" t="s">
+      <c r="H6" s="199" t="s">
         <v>85</v>
       </c>
-      <c r="I6" s="175"/>
+      <c r="I6" s="199"/>
       <c r="J6" s="63" t="s">
         <v>75</v>
       </c>
@@ -23478,7 +24319,7 @@
       <c r="P6" s="54"/>
       <c r="Q6" s="54"/>
     </row>
-    <row r="7" spans="2:17" ht="33" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:17" ht="33">
       <c r="B7" s="54" t="s">
         <v>76</v>
       </c>
@@ -23502,7 +24343,7 @@
       <c r="P7" s="54"/>
       <c r="Q7" s="54"/>
     </row>
-    <row r="8" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:17">
       <c r="B8" s="54" t="s">
         <v>79</v>
       </c>
@@ -23522,7 +24363,7 @@
       <c r="P8" s="54"/>
       <c r="Q8" s="54"/>
     </row>
-    <row r="9" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:17">
       <c r="B9" s="54"/>
       <c r="C9" s="64"/>
       <c r="D9" s="65"/>
@@ -23540,8 +24381,8 @@
       <c r="P9" s="54"/>
       <c r="Q9" s="54"/>
     </row>
-    <row r="10" spans="2:17" ht="212.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B10" s="176" t="s">
+    <row r="10" spans="2:17" ht="212.25" customHeight="1">
+      <c r="B10" s="200" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="72"/>
@@ -23560,8 +24401,8 @@
       <c r="P10" s="54"/>
       <c r="Q10" s="54"/>
     </row>
-    <row r="11" spans="2:17" ht="150" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B11" s="177"/>
+    <row r="11" spans="2:17" ht="150" customHeight="1">
+      <c r="B11" s="201"/>
       <c r="C11" s="79"/>
       <c r="D11" s="80"/>
       <c r="E11" s="66"/>
@@ -23578,8 +24419,8 @@
       <c r="P11" s="54"/>
       <c r="Q11" s="54"/>
     </row>
-    <row r="12" spans="2:17" ht="95.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B12" s="178"/>
+    <row r="12" spans="2:17" ht="95.25" customHeight="1">
+      <c r="B12" s="202"/>
       <c r="C12" s="82"/>
       <c r="D12" s="83"/>
       <c r="E12" s="84"/>
@@ -23596,8 +24437,8 @@
       <c r="P12" s="54"/>
       <c r="Q12" s="54"/>
     </row>
-    <row r="13" spans="2:17" ht="216" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B13" s="176" t="s">
+    <row r="13" spans="2:17" ht="216" customHeight="1">
+      <c r="B13" s="200" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="72"/>
@@ -23616,8 +24457,8 @@
       <c r="P13" s="54"/>
       <c r="Q13" s="54"/>
     </row>
-    <row r="14" spans="2:17" ht="171.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="177"/>
+    <row r="14" spans="2:17" ht="171.75" customHeight="1">
+      <c r="B14" s="201"/>
       <c r="C14" s="79"/>
       <c r="D14" s="80"/>
       <c r="E14" s="66"/>
@@ -23634,8 +24475,8 @@
       <c r="P14" s="54"/>
       <c r="Q14" s="54"/>
     </row>
-    <row r="15" spans="2:17" ht="154.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B15" s="177"/>
+    <row r="15" spans="2:17" ht="154.5" customHeight="1">
+      <c r="B15" s="201"/>
       <c r="C15" s="79"/>
       <c r="D15" s="80"/>
       <c r="E15" s="66"/>
@@ -23652,8 +24493,8 @@
       <c r="P15" s="54"/>
       <c r="Q15" s="54"/>
     </row>
-    <row r="16" spans="2:17" ht="106.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B16" s="178"/>
+    <row r="16" spans="2:17" ht="106.5" customHeight="1">
+      <c r="B16" s="202"/>
       <c r="C16" s="82"/>
       <c r="D16" s="83"/>
       <c r="E16" s="84"/>
@@ -23670,7 +24511,7 @@
       <c r="P16" s="54"/>
       <c r="Q16" s="54"/>
     </row>
-    <row r="17" spans="2:17" ht="105" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:17" ht="105" customHeight="1">
       <c r="B17" s="54"/>
       <c r="C17" s="64"/>
       <c r="D17" s="65"/>
@@ -23688,7 +24529,7 @@
       <c r="P17" s="54"/>
       <c r="Q17" s="54"/>
     </row>
-    <row r="18" spans="2:17" ht="141" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="2:17" ht="141" customHeight="1">
       <c r="B18" s="54" t="s">
         <v>82</v>
       </c>
@@ -23708,7 +24549,7 @@
       <c r="P18" s="54"/>
       <c r="Q18" s="54"/>
     </row>
-    <row r="19" spans="2:17" ht="144" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="2:17" ht="144" customHeight="1">
       <c r="B19" s="54" t="s">
         <v>83</v>
       </c>
@@ -23728,7 +24569,7 @@
       <c r="P19" s="54"/>
       <c r="Q19" s="54"/>
     </row>
-    <row r="20" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="20" spans="2:17">
       <c r="B20" s="54"/>
       <c r="D20" s="54"/>
       <c r="E20" s="54"/>
@@ -23745,7 +24586,7 @@
       <c r="P20" s="54"/>
       <c r="Q20" s="54"/>
     </row>
-    <row r="21" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:17">
       <c r="B21" s="54"/>
       <c r="D21" s="54"/>
       <c r="E21" s="54"/>
@@ -23762,7 +24603,7 @@
       <c r="P21" s="54"/>
       <c r="Q21" s="54"/>
     </row>
-    <row r="22" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="22" spans="2:17">
       <c r="B22" s="54"/>
       <c r="D22" s="54"/>
       <c r="E22" s="54"/>
@@ -23779,7 +24620,7 @@
       <c r="P22" s="54"/>
       <c r="Q22" s="54"/>
     </row>
-    <row r="23" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:17">
       <c r="B23" s="54"/>
       <c r="D23" s="54"/>
       <c r="E23" s="54"/>
@@ -23796,7 +24637,7 @@
       <c r="P23" s="54"/>
       <c r="Q23" s="54"/>
     </row>
-    <row r="24" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="24" spans="2:17">
       <c r="B24" s="54"/>
       <c r="D24" s="54"/>
       <c r="E24" s="54"/>
@@ -23813,7 +24654,7 @@
       <c r="P24" s="54"/>
       <c r="Q24" s="54"/>
     </row>
-    <row r="25" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="25" spans="2:17">
       <c r="B25" s="54"/>
       <c r="D25" s="54"/>
       <c r="E25" s="54"/>
@@ -23830,7 +24671,7 @@
       <c r="P25" s="54"/>
       <c r="Q25" s="54"/>
     </row>
-    <row r="26" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:17">
       <c r="B26" s="54"/>
       <c r="D26" s="54"/>
       <c r="E26" s="54"/>
@@ -23847,7 +24688,7 @@
       <c r="P26" s="54"/>
       <c r="Q26" s="54"/>
     </row>
-    <row r="27" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:17">
       <c r="B27" s="54"/>
       <c r="D27" s="54"/>
       <c r="E27" s="54"/>
@@ -23864,7 +24705,7 @@
       <c r="P27" s="54"/>
       <c r="Q27" s="54"/>
     </row>
-    <row r="28" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:17">
       <c r="B28" s="54"/>
       <c r="D28" s="54"/>
       <c r="E28" s="54"/>
@@ -23881,7 +24722,7 @@
       <c r="P28" s="54"/>
       <c r="Q28" s="54"/>
     </row>
-    <row r="29" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:17">
       <c r="B29" s="54"/>
       <c r="D29" s="54"/>
       <c r="E29" s="54"/>
@@ -23898,7 +24739,7 @@
       <c r="P29" s="54"/>
       <c r="Q29" s="54"/>
     </row>
-    <row r="30" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="30" spans="2:17">
       <c r="D30" s="54"/>
       <c r="E30" s="54"/>
       <c r="F30" s="54"/>
@@ -23914,7 +24755,7 @@
       <c r="P30" s="54"/>
       <c r="Q30" s="54"/>
     </row>
-    <row r="31" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:17">
       <c r="D31" s="54"/>
       <c r="E31" s="54"/>
       <c r="F31" s="54"/>
@@ -23930,7 +24771,7 @@
       <c r="P31" s="54"/>
       <c r="Q31" s="54"/>
     </row>
-    <row r="32" spans="2:17" x14ac:dyDescent="0.4">
+    <row r="32" spans="2:17">
       <c r="D32" s="54"/>
       <c r="E32" s="54"/>
       <c r="F32" s="54"/>
@@ -23946,7 +24787,7 @@
       <c r="P32" s="54"/>
       <c r="Q32" s="54"/>
     </row>
-    <row r="33" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="33" spans="4:17">
       <c r="D33" s="54"/>
       <c r="E33" s="54"/>
       <c r="F33" s="54"/>
@@ -23962,7 +24803,7 @@
       <c r="P33" s="54"/>
       <c r="Q33" s="54"/>
     </row>
-    <row r="34" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="34" spans="4:17">
       <c r="D34" s="54"/>
       <c r="E34" s="54"/>
       <c r="F34" s="54"/>
@@ -23978,7 +24819,7 @@
       <c r="P34" s="54"/>
       <c r="Q34" s="54"/>
     </row>
-    <row r="35" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="35" spans="4:17">
       <c r="D35" s="54"/>
       <c r="E35" s="54"/>
       <c r="F35" s="54"/>
@@ -23994,7 +24835,7 @@
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
     </row>
-    <row r="36" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="36" spans="4:17">
       <c r="D36" s="54"/>
       <c r="E36" s="54"/>
       <c r="F36" s="54"/>
@@ -24010,7 +24851,7 @@
       <c r="P36" s="54"/>
       <c r="Q36" s="54"/>
     </row>
-    <row r="37" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="37" spans="4:17">
       <c r="D37" s="54"/>
       <c r="E37" s="54"/>
       <c r="F37" s="54"/>
@@ -24026,7 +24867,7 @@
       <c r="P37" s="54"/>
       <c r="Q37" s="54"/>
     </row>
-    <row r="38" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="38" spans="4:17">
       <c r="D38" s="54"/>
       <c r="E38" s="54"/>
       <c r="F38" s="54"/>
@@ -24042,7 +24883,7 @@
       <c r="P38" s="54"/>
       <c r="Q38" s="54"/>
     </row>
-    <row r="39" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="39" spans="4:17">
       <c r="D39" s="54"/>
       <c r="E39" s="54"/>
       <c r="F39" s="54"/>
@@ -24058,7 +24899,7 @@
       <c r="P39" s="54"/>
       <c r="Q39" s="54"/>
     </row>
-    <row r="40" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="40" spans="4:17">
       <c r="D40" s="54"/>
       <c r="E40" s="54"/>
       <c r="F40" s="54"/>
@@ -24074,7 +24915,7 @@
       <c r="P40" s="54"/>
       <c r="Q40" s="54"/>
     </row>
-    <row r="41" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="41" spans="4:17">
       <c r="D41" s="54"/>
       <c r="E41" s="54"/>
       <c r="F41" s="54"/>
@@ -24090,7 +24931,7 @@
       <c r="P41" s="54"/>
       <c r="Q41" s="54"/>
     </row>
-    <row r="42" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="42" spans="4:17">
       <c r="D42" s="54"/>
       <c r="E42" s="54"/>
       <c r="F42" s="54"/>
@@ -24106,7 +24947,7 @@
       <c r="P42" s="54"/>
       <c r="Q42" s="54"/>
     </row>
-    <row r="43" spans="4:17" x14ac:dyDescent="0.4">
+    <row r="43" spans="4:17">
       <c r="D43" s="54"/>
       <c r="E43" s="54"/>
       <c r="F43" s="54"/>
@@ -24140,11 +24981,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:S43"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="4.5" style="21" customWidth="1"/>
     <col min="2" max="2" width="8.5" style="21" customWidth="1"/>
@@ -24724,7 +25565,7 @@
     <col min="16141" max="16384" width="9" style="21"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:19" ht="16.5">
       <c r="F2" s="22"/>
       <c r="G2" s="22"/>
       <c r="H2" s="22"/>
@@ -24740,7 +25581,7 @@
       <c r="R2" s="22"/>
       <c r="S2" s="22"/>
     </row>
-    <row r="3" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:19" ht="16.5">
       <c r="F3" s="22"/>
       <c r="G3" s="22"/>
       <c r="H3" s="22"/>
@@ -24756,7 +25597,7 @@
       <c r="R3" s="22"/>
       <c r="S3" s="22"/>
     </row>
-    <row r="4" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:19" ht="19.5">
       <c r="B4" s="22" t="s">
         <v>65</v>
       </c>
@@ -24775,13 +25616,13 @@
       <c r="G4" s="24" t="s">
         <v>68</v>
       </c>
-      <c r="H4" s="179" t="s">
+      <c r="H4" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="I4" s="180"/>
-      <c r="J4" s="180"/>
-      <c r="K4" s="180"/>
-      <c r="L4" s="181"/>
+      <c r="I4" s="204"/>
+      <c r="J4" s="204"/>
+      <c r="K4" s="204"/>
+      <c r="L4" s="205"/>
       <c r="M4" s="22"/>
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
@@ -24789,7 +25630,7 @@
       <c r="R4" s="22"/>
       <c r="S4" s="22"/>
     </row>
-    <row r="5" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:19" ht="19.5">
       <c r="B5" s="22"/>
       <c r="F5" s="22"/>
       <c r="G5" s="25"/>
@@ -24806,7 +25647,7 @@
       <c r="R5" s="22"/>
       <c r="S5" s="22"/>
     </row>
-    <row r="6" spans="2:19" ht="19.5" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:19" ht="19.5">
       <c r="B6" s="22"/>
       <c r="C6" s="26" t="s">
         <v>326</v>
@@ -24827,10 +25668,10 @@
       <c r="I6" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="J6" s="182" t="s">
+      <c r="J6" s="206" t="s">
         <v>74</v>
       </c>
-      <c r="K6" s="182"/>
+      <c r="K6" s="206"/>
       <c r="L6" s="30" t="s">
         <v>75</v>
       </c>
@@ -24842,7 +25683,7 @@
       <c r="R6" s="22"/>
       <c r="S6" s="22"/>
     </row>
-    <row r="7" spans="2:19" ht="33" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:19" ht="33">
       <c r="B7" s="22" t="s">
         <v>76</v>
       </c>
@@ -24868,7 +25709,7 @@
       <c r="R7" s="22"/>
       <c r="S7" s="22"/>
     </row>
-    <row r="8" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:19" ht="16.5">
       <c r="B8" s="22" t="s">
         <v>79</v>
       </c>
@@ -24890,7 +25731,7 @@
       <c r="R8" s="22"/>
       <c r="S8" s="22"/>
     </row>
-    <row r="9" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:19" ht="16.5">
       <c r="B9" s="22"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -24910,8 +25751,8 @@
       <c r="R9" s="22"/>
       <c r="S9" s="22"/>
     </row>
-    <row r="10" spans="2:19" ht="212.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="183" t="s">
+    <row r="10" spans="2:19" ht="212.25" customHeight="1">
+      <c r="B10" s="207" t="s">
         <v>80</v>
       </c>
       <c r="C10" s="38"/>
@@ -24932,8 +25773,8 @@
       <c r="R10" s="22"/>
       <c r="S10" s="22"/>
     </row>
-    <row r="11" spans="2:19" ht="150" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="184"/>
+    <row r="11" spans="2:19" ht="150" customHeight="1">
+      <c r="B11" s="208"/>
       <c r="C11" s="44"/>
       <c r="D11" s="44"/>
       <c r="E11" s="44"/>
@@ -24952,8 +25793,8 @@
       <c r="R11" s="22"/>
       <c r="S11" s="22"/>
     </row>
-    <row r="12" spans="2:19" ht="95.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B12" s="185"/>
+    <row r="12" spans="2:19" ht="95.25" customHeight="1">
+      <c r="B12" s="209"/>
       <c r="C12" s="47"/>
       <c r="D12" s="47"/>
       <c r="E12" s="47"/>
@@ -24972,8 +25813,8 @@
       <c r="R12" s="22"/>
       <c r="S12" s="22"/>
     </row>
-    <row r="13" spans="2:19" ht="216" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="183" t="s">
+    <row r="13" spans="2:19" ht="216" customHeight="1">
+      <c r="B13" s="207" t="s">
         <v>81</v>
       </c>
       <c r="C13" s="38"/>
@@ -24994,8 +25835,8 @@
       <c r="R13" s="22"/>
       <c r="S13" s="22"/>
     </row>
-    <row r="14" spans="2:19" ht="171.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="184"/>
+    <row r="14" spans="2:19" ht="171.75" customHeight="1">
+      <c r="B14" s="208"/>
       <c r="C14" s="44"/>
       <c r="D14" s="44"/>
       <c r="E14" s="44"/>
@@ -25014,8 +25855,8 @@
       <c r="R14" s="22"/>
       <c r="S14" s="22"/>
     </row>
-    <row r="15" spans="2:19" ht="154.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="184"/>
+    <row r="15" spans="2:19" ht="154.5" customHeight="1">
+      <c r="B15" s="208"/>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
       <c r="E15" s="44"/>
@@ -25034,8 +25875,8 @@
       <c r="R15" s="22"/>
       <c r="S15" s="22"/>
     </row>
-    <row r="16" spans="2:19" ht="106.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="185"/>
+    <row r="16" spans="2:19" ht="106.5" customHeight="1">
+      <c r="B16" s="209"/>
       <c r="C16" s="47"/>
       <c r="D16" s="47"/>
       <c r="E16" s="47"/>
@@ -25054,7 +25895,7 @@
       <c r="R16" s="22"/>
       <c r="S16" s="22"/>
     </row>
-    <row r="17" spans="2:19" ht="105" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:19" ht="105" customHeight="1">
       <c r="B17" s="22"/>
       <c r="C17" s="31"/>
       <c r="D17" s="31"/>
@@ -25074,7 +25915,7 @@
       <c r="R17" s="22"/>
       <c r="S17" s="22"/>
     </row>
-    <row r="18" spans="2:19" ht="141" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:19" ht="141" customHeight="1">
       <c r="B18" s="22" t="s">
         <v>82</v>
       </c>
@@ -25096,7 +25937,7 @@
       <c r="R18" s="22"/>
       <c r="S18" s="22"/>
     </row>
-    <row r="19" spans="2:19" ht="144" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:19" ht="144" customHeight="1">
       <c r="B19" s="22" t="s">
         <v>83</v>
       </c>
@@ -25118,7 +25959,7 @@
       <c r="R19" s="22"/>
       <c r="S19" s="22"/>
     </row>
-    <row r="20" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:19" ht="16.5">
       <c r="B20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
@@ -25135,7 +25976,7 @@
       <c r="R20" s="22"/>
       <c r="S20" s="22"/>
     </row>
-    <row r="21" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:19" ht="16.5">
       <c r="B21" s="22"/>
       <c r="F21" s="22"/>
       <c r="G21" s="22"/>
@@ -25152,7 +25993,7 @@
       <c r="R21" s="22"/>
       <c r="S21" s="22"/>
     </row>
-    <row r="22" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:19" ht="16.5">
       <c r="B22" s="22"/>
       <c r="F22" s="22"/>
       <c r="G22" s="22"/>
@@ -25169,7 +26010,7 @@
       <c r="R22" s="22"/>
       <c r="S22" s="22"/>
     </row>
-    <row r="23" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:19" ht="16.5">
       <c r="B23" s="22"/>
       <c r="F23" s="22"/>
       <c r="G23" s="22"/>
@@ -25186,7 +26027,7 @@
       <c r="R23" s="22"/>
       <c r="S23" s="22"/>
     </row>
-    <row r="24" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:19" ht="16.5">
       <c r="B24" s="22"/>
       <c r="F24" s="22"/>
       <c r="G24" s="22"/>
@@ -25203,7 +26044,7 @@
       <c r="R24" s="22"/>
       <c r="S24" s="22"/>
     </row>
-    <row r="25" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:19" ht="16.5">
       <c r="B25" s="22"/>
       <c r="F25" s="22"/>
       <c r="G25" s="22"/>
@@ -25220,7 +26061,7 @@
       <c r="R25" s="22"/>
       <c r="S25" s="22"/>
     </row>
-    <row r="26" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:19" ht="16.5">
       <c r="B26" s="22"/>
       <c r="F26" s="22"/>
       <c r="G26" s="22"/>
@@ -25237,7 +26078,7 @@
       <c r="R26" s="22"/>
       <c r="S26" s="22"/>
     </row>
-    <row r="27" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:19" ht="16.5">
       <c r="B27" s="22"/>
       <c r="F27" s="22"/>
       <c r="G27" s="22"/>
@@ -25254,7 +26095,7 @@
       <c r="R27" s="22"/>
       <c r="S27" s="22"/>
     </row>
-    <row r="28" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:19" ht="16.5">
       <c r="B28" s="22"/>
       <c r="F28" s="22"/>
       <c r="G28" s="22"/>
@@ -25271,7 +26112,7 @@
       <c r="R28" s="22"/>
       <c r="S28" s="22"/>
     </row>
-    <row r="29" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:19" ht="16.5">
       <c r="B29" s="22"/>
       <c r="F29" s="22"/>
       <c r="G29" s="22"/>
@@ -25288,7 +26129,7 @@
       <c r="R29" s="22"/>
       <c r="S29" s="22"/>
     </row>
-    <row r="30" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:19" ht="16.5">
       <c r="F30" s="22"/>
       <c r="G30" s="22"/>
       <c r="H30" s="22"/>
@@ -25304,7 +26145,7 @@
       <c r="R30" s="22"/>
       <c r="S30" s="22"/>
     </row>
-    <row r="31" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:19" ht="16.5">
       <c r="F31" s="22"/>
       <c r="G31" s="22"/>
       <c r="H31" s="22"/>
@@ -25320,7 +26161,7 @@
       <c r="R31" s="22"/>
       <c r="S31" s="22"/>
     </row>
-    <row r="32" spans="2:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:19" ht="16.5">
       <c r="F32" s="22"/>
       <c r="G32" s="22"/>
       <c r="H32" s="22"/>
@@ -25336,7 +26177,7 @@
       <c r="R32" s="22"/>
       <c r="S32" s="22"/>
     </row>
-    <row r="33" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="33" spans="6:19" ht="16.5">
       <c r="F33" s="22"/>
       <c r="G33" s="22"/>
       <c r="H33" s="22"/>
@@ -25352,7 +26193,7 @@
       <c r="R33" s="22"/>
       <c r="S33" s="22"/>
     </row>
-    <row r="34" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="34" spans="6:19" ht="16.5">
       <c r="F34" s="22"/>
       <c r="G34" s="22"/>
       <c r="H34" s="22"/>
@@ -25368,7 +26209,7 @@
       <c r="R34" s="22"/>
       <c r="S34" s="22"/>
     </row>
-    <row r="35" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="35" spans="6:19" ht="16.5">
       <c r="F35" s="22"/>
       <c r="G35" s="22"/>
       <c r="H35" s="22"/>
@@ -25384,7 +26225,7 @@
       <c r="R35" s="22"/>
       <c r="S35" s="22"/>
     </row>
-    <row r="36" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="36" spans="6:19" ht="16.5">
       <c r="F36" s="22"/>
       <c r="G36" s="22"/>
       <c r="H36" s="22"/>
@@ -25400,7 +26241,7 @@
       <c r="R36" s="22"/>
       <c r="S36" s="22"/>
     </row>
-    <row r="37" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="37" spans="6:19" ht="16.5">
       <c r="F37" s="22"/>
       <c r="G37" s="22"/>
       <c r="H37" s="22"/>
@@ -25416,7 +26257,7 @@
       <c r="R37" s="22"/>
       <c r="S37" s="22"/>
     </row>
-    <row r="38" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="38" spans="6:19" ht="16.5">
       <c r="F38" s="22"/>
       <c r="G38" s="22"/>
       <c r="H38" s="22"/>
@@ -25432,7 +26273,7 @@
       <c r="R38" s="22"/>
       <c r="S38" s="22"/>
     </row>
-    <row r="39" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="39" spans="6:19" ht="16.5">
       <c r="F39" s="22"/>
       <c r="G39" s="22"/>
       <c r="H39" s="22"/>
@@ -25448,7 +26289,7 @@
       <c r="R39" s="22"/>
       <c r="S39" s="22"/>
     </row>
-    <row r="40" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="40" spans="6:19" ht="16.5">
       <c r="F40" s="22"/>
       <c r="G40" s="22"/>
       <c r="H40" s="22"/>
@@ -25464,7 +26305,7 @@
       <c r="R40" s="22"/>
       <c r="S40" s="22"/>
     </row>
-    <row r="41" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="41" spans="6:19" ht="16.5">
       <c r="F41" s="22"/>
       <c r="G41" s="22"/>
       <c r="H41" s="22"/>
@@ -25480,7 +26321,7 @@
       <c r="R41" s="22"/>
       <c r="S41" s="22"/>
     </row>
-    <row r="42" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="42" spans="6:19" ht="16.5">
       <c r="F42" s="22"/>
       <c r="G42" s="22"/>
       <c r="H42" s="22"/>
@@ -25496,7 +26337,7 @@
       <c r="R42" s="22"/>
       <c r="S42" s="22"/>
     </row>
-    <row r="43" spans="6:19" ht="16.5" x14ac:dyDescent="0.15">
+    <row r="43" spans="6:19" ht="16.5">
       <c r="F43" s="22"/>
       <c r="G43" s="22"/>
       <c r="H43" s="22"/>
@@ -25531,11 +26372,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="9" style="20"/>
     <col min="2" max="2" width="35.75" style="20" customWidth="1"/>
@@ -26309,29 +27150,29 @@
     <col min="16142" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B1" s="186" t="s">
+    <row r="1" spans="1:13" ht="19.5">
+      <c r="B1" s="210" t="s">
         <v>337</v>
       </c>
-      <c r="C1" s="187"/>
-      <c r="D1" s="186" t="s">
+      <c r="C1" s="211"/>
+      <c r="D1" s="210" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="187"/>
-      <c r="F1" s="179" t="s">
+      <c r="E1" s="211"/>
+      <c r="F1" s="203" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="180"/>
-      <c r="H1" s="180"/>
-      <c r="I1" s="180"/>
-      <c r="J1" s="179" t="s">
+      <c r="G1" s="204"/>
+      <c r="H1" s="204"/>
+      <c r="I1" s="204"/>
+      <c r="J1" s="203" t="s">
         <v>322</v>
       </c>
-      <c r="K1" s="180"/>
-      <c r="L1" s="180"/>
-      <c r="M1" s="181"/>
-    </row>
-    <row r="2" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="K1" s="204"/>
+      <c r="L1" s="204"/>
+      <c r="M1" s="205"/>
+    </row>
+    <row r="2" spans="1:13" ht="19.5">
       <c r="D2" s="22"/>
       <c r="E2" s="25"/>
       <c r="F2" s="25"/>
@@ -26340,34 +27181,34 @@
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
-    <row r="3" spans="1:13" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="B3" s="186" t="s">
+    <row r="3" spans="1:13" ht="19.5">
+      <c r="B3" s="210" t="s">
         <v>338</v>
       </c>
-      <c r="C3" s="187"/>
-      <c r="D3" s="199" t="s">
+      <c r="C3" s="211"/>
+      <c r="D3" s="223" t="s">
         <v>320</v>
       </c>
-      <c r="E3" s="200"/>
-      <c r="F3" s="195" t="s">
+      <c r="E3" s="224"/>
+      <c r="F3" s="219" t="s">
         <v>72</v>
       </c>
-      <c r="G3" s="196"/>
-      <c r="H3" s="193" t="s">
+      <c r="G3" s="220"/>
+      <c r="H3" s="217" t="s">
         <v>73</v>
       </c>
-      <c r="I3" s="194"/>
-      <c r="J3" s="197" t="s">
+      <c r="I3" s="218"/>
+      <c r="J3" s="221" t="s">
         <v>328</v>
       </c>
-      <c r="K3" s="198"/>
-      <c r="L3" s="191" t="s">
+      <c r="K3" s="222"/>
+      <c r="L3" s="215" t="s">
         <v>322</v>
       </c>
-      <c r="M3" s="192"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="188" t="s">
+      <c r="M3" s="216"/>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" s="212" t="s">
         <v>339</v>
       </c>
       <c r="D4" s="140"/>
@@ -26381,8 +27222,8 @@
       <c r="L4" s="139"/>
       <c r="M4" s="139"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5" s="189"/>
+    <row r="5" spans="1:13">
+      <c r="A5" s="213"/>
       <c r="D5" s="140"/>
       <c r="E5" s="140"/>
       <c r="F5" s="136"/>
@@ -26394,8 +27235,8 @@
       <c r="L5" s="139"/>
       <c r="M5" s="139"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6" s="189"/>
+    <row r="6" spans="1:13">
+      <c r="A6" s="213"/>
       <c r="D6" s="140"/>
       <c r="E6" s="140"/>
       <c r="F6" s="136"/>
@@ -26407,8 +27248,8 @@
       <c r="L6" s="139"/>
       <c r="M6" s="139"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7" s="189"/>
+    <row r="7" spans="1:13">
+      <c r="A7" s="213"/>
       <c r="D7" s="140"/>
       <c r="E7" s="140"/>
       <c r="F7" s="136"/>
@@ -26420,8 +27261,8 @@
       <c r="L7" s="139"/>
       <c r="M7" s="139"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8" s="189"/>
+    <row r="8" spans="1:13">
+      <c r="A8" s="213"/>
       <c r="D8" s="140"/>
       <c r="E8" s="140"/>
       <c r="F8" s="136"/>
@@ -26433,8 +27274,8 @@
       <c r="L8" s="139"/>
       <c r="M8" s="139"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9" s="189"/>
+    <row r="9" spans="1:13">
+      <c r="A9" s="213"/>
       <c r="D9" s="140"/>
       <c r="E9" s="140"/>
       <c r="F9" s="136"/>
@@ -26446,8 +27287,8 @@
       <c r="L9" s="139"/>
       <c r="M9" s="139"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10" s="189"/>
+    <row r="10" spans="1:13">
+      <c r="A10" s="213"/>
       <c r="D10" s="140"/>
       <c r="E10" s="140"/>
       <c r="F10" s="136"/>
@@ -26459,8 +27300,8 @@
       <c r="L10" s="139"/>
       <c r="M10" s="139"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="189"/>
+    <row r="11" spans="1:13">
+      <c r="A11" s="213"/>
       <c r="D11" s="140"/>
       <c r="E11" s="140"/>
       <c r="F11" s="136"/>
@@ -26472,8 +27313,8 @@
       <c r="L11" s="139"/>
       <c r="M11" s="139"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="189"/>
+    <row r="12" spans="1:13">
+      <c r="A12" s="213"/>
       <c r="D12" s="140"/>
       <c r="E12" s="140"/>
       <c r="F12" s="136"/>
@@ -26485,8 +27326,8 @@
       <c r="L12" s="139"/>
       <c r="M12" s="139"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" s="189"/>
+    <row r="13" spans="1:13">
+      <c r="A13" s="213"/>
       <c r="D13" s="140"/>
       <c r="E13" s="140"/>
       <c r="F13" s="136"/>
@@ -26498,8 +27339,8 @@
       <c r="L13" s="139"/>
       <c r="M13" s="139"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="189"/>
+    <row r="14" spans="1:13">
+      <c r="A14" s="213"/>
       <c r="D14" s="140"/>
       <c r="E14" s="140"/>
       <c r="F14" s="136"/>
@@ -26511,8 +27352,8 @@
       <c r="L14" s="139"/>
       <c r="M14" s="139"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15" s="189"/>
+    <row r="15" spans="1:13">
+      <c r="A15" s="213"/>
       <c r="D15" s="140"/>
       <c r="E15" s="140"/>
       <c r="F15" s="136"/>
@@ -26524,8 +27365,8 @@
       <c r="L15" s="139"/>
       <c r="M15" s="139"/>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16" s="189"/>
+    <row r="16" spans="1:13">
+      <c r="A16" s="213"/>
       <c r="D16" s="140"/>
       <c r="E16" s="140"/>
       <c r="F16" s="136"/>
@@ -26537,8 +27378,8 @@
       <c r="L16" s="139"/>
       <c r="M16" s="139"/>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="189"/>
+    <row r="17" spans="1:13">
+      <c r="A17" s="213"/>
       <c r="D17" s="140"/>
       <c r="E17" s="140"/>
       <c r="F17" s="136"/>
@@ -26550,8 +27391,8 @@
       <c r="L17" s="139"/>
       <c r="M17" s="139"/>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="189"/>
+    <row r="18" spans="1:13">
+      <c r="A18" s="213"/>
       <c r="D18" s="140"/>
       <c r="E18" s="140"/>
       <c r="F18" s="136"/>
@@ -26563,8 +27404,8 @@
       <c r="L18" s="139"/>
       <c r="M18" s="139"/>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="189"/>
+    <row r="19" spans="1:13">
+      <c r="A19" s="213"/>
       <c r="D19" s="140"/>
       <c r="E19" s="140"/>
       <c r="F19" s="136"/>
@@ -26576,8 +27417,8 @@
       <c r="L19" s="139"/>
       <c r="M19" s="139"/>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="189"/>
+    <row r="20" spans="1:13">
+      <c r="A20" s="213"/>
       <c r="D20" s="140"/>
       <c r="E20" s="140"/>
       <c r="F20" s="136"/>
@@ -26589,8 +27430,8 @@
       <c r="L20" s="139"/>
       <c r="M20" s="139"/>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="189"/>
+    <row r="21" spans="1:13">
+      <c r="A21" s="213"/>
       <c r="D21" s="140"/>
       <c r="E21" s="140"/>
       <c r="F21" s="136"/>
@@ -26602,8 +27443,8 @@
       <c r="L21" s="139"/>
       <c r="M21" s="139"/>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="189"/>
+    <row r="22" spans="1:13">
+      <c r="A22" s="213"/>
       <c r="D22" s="140"/>
       <c r="E22" s="140"/>
       <c r="F22" s="136"/>
@@ -26615,8 +27456,8 @@
       <c r="L22" s="139"/>
       <c r="M22" s="139"/>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="189"/>
+    <row r="23" spans="1:13">
+      <c r="A23" s="213"/>
       <c r="D23" s="140"/>
       <c r="E23" s="140"/>
       <c r="F23" s="136"/>
@@ -26628,8 +27469,8 @@
       <c r="L23" s="139"/>
       <c r="M23" s="139"/>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="189"/>
+    <row r="24" spans="1:13">
+      <c r="A24" s="213"/>
       <c r="D24" s="140"/>
       <c r="E24" s="140"/>
       <c r="F24" s="136"/>
@@ -26641,8 +27482,8 @@
       <c r="L24" s="139"/>
       <c r="M24" s="139"/>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="189"/>
+    <row r="25" spans="1:13">
+      <c r="A25" s="213"/>
       <c r="D25" s="140"/>
       <c r="E25" s="140"/>
       <c r="F25" s="136"/>
@@ -26654,8 +27495,8 @@
       <c r="L25" s="139"/>
       <c r="M25" s="139"/>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="189"/>
+    <row r="26" spans="1:13">
+      <c r="A26" s="213"/>
       <c r="D26" s="140"/>
       <c r="E26" s="140"/>
       <c r="F26" s="136"/>
@@ -26667,8 +27508,8 @@
       <c r="L26" s="139"/>
       <c r="M26" s="139"/>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="189"/>
+    <row r="27" spans="1:13">
+      <c r="A27" s="213"/>
       <c r="D27" s="140"/>
       <c r="E27" s="140"/>
       <c r="F27" s="136"/>
@@ -26680,8 +27521,8 @@
       <c r="L27" s="139"/>
       <c r="M27" s="139"/>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="189"/>
+    <row r="28" spans="1:13">
+      <c r="A28" s="213"/>
       <c r="D28" s="140"/>
       <c r="E28" s="140"/>
       <c r="F28" s="136"/>
@@ -26693,8 +27534,8 @@
       <c r="L28" s="139"/>
       <c r="M28" s="139"/>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="189"/>
+    <row r="29" spans="1:13">
+      <c r="A29" s="213"/>
       <c r="D29" s="140"/>
       <c r="E29" s="140"/>
       <c r="F29" s="136"/>
@@ -26706,8 +27547,8 @@
       <c r="L29" s="139"/>
       <c r="M29" s="139"/>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="189"/>
+    <row r="30" spans="1:13">
+      <c r="A30" s="213"/>
       <c r="D30" s="140"/>
       <c r="E30" s="140"/>
       <c r="F30" s="136"/>
@@ -26719,8 +27560,8 @@
       <c r="L30" s="139"/>
       <c r="M30" s="139"/>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="189"/>
+    <row r="31" spans="1:13">
+      <c r="A31" s="213"/>
       <c r="D31" s="140"/>
       <c r="E31" s="140"/>
       <c r="F31" s="136"/>
@@ -26732,8 +27573,8 @@
       <c r="L31" s="139"/>
       <c r="M31" s="139"/>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="189"/>
+    <row r="32" spans="1:13">
+      <c r="A32" s="213"/>
       <c r="D32" s="140"/>
       <c r="E32" s="140"/>
       <c r="F32" s="136"/>
@@ -26745,8 +27586,8 @@
       <c r="L32" s="139"/>
       <c r="M32" s="139"/>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="189"/>
+    <row r="33" spans="1:13">
+      <c r="A33" s="213"/>
       <c r="D33" s="140"/>
       <c r="E33" s="140"/>
       <c r="F33" s="136"/>
@@ -26758,8 +27599,8 @@
       <c r="L33" s="139"/>
       <c r="M33" s="139"/>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="189"/>
+    <row r="34" spans="1:13">
+      <c r="A34" s="213"/>
       <c r="D34" s="140"/>
       <c r="E34" s="140"/>
       <c r="F34" s="136"/>
@@ -26771,8 +27612,8 @@
       <c r="L34" s="139"/>
       <c r="M34" s="139"/>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="189"/>
+    <row r="35" spans="1:13">
+      <c r="A35" s="213"/>
       <c r="D35" s="140"/>
       <c r="E35" s="140"/>
       <c r="F35" s="136"/>
@@ -26784,8 +27625,8 @@
       <c r="L35" s="139"/>
       <c r="M35" s="139"/>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="189"/>
+    <row r="36" spans="1:13">
+      <c r="A36" s="213"/>
       <c r="D36" s="140"/>
       <c r="E36" s="140"/>
       <c r="F36" s="136"/>
@@ -26797,8 +27638,8 @@
       <c r="L36" s="139"/>
       <c r="M36" s="139"/>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="190"/>
+    <row r="37" spans="1:13">
+      <c r="A37" s="214"/>
       <c r="B37" s="149"/>
       <c r="C37" s="150"/>
       <c r="D37" s="151"/>
@@ -26812,8 +27653,8 @@
       <c r="L37" s="155"/>
       <c r="M37" s="155"/>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="188" t="s">
+    <row r="38" spans="1:13">
+      <c r="A38" s="212" t="s">
         <v>340</v>
       </c>
       <c r="B38" s="142"/>
@@ -26829,8 +27670,8 @@
       <c r="L38" s="148"/>
       <c r="M38" s="156"/>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="189"/>
+    <row r="39" spans="1:13">
+      <c r="A39" s="213"/>
       <c r="B39" s="157"/>
       <c r="C39" s="141"/>
       <c r="D39" s="158"/>
@@ -26844,8 +27685,8 @@
       <c r="L39" s="162"/>
       <c r="M39" s="163"/>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="189"/>
+    <row r="40" spans="1:13">
+      <c r="A40" s="213"/>
       <c r="B40" s="157"/>
       <c r="C40" s="141"/>
       <c r="D40" s="158"/>
@@ -26859,8 +27700,8 @@
       <c r="L40" s="162"/>
       <c r="M40" s="163"/>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="189"/>
+    <row r="41" spans="1:13">
+      <c r="A41" s="213"/>
       <c r="B41" s="157"/>
       <c r="C41" s="141"/>
       <c r="D41" s="158"/>
@@ -26874,8 +27715,8 @@
       <c r="L41" s="162"/>
       <c r="M41" s="163"/>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="189"/>
+    <row r="42" spans="1:13">
+      <c r="A42" s="213"/>
       <c r="B42" s="157"/>
       <c r="C42" s="141"/>
       <c r="D42" s="158"/>
@@ -26889,8 +27730,8 @@
       <c r="L42" s="162"/>
       <c r="M42" s="163"/>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="189"/>
+    <row r="43" spans="1:13">
+      <c r="A43" s="213"/>
       <c r="B43" s="157"/>
       <c r="C43" s="141"/>
       <c r="D43" s="158"/>
@@ -26904,8 +27745,8 @@
       <c r="L43" s="162"/>
       <c r="M43" s="163"/>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="189"/>
+    <row r="44" spans="1:13">
+      <c r="A44" s="213"/>
       <c r="B44" s="157"/>
       <c r="C44" s="141"/>
       <c r="D44" s="158"/>
@@ -26919,8 +27760,8 @@
       <c r="L44" s="162"/>
       <c r="M44" s="163"/>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="189"/>
+    <row r="45" spans="1:13">
+      <c r="A45" s="213"/>
       <c r="B45" s="157"/>
       <c r="C45" s="141"/>
       <c r="D45" s="158"/>
@@ -26934,8 +27775,8 @@
       <c r="L45" s="162"/>
       <c r="M45" s="163"/>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="189"/>
+    <row r="46" spans="1:13">
+      <c r="A46" s="213"/>
       <c r="B46" s="157"/>
       <c r="C46" s="141"/>
       <c r="D46" s="158"/>
@@ -26949,8 +27790,8 @@
       <c r="L46" s="162"/>
       <c r="M46" s="163"/>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="189"/>
+    <row r="47" spans="1:13">
+      <c r="A47" s="213"/>
       <c r="B47" s="157"/>
       <c r="C47" s="141"/>
       <c r="D47" s="158"/>
@@ -26964,8 +27805,8 @@
       <c r="L47" s="162"/>
       <c r="M47" s="163"/>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="189"/>
+    <row r="48" spans="1:13">
+      <c r="A48" s="213"/>
       <c r="B48" s="157"/>
       <c r="C48" s="141"/>
       <c r="D48" s="158"/>
@@ -26979,8 +27820,8 @@
       <c r="L48" s="162"/>
       <c r="M48" s="163"/>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="189"/>
+    <row r="49" spans="1:13">
+      <c r="A49" s="213"/>
       <c r="B49" s="157"/>
       <c r="C49" s="141"/>
       <c r="D49" s="158"/>
@@ -26994,8 +27835,8 @@
       <c r="L49" s="162"/>
       <c r="M49" s="163"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="189"/>
+    <row r="50" spans="1:13">
+      <c r="A50" s="213"/>
       <c r="B50" s="157"/>
       <c r="C50" s="141"/>
       <c r="D50" s="158"/>
@@ -27009,8 +27850,8 @@
       <c r="L50" s="162"/>
       <c r="M50" s="163"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="189"/>
+    <row r="51" spans="1:13">
+      <c r="A51" s="213"/>
       <c r="B51" s="157"/>
       <c r="C51" s="141"/>
       <c r="D51" s="158"/>
@@ -27024,8 +27865,8 @@
       <c r="L51" s="162"/>
       <c r="M51" s="163"/>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="189"/>
+    <row r="52" spans="1:13">
+      <c r="A52" s="213"/>
       <c r="B52" s="157"/>
       <c r="C52" s="141"/>
       <c r="D52" s="158"/>
@@ -27039,8 +27880,8 @@
       <c r="L52" s="162"/>
       <c r="M52" s="163"/>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="189"/>
+    <row r="53" spans="1:13">
+      <c r="A53" s="213"/>
       <c r="B53" s="157"/>
       <c r="C53" s="141"/>
       <c r="D53" s="158"/>
@@ -27054,8 +27895,8 @@
       <c r="L53" s="162"/>
       <c r="M53" s="163"/>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="189"/>
+    <row r="54" spans="1:13">
+      <c r="A54" s="213"/>
       <c r="B54" s="157"/>
       <c r="C54" s="141"/>
       <c r="D54" s="158"/>
@@ -27069,8 +27910,8 @@
       <c r="L54" s="162"/>
       <c r="M54" s="163"/>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="189"/>
+    <row r="55" spans="1:13">
+      <c r="A55" s="213"/>
       <c r="B55" s="157"/>
       <c r="C55" s="141"/>
       <c r="D55" s="158"/>
@@ -27084,8 +27925,8 @@
       <c r="L55" s="162"/>
       <c r="M55" s="163"/>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="189"/>
+    <row r="56" spans="1:13">
+      <c r="A56" s="213"/>
       <c r="B56" s="157"/>
       <c r="C56" s="141"/>
       <c r="D56" s="158"/>
@@ -27099,8 +27940,8 @@
       <c r="L56" s="162"/>
       <c r="M56" s="163"/>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="189"/>
+    <row r="57" spans="1:13">
+      <c r="A57" s="213"/>
       <c r="B57" s="157"/>
       <c r="C57" s="141"/>
       <c r="D57" s="158"/>
@@ -27114,8 +27955,8 @@
       <c r="L57" s="162"/>
       <c r="M57" s="163"/>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="189"/>
+    <row r="58" spans="1:13">
+      <c r="A58" s="213"/>
       <c r="B58" s="157"/>
       <c r="C58" s="141"/>
       <c r="D58" s="158"/>
@@ -27129,8 +27970,8 @@
       <c r="L58" s="162"/>
       <c r="M58" s="163"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="189"/>
+    <row r="59" spans="1:13">
+      <c r="A59" s="213"/>
       <c r="B59" s="157"/>
       <c r="C59" s="141"/>
       <c r="D59" s="158"/>
@@ -27144,8 +27985,8 @@
       <c r="L59" s="162"/>
       <c r="M59" s="163"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="189"/>
+    <row r="60" spans="1:13">
+      <c r="A60" s="213"/>
       <c r="B60" s="157"/>
       <c r="C60" s="141"/>
       <c r="D60" s="158"/>
@@ -27159,8 +28000,8 @@
       <c r="L60" s="162"/>
       <c r="M60" s="163"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="189"/>
+    <row r="61" spans="1:13">
+      <c r="A61" s="213"/>
       <c r="B61" s="157"/>
       <c r="C61" s="141"/>
       <c r="D61" s="158"/>
@@ -27174,8 +28015,8 @@
       <c r="L61" s="162"/>
       <c r="M61" s="163"/>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="189"/>
+    <row r="62" spans="1:13">
+      <c r="A62" s="213"/>
       <c r="B62" s="157"/>
       <c r="C62" s="141"/>
       <c r="D62" s="158"/>
@@ -27189,8 +28030,8 @@
       <c r="L62" s="162"/>
       <c r="M62" s="163"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="189"/>
+    <row r="63" spans="1:13">
+      <c r="A63" s="213"/>
       <c r="B63" s="157"/>
       <c r="C63" s="141"/>
       <c r="D63" s="158"/>
@@ -27204,8 +28045,8 @@
       <c r="L63" s="162"/>
       <c r="M63" s="163"/>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="189"/>
+    <row r="64" spans="1:13">
+      <c r="A64" s="213"/>
       <c r="B64" s="157"/>
       <c r="C64" s="141"/>
       <c r="D64" s="158"/>
@@ -27219,8 +28060,8 @@
       <c r="L64" s="162"/>
       <c r="M64" s="163"/>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="189"/>
+    <row r="65" spans="1:13">
+      <c r="A65" s="213"/>
       <c r="B65" s="157"/>
       <c r="C65" s="141"/>
       <c r="D65" s="158"/>
@@ -27234,8 +28075,8 @@
       <c r="L65" s="162"/>
       <c r="M65" s="163"/>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="189"/>
+    <row r="66" spans="1:13">
+      <c r="A66" s="213"/>
       <c r="B66" s="157"/>
       <c r="C66" s="141"/>
       <c r="D66" s="158"/>
@@ -27249,8 +28090,8 @@
       <c r="L66" s="162"/>
       <c r="M66" s="163"/>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="189"/>
+    <row r="67" spans="1:13">
+      <c r="A67" s="213"/>
       <c r="B67" s="157"/>
       <c r="C67" s="141"/>
       <c r="D67" s="158"/>
@@ -27264,8 +28105,8 @@
       <c r="L67" s="162"/>
       <c r="M67" s="163"/>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="189"/>
+    <row r="68" spans="1:13">
+      <c r="A68" s="213"/>
       <c r="B68" s="157"/>
       <c r="C68" s="141"/>
       <c r="D68" s="158"/>
@@ -27279,8 +28120,8 @@
       <c r="L68" s="162"/>
       <c r="M68" s="163"/>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="189"/>
+    <row r="69" spans="1:13">
+      <c r="A69" s="213"/>
       <c r="B69" s="157"/>
       <c r="C69" s="141"/>
       <c r="D69" s="158"/>
@@ -27294,8 +28135,8 @@
       <c r="L69" s="162"/>
       <c r="M69" s="163"/>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="189"/>
+    <row r="70" spans="1:13">
+      <c r="A70" s="213"/>
       <c r="B70" s="157"/>
       <c r="C70" s="141"/>
       <c r="D70" s="158"/>
@@ -27309,8 +28150,8 @@
       <c r="L70" s="162"/>
       <c r="M70" s="163"/>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="190"/>
+    <row r="71" spans="1:13">
+      <c r="A71" s="214"/>
       <c r="B71" s="149"/>
       <c r="C71" s="150"/>
       <c r="D71" s="151"/>
@@ -27354,7 +28195,7 @@
       <selection activeCell="J139" sqref="J139"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="4" max="4" width="40.625" customWidth="1"/>
     <col min="5" max="5" width="10.875" style="111" customWidth="1"/>
@@ -27365,7 +28206,7 @@
     <col min="10" max="10" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -27387,12 +28228,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:9">
       <c r="A3" s="12">
         <v>3</v>
       </c>
@@ -27412,7 +28253,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:9">
       <c r="A4" s="106"/>
       <c r="B4" s="107"/>
       <c r="C4" s="17">
@@ -27434,7 +28275,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:9">
       <c r="A5" s="106"/>
       <c r="B5" s="107"/>
       <c r="C5" s="17"/>
@@ -27444,7 +28285,7 @@
       <c r="G5" s="17"/>
       <c r="H5" s="17"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:9">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -27464,7 +28305,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:9">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="8">
@@ -27486,7 +28327,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:9">
       <c r="A8" s="15"/>
       <c r="B8" s="16"/>
       <c r="C8" s="8"/>
@@ -27496,7 +28337,7 @@
       <c r="G8" s="8"/>
       <c r="H8" s="8"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:9">
       <c r="A9" s="9">
         <v>1</v>
       </c>
@@ -27516,7 +28357,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:9">
       <c r="A10" s="13"/>
       <c r="B10" s="14"/>
       <c r="C10" s="8">
@@ -27538,7 +28379,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:9">
       <c r="A11" s="13"/>
       <c r="B11" s="14"/>
       <c r="C11" s="8">
@@ -27563,7 +28404,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:9">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="8">
@@ -27583,7 +28424,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:9">
       <c r="A13" s="15"/>
       <c r="B13" s="16"/>
       <c r="C13" s="8"/>
@@ -27593,7 +28434,7 @@
       <c r="G13" s="8"/>
       <c r="H13" s="8"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:9">
       <c r="A14" s="9">
         <v>2</v>
       </c>
@@ -27613,7 +28454,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:9">
       <c r="A15" s="13"/>
       <c r="B15" s="14"/>
       <c r="C15" s="8">
@@ -27635,7 +28476,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:9">
       <c r="A16" s="15"/>
       <c r="B16" s="16"/>
       <c r="C16" s="8"/>
@@ -27645,7 +28486,7 @@
       <c r="G16" s="8"/>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:8">
       <c r="A17" s="9">
         <v>2</v>
       </c>
@@ -27665,7 +28506,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:8">
       <c r="A18" s="13"/>
       <c r="B18" s="14"/>
       <c r="C18" s="8">
@@ -27685,7 +28526,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:8">
       <c r="A19" s="13"/>
       <c r="B19" s="14"/>
       <c r="C19" s="8">
@@ -27705,7 +28546,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:8">
       <c r="A20" s="15"/>
       <c r="B20" s="16"/>
       <c r="C20" s="8"/>
@@ -27715,7 +28556,7 @@
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:8">
       <c r="A22" s="95">
         <v>6</v>
       </c>
@@ -27735,7 +28576,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:8">
       <c r="A23" s="128"/>
       <c r="B23" s="14"/>
       <c r="C23" s="8">
@@ -27757,7 +28598,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:8">
       <c r="A24" s="128"/>
       <c r="B24" s="14"/>
       <c r="C24" s="8">
@@ -27779,7 +28620,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:8" s="105" customFormat="1">
       <c r="A25" s="106"/>
       <c r="B25" s="130"/>
       <c r="C25" s="8">
@@ -27799,7 +28640,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:8" s="105" customFormat="1">
       <c r="A26" s="106"/>
       <c r="B26" s="130"/>
       <c r="C26" s="8">
@@ -27821,7 +28662,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:8" s="105" customFormat="1">
       <c r="A27" s="106"/>
       <c r="B27" s="130"/>
       <c r="C27" s="8">
@@ -27843,7 +28684,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:8" s="105" customFormat="1">
       <c r="A28" s="106"/>
       <c r="B28" s="130"/>
       <c r="C28" s="8">
@@ -27863,7 +28704,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:8" s="105" customFormat="1">
       <c r="A29" s="106"/>
       <c r="B29" s="130"/>
       <c r="C29" s="8">
@@ -27883,7 +28724,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:8">
       <c r="A30" s="112"/>
       <c r="B30" s="115"/>
       <c r="C30" s="8">
@@ -27903,7 +28744,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:8">
       <c r="A31" s="98"/>
       <c r="B31" s="92"/>
       <c r="C31" s="8">
@@ -27925,7 +28766,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:8">
       <c r="A32" s="98"/>
       <c r="B32" s="92"/>
       <c r="C32" s="8">
@@ -27945,7 +28786,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:8">
       <c r="A33" s="99"/>
       <c r="B33" s="94"/>
       <c r="C33" s="18"/>
@@ -27955,7 +28796,7 @@
       <c r="G33" s="18"/>
       <c r="H33" s="18"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:8">
       <c r="A34" s="89">
         <v>1</v>
       </c>
@@ -27975,7 +28816,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:8">
       <c r="A35" s="91"/>
       <c r="B35" s="92"/>
       <c r="C35" s="18">
@@ -27997,7 +28838,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:8">
       <c r="A36" s="91"/>
       <c r="B36" s="92"/>
       <c r="C36" s="18">
@@ -28019,7 +28860,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:8">
       <c r="A37" s="91"/>
       <c r="B37" s="92"/>
       <c r="C37" s="18">
@@ -28041,7 +28882,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:8">
       <c r="A38" s="91"/>
       <c r="B38" s="92"/>
       <c r="C38" s="18">
@@ -28063,7 +28904,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:8">
       <c r="A39" s="91"/>
       <c r="B39" s="92"/>
       <c r="C39" s="18">
@@ -28083,7 +28924,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:8">
       <c r="A40" s="91"/>
       <c r="B40" s="92"/>
       <c r="C40" s="18"/>
@@ -28093,7 +28934,7 @@
       <c r="G40" s="7"/>
       <c r="H40" s="7"/>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:8">
       <c r="A41" s="89">
         <v>1</v>
       </c>
@@ -28113,7 +28954,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:8">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
       <c r="C42" s="18">
@@ -28133,7 +28974,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:8">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
       <c r="C43" s="18">
@@ -28155,7 +28996,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:8">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
       <c r="C44" s="18">
@@ -28175,7 +29016,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:8">
       <c r="A45" s="91"/>
       <c r="B45" s="92"/>
       <c r="C45" s="18">
@@ -28197,7 +29038,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:8">
       <c r="A46" s="93"/>
       <c r="B46" s="94"/>
       <c r="C46" s="18"/>
@@ -28207,7 +29048,7 @@
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:8">
       <c r="A48" s="89">
         <v>2</v>
       </c>
@@ -28227,7 +29068,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:8">
       <c r="A49" s="91"/>
       <c r="B49" s="92"/>
       <c r="C49" s="18">
@@ -28249,7 +29090,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:8">
       <c r="A50" s="91"/>
       <c r="B50" s="92"/>
       <c r="C50" s="18">
@@ -28271,7 +29112,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:8">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
       <c r="C51" s="18">
@@ -28291,7 +29132,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:8">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
       <c r="C52" s="18">
@@ -28313,7 +29154,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:8">
       <c r="A53" s="93"/>
       <c r="B53" s="94"/>
       <c r="C53" s="18"/>
@@ -28323,7 +29164,7 @@
       <c r="G53" s="18"/>
       <c r="H53" s="18"/>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:8">
       <c r="A54" s="89">
         <v>2</v>
       </c>
@@ -28343,7 +29184,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:8">
       <c r="A55" s="91"/>
       <c r="B55" s="92"/>
       <c r="C55" s="18">
@@ -28365,7 +29206,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:8">
       <c r="A56" s="91"/>
       <c r="B56" s="92"/>
       <c r="C56" s="18">
@@ -28387,7 +29228,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:8">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="18">
@@ -28409,7 +29250,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:8">
       <c r="A58" s="93"/>
       <c r="B58" s="94"/>
       <c r="C58" s="18"/>
@@ -28419,7 +29260,7 @@
       <c r="G58" s="18"/>
       <c r="H58" s="18"/>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:8">
       <c r="A60" s="9">
         <v>3</v>
       </c>
@@ -28439,7 +29280,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:8">
       <c r="A61" s="13"/>
       <c r="B61" s="14"/>
       <c r="C61" s="8">
@@ -28461,7 +29302,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:8">
       <c r="A62" s="15"/>
       <c r="B62" s="16"/>
       <c r="C62" s="8"/>
@@ -28471,7 +29312,7 @@
       <c r="G62" s="8"/>
       <c r="H62" s="8"/>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:8">
       <c r="A63" s="9">
         <v>3</v>
       </c>
@@ -28491,7 +29332,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:8">
       <c r="A64" s="13"/>
       <c r="B64" s="14"/>
       <c r="C64" s="8">
@@ -28511,7 +29352,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:8">
       <c r="A65" s="15"/>
       <c r="B65" s="16"/>
       <c r="C65" s="8"/>
@@ -28521,7 +29362,7 @@
       <c r="G65" s="8"/>
       <c r="H65" s="8"/>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:8">
       <c r="A67" s="9">
         <v>4</v>
       </c>
@@ -28541,7 +29382,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:8">
       <c r="A68" s="13"/>
       <c r="B68" s="14"/>
       <c r="C68" s="8">
@@ -28563,7 +29404,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="69" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:8" s="105" customFormat="1">
       <c r="A69" s="91"/>
       <c r="B69" s="92"/>
       <c r="C69" s="8">
@@ -28583,7 +29424,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:8" s="105" customFormat="1">
       <c r="A70" s="91"/>
       <c r="B70" s="92"/>
       <c r="C70" s="8">
@@ -28603,7 +29444,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8">
       <c r="A71" s="15"/>
       <c r="B71" s="16"/>
       <c r="C71" s="8"/>
@@ -28613,7 +29454,7 @@
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:8">
       <c r="A72" s="9">
         <v>4</v>
       </c>
@@ -28633,7 +29474,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:8">
       <c r="A73" s="13"/>
       <c r="B73" s="14"/>
       <c r="C73" s="8">
@@ -28653,7 +29494,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:8">
       <c r="A74" s="13"/>
       <c r="B74" s="14"/>
       <c r="C74" s="8">
@@ -28673,7 +29514,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:8">
       <c r="A75" s="15"/>
       <c r="B75" s="16"/>
       <c r="C75" s="8"/>
@@ -28683,7 +29524,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:8">
       <c r="A77" s="89">
         <v>5</v>
       </c>
@@ -28703,7 +29544,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:8">
       <c r="A78" s="91"/>
       <c r="B78" s="92"/>
       <c r="C78" s="18">
@@ -28725,7 +29566,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:8">
       <c r="A79" s="91"/>
       <c r="B79" s="92"/>
       <c r="C79" s="18">
@@ -28747,7 +29588,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="80" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:8" s="105" customFormat="1">
       <c r="A80" s="91"/>
       <c r="B80" s="92"/>
       <c r="C80" s="18">
@@ -28767,7 +29608,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:8">
       <c r="A81" s="93"/>
       <c r="B81" s="94"/>
       <c r="C81" s="18"/>
@@ -28777,7 +29618,7 @@
       <c r="G81" s="18"/>
       <c r="H81" s="18"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:8">
       <c r="A82" s="89">
         <v>5</v>
       </c>
@@ -28797,7 +29638,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:8">
       <c r="A83" s="91"/>
       <c r="B83" s="92"/>
       <c r="C83" s="18">
@@ -28817,7 +29658,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:8">
       <c r="A84" s="91"/>
       <c r="B84" s="92"/>
       <c r="C84" s="18">
@@ -28837,7 +29678,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:8">
       <c r="A85" s="91"/>
       <c r="B85" s="92"/>
       <c r="C85" s="18">
@@ -28857,7 +29698,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:8">
       <c r="A86" s="93"/>
       <c r="B86" s="94"/>
       <c r="C86" s="18"/>
@@ -28867,7 +29708,7 @@
       <c r="G86" s="18"/>
       <c r="H86" s="18"/>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:8">
       <c r="A87" s="91"/>
       <c r="B87" s="92"/>
       <c r="C87" s="90"/>
@@ -28877,7 +29718,7 @@
       <c r="G87" s="90"/>
       <c r="H87" s="90"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:8">
       <c r="A89" s="89">
         <v>6</v>
       </c>
@@ -28897,7 +29738,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:8">
       <c r="A90" s="91"/>
       <c r="B90" s="92"/>
       <c r="C90" s="18">
@@ -28917,7 +29758,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:8">
       <c r="A91" s="91"/>
       <c r="B91" s="92"/>
       <c r="C91" s="18">
@@ -28937,7 +29778,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:8">
       <c r="A92" s="91"/>
       <c r="B92" s="92"/>
       <c r="C92" s="18">
@@ -28959,7 +29800,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:8">
       <c r="A93" s="91"/>
       <c r="B93" s="92"/>
       <c r="C93" s="18">
@@ -28981,7 +29822,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:8">
       <c r="A94" s="91"/>
       <c r="B94" s="92"/>
       <c r="C94" s="18">
@@ -29003,7 +29844,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:8">
       <c r="A95" s="91"/>
       <c r="B95" s="92"/>
       <c r="C95" s="18">
@@ -29023,7 +29864,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:8">
       <c r="A96" s="13"/>
       <c r="B96" s="14"/>
       <c r="C96" s="18">
@@ -29043,7 +29884,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:8">
       <c r="A97" s="13"/>
       <c r="B97" s="14"/>
       <c r="C97" s="18">
@@ -29063,7 +29904,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:8">
       <c r="A98" s="91"/>
       <c r="B98" s="92"/>
       <c r="C98" s="18">
@@ -29083,7 +29924,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:8">
       <c r="A99" s="98"/>
       <c r="B99" s="92"/>
       <c r="C99" s="18">
@@ -29103,7 +29944,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:8">
       <c r="A100" s="98"/>
       <c r="B100" s="92"/>
       <c r="C100" s="18">
@@ -29123,7 +29964,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:8">
       <c r="A101" s="131"/>
       <c r="B101" s="16"/>
       <c r="C101" s="8"/>
@@ -29133,7 +29974,7 @@
       <c r="G101" s="8"/>
       <c r="H101" s="8"/>
     </row>
-    <row r="102" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:8" s="105" customFormat="1">
       <c r="A102" s="89">
         <v>1</v>
       </c>
@@ -29153,7 +29994,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="103" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:8" s="105" customFormat="1">
       <c r="A103" s="106"/>
       <c r="B103" s="107"/>
       <c r="C103" s="17">
@@ -29169,7 +30010,7 @@
       <c r="G103" s="17"/>
       <c r="H103" s="17"/>
     </row>
-    <row r="104" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:8" s="105" customFormat="1">
       <c r="A104" s="106"/>
       <c r="B104" s="107"/>
       <c r="C104" s="17">
@@ -29189,7 +30030,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="105" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:8" s="105" customFormat="1">
       <c r="A105" s="106"/>
       <c r="B105" s="107"/>
       <c r="C105" s="17">
@@ -29209,7 +30050,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="106" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:8" s="105" customFormat="1">
       <c r="A106" s="106"/>
       <c r="B106" s="107"/>
       <c r="C106" s="17">
@@ -29225,7 +30066,7 @@
       <c r="G106" s="17"/>
       <c r="H106" s="17"/>
     </row>
-    <row r="107" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:8" s="105" customFormat="1">
       <c r="A107" s="106"/>
       <c r="B107" s="107"/>
       <c r="C107" s="17">
@@ -29241,7 +30082,7 @@
       <c r="G107" s="17"/>
       <c r="H107" s="17"/>
     </row>
-    <row r="108" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:8" s="105" customFormat="1">
       <c r="A108" s="106"/>
       <c r="B108" s="107"/>
       <c r="C108" s="17">
@@ -29263,7 +30104,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="109" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:8" s="105" customFormat="1">
       <c r="A109" s="106"/>
       <c r="B109" s="107"/>
       <c r="C109" s="17">
@@ -29285,7 +30126,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="110" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:8" s="105" customFormat="1">
       <c r="A110" s="106"/>
       <c r="B110" s="107"/>
       <c r="C110" s="17">
@@ -29307,7 +30148,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="111" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:8" s="105" customFormat="1">
       <c r="A111" s="106"/>
       <c r="B111" s="107"/>
       <c r="C111" s="17">
@@ -29323,7 +30164,7 @@
       <c r="G111" s="17"/>
       <c r="H111" s="17"/>
     </row>
-    <row r="112" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:8" s="105" customFormat="1">
       <c r="A112" s="106"/>
       <c r="B112" s="107"/>
       <c r="C112" s="17">
@@ -29339,7 +30180,7 @@
       <c r="G112" s="17"/>
       <c r="H112" s="17"/>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:8">
       <c r="A113" s="106"/>
       <c r="B113" s="92"/>
       <c r="C113" s="17">
@@ -29359,7 +30200,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:8">
       <c r="A114" s="106"/>
       <c r="B114" s="92"/>
       <c r="C114" s="17">
@@ -29381,7 +30222,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:8">
       <c r="A115" s="106"/>
       <c r="B115" s="92"/>
       <c r="C115" s="17">
@@ -29401,7 +30242,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:8">
       <c r="A116" s="106"/>
       <c r="B116" s="92"/>
       <c r="C116" s="17">
@@ -29421,7 +30262,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:8">
       <c r="A117" s="106"/>
       <c r="B117" s="92"/>
       <c r="C117" s="17">
@@ -29441,7 +30282,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:8">
       <c r="A118" s="106"/>
       <c r="B118" s="92"/>
       <c r="C118" s="17">
@@ -29461,7 +30302,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:8">
       <c r="A119" s="106"/>
       <c r="B119" s="92"/>
       <c r="C119" s="17">
@@ -29481,7 +30322,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:8">
       <c r="A120" s="106"/>
       <c r="B120" s="92"/>
       <c r="C120" s="17">
@@ -29501,7 +30342,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:8">
       <c r="A121" s="106"/>
       <c r="B121" s="14"/>
       <c r="C121" s="17">
@@ -29521,7 +30362,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="122" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:8" s="105" customFormat="1">
       <c r="A122" s="108"/>
       <c r="B122" s="109"/>
       <c r="C122" s="17"/>
@@ -29531,7 +30372,7 @@
       <c r="G122" s="17"/>
       <c r="H122" s="17"/>
     </row>
-    <row r="123" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:8" s="105" customFormat="1">
       <c r="A123" s="12">
         <v>1</v>
       </c>
@@ -29551,7 +30392,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="124" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:8" s="105" customFormat="1">
       <c r="A124" s="106"/>
       <c r="B124" s="107"/>
       <c r="C124" s="17">
@@ -29573,7 +30414,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="125" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:8" s="105" customFormat="1">
       <c r="A125" s="106"/>
       <c r="B125" s="107"/>
       <c r="C125" s="17">
@@ -29595,7 +30436,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="126" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:8" s="105" customFormat="1">
       <c r="A126" s="106"/>
       <c r="B126" s="107"/>
       <c r="C126" s="17">
@@ -29617,7 +30458,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:8" s="105" customFormat="1">
       <c r="A127" s="106"/>
       <c r="B127" s="107"/>
       <c r="C127" s="17">
@@ -29639,7 +30480,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="128" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:8" s="105" customFormat="1">
       <c r="A128" s="106"/>
       <c r="B128" s="107"/>
       <c r="C128" s="17">
@@ -29659,7 +30500,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="129" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:8" s="105" customFormat="1">
       <c r="A129" s="106"/>
       <c r="B129" s="107"/>
       <c r="C129" s="17">
@@ -29679,7 +30520,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="130" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:8" s="105" customFormat="1">
       <c r="A130" s="106"/>
       <c r="B130" s="107"/>
       <c r="C130" s="17">
@@ -29699,7 +30540,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="131" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:8" s="105" customFormat="1">
       <c r="A131" s="108"/>
       <c r="B131" s="109"/>
       <c r="C131" s="17"/>
@@ -29709,7 +30550,7 @@
       <c r="G131" s="17"/>
       <c r="H131" s="17"/>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:8">
       <c r="A133" s="110">
         <v>2</v>
       </c>
@@ -29728,7 +30569,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:8">
       <c r="A134" s="112"/>
       <c r="B134" s="111" t="s">
         <v>235</v>
@@ -29752,7 +30593,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="135" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:8" s="105" customFormat="1">
       <c r="A135" s="106"/>
       <c r="B135" s="107"/>
       <c r="C135" s="18">
@@ -29772,7 +30613,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="136" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:8" s="105" customFormat="1">
       <c r="A136" s="106"/>
       <c r="B136" s="107"/>
       <c r="C136" s="18">
@@ -29792,7 +30633,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="137" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:8" s="105" customFormat="1">
       <c r="A137" s="106"/>
       <c r="B137" s="107"/>
       <c r="C137" s="18">
@@ -29812,7 +30653,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:8">
       <c r="A138" s="113"/>
       <c r="B138" s="114"/>
       <c r="C138" s="101"/>
@@ -29822,7 +30663,7 @@
       <c r="G138" s="101"/>
       <c r="H138" s="101"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:8">
       <c r="A139" s="110">
         <v>2</v>
       </c>
@@ -29841,7 +30682,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:8">
       <c r="A140" s="112"/>
       <c r="B140" s="115"/>
       <c r="C140" s="18">
@@ -29863,7 +30704,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:8">
       <c r="A141" s="112"/>
       <c r="B141" s="115"/>
       <c r="C141" s="18">
@@ -29885,7 +30726,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:8">
       <c r="A142" s="112"/>
       <c r="B142" s="115"/>
       <c r="C142" s="18">
@@ -29905,7 +30746,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:8">
       <c r="A143" s="113"/>
       <c r="B143" s="114"/>
       <c r="C143" s="101"/>
@@ -29915,7 +30756,7 @@
       <c r="G143" s="101"/>
       <c r="H143" s="101"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:8">
       <c r="A145" s="95">
         <v>3</v>
       </c>
@@ -29935,7 +30776,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:8">
       <c r="A146" s="98"/>
       <c r="B146" s="92"/>
       <c r="C146" s="18">
@@ -29957,7 +30798,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:8">
       <c r="A147" s="98"/>
       <c r="B147" s="92"/>
       <c r="C147" s="18">
@@ -29979,7 +30820,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:8">
       <c r="A148" s="99"/>
       <c r="B148" s="94"/>
       <c r="C148" s="18"/>
@@ -29989,7 +30830,7 @@
       <c r="G148" s="18"/>
       <c r="H148" s="18"/>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:8">
       <c r="A149" s="95">
         <v>3</v>
       </c>
@@ -30009,7 +30850,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:8">
       <c r="A150" s="98"/>
       <c r="B150" s="92"/>
       <c r="C150" s="18">
@@ -30029,7 +30870,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:8">
       <c r="A151" s="98"/>
       <c r="B151" s="92"/>
       <c r="C151" s="18">
@@ -30049,7 +30890,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:8">
       <c r="A152" s="99"/>
       <c r="B152" s="94"/>
       <c r="C152" s="18"/>
@@ -30059,7 +30900,7 @@
       <c r="G152" s="18"/>
       <c r="H152" s="18"/>
     </row>
-    <row r="154" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:8" s="105" customFormat="1">
       <c r="A154" s="12">
         <v>4</v>
       </c>
@@ -30079,7 +30920,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="155" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:8" s="105" customFormat="1">
       <c r="A155" s="106"/>
       <c r="B155" s="115"/>
       <c r="C155" s="101">
@@ -30097,7 +30938,7 @@
       </c>
       <c r="H155" s="101"/>
     </row>
-    <row r="156" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:8" s="105" customFormat="1">
       <c r="A156" s="106"/>
       <c r="B156" s="115"/>
       <c r="C156" s="101">
@@ -30119,7 +30960,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="157" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:8" s="105" customFormat="1">
       <c r="A157" s="106"/>
       <c r="B157" s="115"/>
       <c r="C157" s="101">
@@ -30141,7 +30982,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="158" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:8" s="105" customFormat="1">
       <c r="A158" s="108"/>
       <c r="B158" s="109"/>
       <c r="C158" s="17"/>
@@ -30151,7 +30992,7 @@
       <c r="G158" s="17"/>
       <c r="H158" s="17"/>
     </row>
-    <row r="159" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:8" s="105" customFormat="1">
       <c r="A159" s="12">
         <v>4</v>
       </c>
@@ -30171,7 +31012,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="160" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:8" s="105" customFormat="1">
       <c r="A160" s="106"/>
       <c r="B160" s="115"/>
       <c r="C160" s="101">
@@ -30193,7 +31034,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="161" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:8" s="105" customFormat="1">
       <c r="A161" s="106"/>
       <c r="B161" s="115"/>
       <c r="C161" s="101">
@@ -30215,7 +31056,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="162" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:8" s="105" customFormat="1">
       <c r="A162" s="106"/>
       <c r="B162" s="115"/>
       <c r="C162" s="101">
@@ -30237,7 +31078,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="163" spans="1:8" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:8" s="105" customFormat="1">
       <c r="A163" s="108"/>
       <c r="B163" s="109"/>
       <c r="C163" s="17"/>
@@ -30247,7 +31088,7 @@
       <c r="G163" s="17"/>
       <c r="H163" s="17"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:8">
       <c r="A165" s="95">
         <v>5</v>
       </c>
@@ -30267,7 +31108,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:8">
       <c r="A166" s="98"/>
       <c r="B166" s="91"/>
       <c r="C166" s="18">
@@ -30289,7 +31130,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:8">
       <c r="A167" s="99"/>
       <c r="B167" s="93"/>
       <c r="C167" s="18"/>
@@ -30299,7 +31140,7 @@
       <c r="G167" s="18"/>
       <c r="H167" s="18"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:8">
       <c r="A168" s="95">
         <v>5</v>
       </c>
@@ -30319,7 +31160,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:8">
       <c r="A169" s="98"/>
       <c r="B169" s="91"/>
       <c r="C169" s="18">
@@ -30341,7 +31182,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:8">
       <c r="A170" s="99"/>
       <c r="B170" s="93"/>
       <c r="C170" s="18"/>
@@ -30351,7 +31192,7 @@
       <c r="G170" s="18"/>
       <c r="H170" s="18"/>
     </row>
-    <row r="174" spans="1:8" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:8" ht="56.25">
       <c r="C174" t="s">
         <v>375</v>
       </c>
@@ -30374,7 +31215,7 @@
       <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
     <col min="3" max="3" width="9" style="122"/>
     <col min="4" max="5" width="11" style="123" customWidth="1"/>
@@ -30387,7 +31228,7 @@
     <col min="14" max="14" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12">
       <c r="A1" s="8"/>
       <c r="B1" s="8" t="s">
         <v>5</v>
@@ -30423,12 +31264,12 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:12">
       <c r="A2" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:12">
       <c r="A3" s="9">
         <v>3</v>
       </c>
@@ -30452,7 +31293,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:12">
       <c r="A4" s="13"/>
       <c r="B4" s="14"/>
       <c r="C4" s="121" t="s">
@@ -30480,7 +31321,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:12">
       <c r="A5" s="15"/>
       <c r="B5" s="16"/>
       <c r="C5" s="121"/>
@@ -30494,7 +31335,7 @@
       <c r="K5" s="8"/>
       <c r="L5" s="8"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:12">
       <c r="A6" s="9">
         <v>1</v>
       </c>
@@ -30518,7 +31359,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:12">
       <c r="A7" s="13"/>
       <c r="B7" s="14"/>
       <c r="C7" s="121" t="s">
@@ -30548,7 +31389,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12">
       <c r="A8" s="13"/>
       <c r="B8" s="14"/>
       <c r="C8" s="121" t="s">
@@ -30576,7 +31417,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:12">
       <c r="A9" s="13"/>
       <c r="B9" s="14"/>
       <c r="C9" s="121" t="s">
@@ -30602,7 +31443,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12">
       <c r="A10" s="15"/>
       <c r="B10" s="16"/>
       <c r="C10" s="121"/>
@@ -30616,7 +31457,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12">
       <c r="A11" s="9">
         <v>2</v>
       </c>
@@ -30640,7 +31481,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12">
       <c r="A12" s="13"/>
       <c r="B12" s="14"/>
       <c r="C12" s="121" t="s">
@@ -30666,7 +31507,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="121" t="s">
@@ -30692,7 +31533,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12">
       <c r="A14" s="15"/>
       <c r="B14" s="16"/>
       <c r="C14" s="121"/>
@@ -30706,12 +31547,12 @@
       <c r="K14" s="8"/>
       <c r="L14" s="8"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:12">
       <c r="A15" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12">
       <c r="A16" s="89">
         <v>6</v>
       </c>
@@ -30735,7 +31576,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12">
       <c r="A17" s="91"/>
       <c r="B17" s="92"/>
       <c r="C17" s="121" t="s">
@@ -30763,7 +31604,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12">
       <c r="A18" s="91"/>
       <c r="B18" s="92"/>
       <c r="C18" s="121" t="s">
@@ -30791,7 +31632,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:12">
       <c r="A19" s="91"/>
       <c r="B19" s="92"/>
       <c r="C19" s="121" t="s">
@@ -30819,7 +31660,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:12">
       <c r="A20" s="91"/>
       <c r="B20" s="92"/>
       <c r="C20" s="121" t="s">
@@ -30847,7 +31688,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12">
       <c r="A21" s="91"/>
       <c r="B21" s="92"/>
       <c r="C21" s="121" t="s">
@@ -30875,7 +31716,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:12">
       <c r="A22" s="91"/>
       <c r="B22" s="92"/>
       <c r="C22" s="121" t="s">
@@ -30901,7 +31742,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:12">
       <c r="A23" s="93"/>
       <c r="B23" s="94"/>
       <c r="C23" s="121"/>
@@ -30915,7 +31756,7 @@
       <c r="K23" s="18"/>
       <c r="L23" s="18"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:12">
       <c r="A24" s="89">
         <v>1</v>
       </c>
@@ -30939,7 +31780,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:12">
       <c r="A25" s="91"/>
       <c r="B25" s="92"/>
       <c r="C25" s="121" t="s">
@@ -30963,7 +31804,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:12">
       <c r="A26" s="91"/>
       <c r="B26" s="92"/>
       <c r="C26" s="121" t="s">
@@ -30991,7 +31832,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:12">
       <c r="A27" s="91"/>
       <c r="B27" s="92"/>
       <c r="C27" s="121" t="s">
@@ -31015,7 +31856,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:12">
       <c r="A28" s="91"/>
       <c r="B28" s="92"/>
       <c r="C28" s="121" t="s">
@@ -31043,7 +31884,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:12">
       <c r="A29" s="93"/>
       <c r="B29" s="94"/>
       <c r="C29" s="121"/>
@@ -31057,7 +31898,7 @@
       <c r="K29" s="18"/>
       <c r="L29" s="18"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:12">
       <c r="A30" s="89">
         <v>2</v>
       </c>
@@ -31081,7 +31922,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:12">
       <c r="A31" s="91"/>
       <c r="B31" s="92"/>
       <c r="C31" s="121" t="s">
@@ -31109,7 +31950,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:12">
       <c r="A32" s="91"/>
       <c r="B32" s="92"/>
       <c r="C32" s="121" t="s">
@@ -31137,7 +31978,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:12">
       <c r="A33" s="91"/>
       <c r="B33" s="92"/>
       <c r="C33" s="121"/>
@@ -31151,7 +31992,7 @@
       <c r="K33" s="18"/>
       <c r="L33" s="18"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:12">
       <c r="A34" s="9">
         <v>3</v>
       </c>
@@ -31175,7 +32016,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:12">
       <c r="A35" s="13"/>
       <c r="B35" s="14"/>
       <c r="C35" s="121" t="s">
@@ -31201,7 +32042,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:12">
       <c r="A36" s="15"/>
       <c r="B36" s="16"/>
       <c r="C36" s="121"/>
@@ -31215,7 +32056,7 @@
       <c r="K36" s="8"/>
       <c r="L36" s="8"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:12">
       <c r="A37" s="9">
         <v>4</v>
       </c>
@@ -31239,7 +32080,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:12">
       <c r="A38" s="13"/>
       <c r="B38" s="14"/>
       <c r="C38" s="121" t="s">
@@ -31265,7 +32106,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:12">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="121" t="s">
@@ -31291,7 +32132,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:12">
       <c r="A40" s="15"/>
       <c r="B40" s="16"/>
       <c r="C40" s="121"/>
@@ -31305,7 +32146,7 @@
       <c r="K40" s="8"/>
       <c r="L40" s="8"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:12">
       <c r="A41" s="89">
         <v>5</v>
       </c>
@@ -31329,7 +32170,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:12">
       <c r="A42" s="91"/>
       <c r="B42" s="92"/>
       <c r="C42" s="121" t="s">
@@ -31355,7 +32196,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:12">
       <c r="A43" s="91"/>
       <c r="B43" s="92"/>
       <c r="C43" s="121" t="s">
@@ -31381,7 +32222,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:12">
       <c r="A44" s="91"/>
       <c r="B44" s="92"/>
       <c r="C44" s="121" t="s">
@@ -31407,7 +32248,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:12">
       <c r="A45" s="93"/>
       <c r="B45" s="94"/>
       <c r="C45" s="121"/>
@@ -31421,12 +32262,12 @@
       <c r="K45" s="18"/>
       <c r="L45" s="18"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:12">
       <c r="A46" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:12">
       <c r="A47" s="89">
         <v>6</v>
       </c>
@@ -31450,7 +32291,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:12">
       <c r="A48" s="91"/>
       <c r="B48" s="92"/>
       <c r="C48" s="121" t="s">
@@ -31476,7 +32317,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:12">
       <c r="A49" s="91"/>
       <c r="B49" s="92"/>
       <c r="C49" s="121" t="s">
@@ -31502,7 +32343,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:12">
       <c r="A50" s="91"/>
       <c r="B50" s="92"/>
       <c r="C50" s="121" t="s">
@@ -31530,7 +32371,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:12">
       <c r="A51" s="91"/>
       <c r="B51" s="92"/>
       <c r="C51" s="121" t="s">
@@ -31558,7 +32399,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:12">
       <c r="A52" s="91"/>
       <c r="B52" s="92"/>
       <c r="C52" s="121" t="s">
@@ -31586,7 +32427,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:12">
       <c r="A53" s="91"/>
       <c r="B53" s="92"/>
       <c r="C53" s="121" t="s">
@@ -31612,7 +32453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:12">
       <c r="A54" s="91"/>
       <c r="B54" s="92"/>
       <c r="C54" s="121" t="s">
@@ -31638,7 +32479,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:12">
       <c r="A55" s="91"/>
       <c r="B55" s="92"/>
       <c r="C55" s="121" t="s">
@@ -31664,7 +32505,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:12">
       <c r="A56" s="91"/>
       <c r="B56" s="92"/>
       <c r="C56" s="121" t="s">
@@ -31690,7 +32531,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:12">
       <c r="A57" s="91"/>
       <c r="B57" s="92"/>
       <c r="C57" s="121" t="s">
@@ -31716,7 +32557,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:12">
       <c r="A58" s="91"/>
       <c r="B58" s="92"/>
       <c r="C58" s="121" t="s">
@@ -31742,7 +32583,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:12">
       <c r="A59" s="93"/>
       <c r="B59" s="94"/>
       <c r="C59" s="121"/>
@@ -31756,7 +32597,7 @@
       <c r="K59" s="18"/>
       <c r="L59" s="18"/>
     </row>
-    <row r="60" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:12" s="105" customFormat="1">
       <c r="A60" s="12">
         <v>1</v>
       </c>
@@ -31780,7 +32621,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="61" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:12" s="105" customFormat="1">
       <c r="A61" s="106"/>
       <c r="B61" s="107"/>
       <c r="C61" s="127" t="s">
@@ -31808,7 +32649,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="62" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:12" s="105" customFormat="1">
       <c r="A62" s="106"/>
       <c r="B62" s="107"/>
       <c r="C62" s="127" t="s">
@@ -31836,7 +32677,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="63" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:12" s="105" customFormat="1">
       <c r="A63" s="106"/>
       <c r="B63" s="107"/>
       <c r="C63" s="127" t="s">
@@ -31864,7 +32705,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="64" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:12" s="105" customFormat="1">
       <c r="A64" s="106"/>
       <c r="B64" s="107"/>
       <c r="C64" s="127" t="s">
@@ -31892,7 +32733,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="65" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:12" s="105" customFormat="1">
       <c r="A65" s="106"/>
       <c r="B65" s="107"/>
       <c r="C65" s="127" t="s">
@@ -31918,7 +32759,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="66" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:12" s="105" customFormat="1">
       <c r="A66" s="106"/>
       <c r="B66" s="107"/>
       <c r="C66" s="127" t="s">
@@ -31944,7 +32785,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="67" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:12" s="105" customFormat="1">
       <c r="A67" s="106"/>
       <c r="B67" s="107"/>
       <c r="C67" s="127" t="s">
@@ -31970,7 +32811,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="68" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:12" s="105" customFormat="1">
       <c r="A68" s="108"/>
       <c r="B68" s="109"/>
       <c r="C68" s="127"/>
@@ -31984,7 +32825,7 @@
       <c r="K68" s="17"/>
       <c r="L68" s="17"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:12">
       <c r="A69" s="110">
         <v>3</v>
       </c>
@@ -32007,7 +32848,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:12">
       <c r="A70" s="112"/>
       <c r="B70" s="115"/>
       <c r="C70" s="127" t="s">
@@ -32035,7 +32876,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:12">
       <c r="A71" s="112"/>
       <c r="B71" s="115"/>
       <c r="C71" s="127" t="s">
@@ -32063,7 +32904,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:12">
       <c r="A72" s="112"/>
       <c r="B72" s="115"/>
       <c r="C72" s="127" t="s">
@@ -32089,7 +32930,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:12">
       <c r="A73" s="113"/>
       <c r="B73" s="114"/>
       <c r="C73" s="121"/>
@@ -32103,7 +32944,7 @@
       <c r="K73" s="101"/>
       <c r="L73" s="101"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:12">
       <c r="A74" s="95">
         <v>3</v>
       </c>
@@ -32127,7 +32968,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:12">
       <c r="A75" s="98"/>
       <c r="B75" s="92"/>
       <c r="C75" s="127" t="s">
@@ -32153,7 +32994,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:12">
       <c r="A76" s="98"/>
       <c r="B76" s="92"/>
       <c r="C76" s="127" t="s">
@@ -32179,7 +33020,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:12">
       <c r="A77" s="99"/>
       <c r="B77" s="94"/>
       <c r="C77" s="121"/>
@@ -32193,7 +33034,7 @@
       <c r="K77" s="18"/>
       <c r="L77" s="18"/>
     </row>
-    <row r="78" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:12" s="105" customFormat="1">
       <c r="A78" s="12">
         <v>3</v>
       </c>
@@ -32217,7 +33058,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="79" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:12" s="105" customFormat="1">
       <c r="A79" s="106"/>
       <c r="B79" s="115"/>
       <c r="C79" s="127" t="s">
@@ -32245,7 +33086,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="80" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:12" s="105" customFormat="1">
       <c r="A80" s="106"/>
       <c r="B80" s="115"/>
       <c r="C80" s="127" t="s">
@@ -32273,7 +33114,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:12" s="105" customFormat="1">
       <c r="A81" s="106"/>
       <c r="B81" s="115"/>
       <c r="C81" s="127" t="s">
@@ -32301,7 +33142,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="82" spans="1:12" s="105" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:12" s="105" customFormat="1">
       <c r="A82" s="108"/>
       <c r="B82" s="109"/>
       <c r="C82" s="127"/>
@@ -32315,7 +33156,7 @@
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:12">
       <c r="A83" s="95">
         <v>2</v>
       </c>
@@ -32339,7 +33180,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:12">
       <c r="A84" s="98"/>
       <c r="B84" s="91"/>
       <c r="C84" s="127" t="s">
@@ -32367,7 +33208,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:12">
       <c r="A85" s="99"/>
       <c r="B85" s="93"/>
       <c r="C85" s="121"/>
@@ -32396,7 +33237,7 @@
       <selection activeCell="X89" sqref="X89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32412,7 +33253,7 @@
       <selection activeCell="O63" sqref="O63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
